--- a/examples/Qwack - LMEDateExample.xlsx
+++ b/examples/Qwack - LMEDateExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Curves" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Val Date</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Agg1</t>
-  </si>
-  <si>
-    <t>Agg2</t>
   </si>
   <si>
     <t>Spot</t>
@@ -195,6 +192,12 @@
   <si>
     <t>VolSurface</t>
   </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>FilteredA</t>
+  </si>
 </sst>
 </file>
 
@@ -227,12 +230,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,7 +258,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +270,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -285,7 +295,7 @@
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
       <tp>
-        <v>1209.57</v>
+        <v>1204.83</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAU Curncy</stp>
@@ -296,7 +306,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>6102</v>
+        <v>6081</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20180919 LME Comdty</stp>
@@ -305,7 +315,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280920 LME Comdty</stp>
@@ -314,7 +324,7 @@
         <tr r="C126" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270915 LME Comdty</stp>
@@ -323,7 +333,7 @@
         <tr r="C114" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280816 LME Comdty</stp>
@@ -332,7 +342,7 @@
         <tr r="C125" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270421 LME Comdty</stp>
@@ -350,7 +360,7 @@
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260916 LME Comdty</stp>
@@ -359,7 +369,7 @@
         <tr r="C102" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270317 LME Comdty</stp>
@@ -368,7 +378,7 @@
         <tr r="C108" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280216 LME Comdty</stp>
@@ -377,7 +387,7 @@
         <tr r="C119" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270818 LME Comdty</stp>
@@ -386,7 +396,7 @@
         <tr r="C113" s="1"/>
       </tp>
       <tp>
-        <v>2.1</v>
+        <v>2.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR1W Curncy</stp>
@@ -404,7 +414,7 @@
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280119 LME Comdty</stp>
@@ -413,7 +423,7 @@
         <tr r="C118" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260819 LME Comdty</stp>
@@ -422,7 +432,7 @@
         <tr r="C101" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20281115 LME Comdty</stp>
@@ -431,7 +441,7 @@
         <tr r="C128" s="1"/>
       </tp>
       <tp>
-        <v>2.12</v>
+        <v>2.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR2W Curncy</stp>
@@ -449,7 +459,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR6m Curncy</stp>
@@ -458,7 +468,7 @@
         <tr r="G35" s="1"/>
       </tp>
       <tp>
-        <v>6105</v>
+        <v>6083.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181123 LME Comdty</stp>
@@ -467,7 +477,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260715 LME Comdty</stp>
@@ -476,7 +486,7 @@
         <tr r="C100" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20281018 LME Comdty</stp>
@@ -485,7 +495,7 @@
         <tr r="C127" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271117 LME Comdty</stp>
@@ -494,7 +504,7 @@
         <tr r="C116" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261216 LME Comdty</stp>
@@ -503,7 +513,7 @@
         <tr r="C105" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270616 LME Comdty</stp>
@@ -512,7 +522,7 @@
         <tr r="C111" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280517 LME Comdty</stp>
@@ -521,7 +531,7 @@
         <tr r="C122" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270120 LME Comdty</stp>
@@ -530,7 +540,7 @@
         <tr r="C106" s="1"/>
       </tp>
       <tp>
-        <v>6109</v>
+        <v>6087.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181121 LME Comdty</stp>
@@ -539,7 +549,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271215 LME Comdty</stp>
@@ -548,7 +558,7 @@
         <tr r="C117" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270217 LME Comdty</stp>
@@ -557,7 +567,7 @@
         <tr r="C107" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280419 LME Comdty</stp>
@@ -566,7 +576,7 @@
         <tr r="C121" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261118 LME Comdty</stp>
@@ -575,7 +585,7 @@
         <tr r="C104" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270519 LME Comdty</stp>
@@ -584,7 +594,7 @@
         <tr r="C110" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270721 LME Comdty</stp>
@@ -593,7 +603,7 @@
         <tr r="C112" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271020 LME Comdty</stp>
@@ -602,7 +612,7 @@
         <tr r="C115" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280621 LME Comdty</stp>
@@ -611,7 +621,7 @@
         <tr r="C123" s="1"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR9m Curncy</stp>
@@ -620,7 +630,7 @@
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>6110.5</v>
+        <v>6090</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181219 LME Comdty</stp>
@@ -629,7 +639,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280719 LME Comdty</stp>
@@ -638,7 +648,7 @@
         <tr r="C124" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280315 LME Comdty</stp>
@@ -647,7 +657,7 @@
         <tr r="C120" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261021 LME Comdty</stp>
@@ -656,7 +666,7 @@
         <tr r="C103" s="1"/>
       </tp>
       <tp>
-        <v>6106.5</v>
+        <v>6085</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181017 LME Comdty</stp>
@@ -674,7 +684,7 @@
         <tr r="G38" s="1"/>
       </tp>
       <tp>
-        <v>11.574999999999999</v>
+        <v>11.355</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV18M Curncy</stp>
@@ -683,7 +693,7 @@
         <tr r="K39" s="1"/>
       </tp>
       <tp>
-        <v>10.050000000000001</v>
+        <v>9.0950000000000006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1W Curncy</stp>
@@ -692,7 +702,7 @@
         <tr r="K30" s="1"/>
       </tp>
       <tp>
-        <v>10.199999999999999</v>
+        <v>9.2874999999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV3W Curncy</stp>
@@ -701,7 +711,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>10.14</v>
+        <v>9.4700000000000006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2W Curncy</stp>
@@ -710,7 +720,7 @@
         <tr r="K31" s="1"/>
       </tp>
       <tp>
-        <v>10.82</v>
+        <v>10.664999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1Y Curncy</stp>
@@ -719,7 +729,7 @@
         <tr r="K38" s="1"/>
       </tp>
       <tp>
-        <v>11.984999999999999</v>
+        <v>11.734999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2Y Curncy</stp>
@@ -728,7 +738,7 @@
         <tr r="K40" s="1"/>
       </tp>
       <tp>
-        <v>6091.5</v>
+        <v>6073</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADY Comdty</stp>
@@ -737,7 +747,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>6253</v>
+        <v>6237.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210915 LME Comdty</stp>
@@ -746,7 +756,7 @@
         <tr r="C42" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220720 LME Comdty</stp>
@@ -755,7 +765,7 @@
         <tr r="C52" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230517 LME Comdty</stp>
@@ -764,7 +774,7 @@
         <tr r="C62" s="1"/>
       </tp>
       <tp>
-        <v>6127</v>
+        <v>6107</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190320 LME Comdty</stp>
@@ -773,7 +783,7 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240320 LME Comdty</stp>
@@ -782,7 +792,7 @@
         <tr r="C72" s="1"/>
       </tp>
       <tp>
-        <v>6230.5</v>
+        <v>6215</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201216 LME Comdty</stp>
@@ -791,7 +801,7 @@
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251217 LME Comdty</stp>
@@ -800,7 +810,7 @@
         <tr r="C93" s="1"/>
       </tp>
       <tp>
-        <v>6180</v>
+        <v>6163.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200115 LME Comdty</stp>
@@ -809,7 +819,7 @@
         <tr r="C22" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250115 LME Comdty</stp>
@@ -818,7 +828,7 @@
         <tr r="C82" s="1"/>
       </tp>
       <tp>
-        <v>6255.5</v>
+        <v>6240</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211020 LME Comdty</stp>
@@ -827,7 +837,7 @@
         <tr r="C43" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220817 LME Comdty</stp>
@@ -836,7 +846,7 @@
         <tr r="C53" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230621 LME Comdty</stp>
@@ -845,7 +855,7 @@
         <tr r="C63" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240417 LME Comdty</stp>
@@ -854,7 +864,7 @@
         <tr r="C73" s="1"/>
       </tp>
       <tp>
-        <v>6133</v>
+        <v>6113</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190417 LME Comdty</stp>
@@ -863,7 +873,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250219 LME Comdty</stp>
@@ -872,7 +882,7 @@
         <tr r="C83" s="1"/>
       </tp>
       <tp>
-        <v>6184.5</v>
+        <v>6168</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200219 LME Comdty</stp>
@@ -881,7 +891,7 @@
         <tr r="C23" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251119 LME Comdty</stp>
@@ -890,7 +900,7 @@
         <tr r="C92" s="1"/>
       </tp>
       <tp>
-        <v>6226.5</v>
+        <v>6210.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201118 LME Comdty</stp>
@@ -899,7 +909,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>6217</v>
+        <v>6201</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200916 LME Comdty</stp>
@@ -908,7 +918,7 @@
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250917 LME Comdty</stp>
@@ -917,7 +927,7 @@
         <tr r="C90" s="1"/>
       </tp>
       <tp>
-        <v>6248</v>
+        <v>6232.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210721 LME Comdty</stp>
@@ -926,7 +936,7 @@
         <tr r="C40" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220518 LME Comdty</stp>
@@ -935,7 +945,7 @@
         <tr r="C50" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230315 LME Comdty</stp>
@@ -944,7 +954,7 @@
         <tr r="C60" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241218 LME Comdty</stp>
@@ -953,7 +963,7 @@
         <tr r="C81" s="1"/>
       </tp>
       <tp>
-        <v>6175.5</v>
+        <v>6159</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191218 LME Comdty</stp>
@@ -962,7 +972,7 @@
         <tr r="C21" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240117 LME Comdty</stp>
@@ -971,7 +981,7 @@
         <tr r="C70" s="1"/>
       </tp>
       <tp>
-        <v>6114.5</v>
+        <v>6094</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190116 LME Comdty</stp>
@@ -980,7 +990,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251015 LME Comdty</stp>
@@ -989,7 +999,7 @@
         <tr r="C91" s="1"/>
       </tp>
       <tp>
-        <v>6221.5</v>
+        <v>6205.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201021 LME Comdty</stp>
@@ -998,7 +1008,7 @@
         <tr r="C31" s="1"/>
       </tp>
       <tp>
-        <v>6250.5</v>
+        <v>6235</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210818 LME Comdty</stp>
@@ -1007,7 +1017,7 @@
         <tr r="C41" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220615 LME Comdty</stp>
@@ -1016,7 +1026,7 @@
         <tr r="C51" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230419 LME Comdty</stp>
@@ -1025,7 +1035,7 @@
         <tr r="C61" s="1"/>
       </tp>
       <tp>
-        <v>6121</v>
+        <v>6100.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190220 LME Comdty</stp>
@@ -1034,7 +1044,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240221 LME Comdty</stp>
@@ -1043,7 +1053,7 @@
         <tr r="C71" s="1"/>
       </tp>
       <tp>
-        <v>6170.5</v>
+        <v>6154</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191120 LME Comdty</stp>
@@ -1052,7 +1062,7 @@
         <tr r="C20" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241120 LME Comdty</stp>
@@ -1061,7 +1071,7 @@
         <tr r="C80" s="1"/>
       </tp>
       <tp>
-        <v>97.070000000000007</v>
+        <v>97.034999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU9 Comdty</stp>
@@ -1070,7 +1080,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230920 LME Comdty</stp>
@@ -1079,7 +1089,7 @@
         <tr r="C66" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240717 LME Comdty</stp>
@@ -1088,7 +1098,7 @@
         <tr r="C76" s="1"/>
       </tp>
       <tp>
-        <v>6150.5</v>
+        <v>6133</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190717 LME Comdty</stp>
@@ -1097,7 +1107,7 @@
         <tr r="C16" s="1"/>
       </tp>
       <tp>
-        <v>6198</v>
+        <v>6181.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200520 LME Comdty</stp>
@@ -1106,7 +1116,7 @@
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250521 LME Comdty</stp>
@@ -1115,7 +1125,7 @@
         <tr r="C86" s="1"/>
       </tp>
       <tp>
-        <v>6238</v>
+        <v>6222.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210317 LME Comdty</stp>
@@ -1124,7 +1134,7 @@
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260318 LME Comdty</stp>
@@ -1133,7 +1143,7 @@
         <tr r="C96" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221221 LME Comdty</stp>
@@ -1142,7 +1152,7 @@
         <tr r="C57" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220119 LME Comdty</stp>
@@ -1151,7 +1161,7 @@
         <tr r="C46" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231018 LME Comdty</stp>
@@ -1160,7 +1170,7 @@
         <tr r="C67" s="1"/>
       </tp>
       <tp>
-        <v>97.125</v>
+        <v>97.094999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM9 Comdty</stp>
@@ -1169,7 +1179,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>6155.5</v>
+        <v>6139</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190821 LME Comdty</stp>
@@ -1178,7 +1188,7 @@
         <tr r="C17" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240821 LME Comdty</stp>
@@ -1187,7 +1197,7 @@
         <tr r="C77" s="1"/>
       </tp>
       <tp>
-        <v>6202.5</v>
+        <v>6186.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200617 LME Comdty</stp>
@@ -1196,7 +1206,7 @@
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250618 LME Comdty</stp>
@@ -1205,7 +1215,7 @@
         <tr r="C87" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260415 LME Comdty</stp>
@@ -1214,7 +1224,7 @@
         <tr r="C97" s="1"/>
       </tp>
       <tp>
-        <v>6240.5</v>
+        <v>6225</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210421 LME Comdty</stp>
@@ -1223,7 +1233,7 @@
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220216 LME Comdty</stp>
@@ -1232,7 +1242,7 @@
         <tr r="C47" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221116 LME Comdty</stp>
@@ -1241,7 +1251,7 @@
         <tr r="C56" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220921 LME Comdty</stp>
@@ -1250,7 +1260,7 @@
         <tr r="C54" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230719 LME Comdty</stp>
@@ -1259,7 +1269,7 @@
         <tr r="C64" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240515 LME Comdty</stp>
@@ -1268,7 +1278,7 @@
         <tr r="C74" s="1"/>
       </tp>
       <tp>
-        <v>6139</v>
+        <v>6119</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190515 LME Comdty</stp>
@@ -1277,7 +1287,7 @@
         <tr r="C14" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250319 LME Comdty</stp>
@@ -1286,7 +1296,7 @@
         <tr r="C84" s="1"/>
       </tp>
       <tp>
-        <v>6189</v>
+        <v>6172.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200318 LME Comdty</stp>
@@ -1295,7 +1305,7 @@
         <tr r="C24" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211215 LME Comdty</stp>
@@ -1304,7 +1314,7 @@
         <tr r="C45" s="1"/>
       </tp>
       <tp>
-        <v>6233</v>
+        <v>6217.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210120 LME Comdty</stp>
@@ -1313,7 +1323,7 @@
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260121 LME Comdty</stp>
@@ -1322,7 +1332,7 @@
         <tr r="C94" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221019 LME Comdty</stp>
@@ -1331,7 +1341,7 @@
         <tr r="C55" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230816 LME Comdty</stp>
@@ -1340,7 +1350,7 @@
         <tr r="C65" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240619 LME Comdty</stp>
@@ -1349,7 +1359,7 @@
         <tr r="C75" s="1"/>
       </tp>
       <tp>
-        <v>6145.5</v>
+        <v>6127</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190619 LME Comdty</stp>
@@ -1358,7 +1368,7 @@
         <tr r="C15" s="1"/>
       </tp>
       <tp>
-        <v>6193.5</v>
+        <v>6177</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200415 LME Comdty</stp>
@@ -1367,7 +1377,7 @@
         <tr r="C25" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250416 LME Comdty</stp>
@@ -1376,7 +1386,7 @@
         <tr r="C85" s="1"/>
       </tp>
       <tp>
-        <v>6235.5</v>
+        <v>6220</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210217 LME Comdty</stp>
@@ -1385,7 +1395,7 @@
         <tr r="C35" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260218 LME Comdty</stp>
@@ -1394,7 +1404,7 @@
         <tr r="C95" s="1"/>
       </tp>
       <tp>
-        <v>6258</v>
+        <v>6242.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211117 LME Comdty</stp>
@@ -1403,7 +1413,7 @@
         <tr r="C44" s="1"/>
       </tp>
       <tp>
-        <v>97.64</v>
+        <v>97.65</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU8 Comdty</stp>
@@ -1412,7 +1422,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>97.23</v>
+        <v>97.210000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH9 Comdty</stp>
@@ -1421,7 +1431,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240918 LME Comdty</stp>
@@ -1430,7 +1440,7 @@
         <tr r="C78" s="1"/>
       </tp>
       <tp>
-        <v>6160.5</v>
+        <v>6144</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190918 LME Comdty</stp>
@@ -1439,7 +1449,7 @@
         <tr r="C18" s="1"/>
       </tp>
       <tp>
-        <v>6207.5</v>
+        <v>6191.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200715 LME Comdty</stp>
@@ -1448,7 +1458,7 @@
         <tr r="C28" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250716 LME Comdty</stp>
@@ -1457,7 +1467,7 @@
         <tr r="C88" s="1"/>
       </tp>
       <tp>
-        <v>6243</v>
+        <v>6227.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210519 LME Comdty</stp>
@@ -1466,7 +1476,7 @@
         <tr r="C38" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260520 LME Comdty</stp>
@@ -1475,7 +1485,7 @@
         <tr r="C98" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220316 LME Comdty</stp>
@@ -1484,7 +1494,7 @@
         <tr r="C48" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231220 LME Comdty</stp>
@@ -1493,7 +1503,7 @@
         <tr r="C69" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230118 LME Comdty</stp>
@@ -1502,7 +1512,7 @@
         <tr r="C58" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241016 LME Comdty</stp>
@@ -1511,7 +1521,7 @@
         <tr r="C79" s="1"/>
       </tp>
       <tp>
-        <v>6165.5</v>
+        <v>6149</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191016 LME Comdty</stp>
@@ -1520,7 +1530,7 @@
         <tr r="C19" s="1"/>
       </tp>
       <tp>
-        <v>97.38</v>
+        <v>97.375</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ8 Comdty</stp>
@@ -1529,7 +1539,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>6212.5</v>
+        <v>6196.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200819 LME Comdty</stp>
@@ -1538,7 +1548,7 @@
         <tr r="C29" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250820 LME Comdty</stp>
@@ -1547,7 +1557,7 @@
         <tr r="C89" s="1"/>
       </tp>
       <tp>
-        <v>6245.5</v>
+        <v>6230</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210616 LME Comdty</stp>
@@ -1556,7 +1566,7 @@
         <tr r="C39" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260617 LME Comdty</stp>
@@ -1565,7 +1575,7 @@
         <tr r="C99" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220420 LME Comdty</stp>
@@ -1574,7 +1584,7 @@
         <tr r="C49" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230215 LME Comdty</stp>
@@ -1583,7 +1593,7 @@
         <tr r="C59" s="1"/>
       </tp>
       <tp>
-        <v>6260.5</v>
+        <v>6245</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231115 LME Comdty</stp>
@@ -1592,7 +1602,7 @@
         <tr r="C68" s="1"/>
       </tp>
       <tp>
-        <v>10.63</v>
+        <v>10.44</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV9M Curncy</stp>
@@ -1601,7 +1611,7 @@
         <tr r="K37" s="1"/>
       </tp>
       <tp>
-        <v>10.305</v>
+        <v>9.8049999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2M Curncy</stp>
@@ -1610,7 +1620,7 @@
         <tr r="K34" s="1"/>
       </tp>
       <tp>
-        <v>10.345000000000001</v>
+        <v>10.035</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV3M Curncy</stp>
@@ -1619,7 +1629,7 @@
         <tr r="K35" s="1"/>
       </tp>
       <tp>
-        <v>10.395</v>
+        <v>10.17</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV6M Curncy</stp>
@@ -1628,7 +1638,7 @@
         <tr r="K36" s="1"/>
       </tp>
       <tp>
-        <v>10.085000000000001</v>
+        <v>9.6349999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1M Curncy</stp>
@@ -1637,7 +1647,7 @@
         <tr r="K33" s="1"/>
       </tp>
       <tp>
-        <v>14.414999999999999</v>
+        <v>11.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDVON Curncy</stp>
@@ -1646,7 +1656,7 @@
         <tr r="K29" s="1"/>
       </tp>
       <tp>
-        <v>97.08</v>
+        <v>97.045000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU1 Comdty</stp>
@@ -1655,7 +1665,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>97.075000000000003</v>
+        <v>97.03</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ1 Comdty</stp>
@@ -1664,7 +1674,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>97.05</v>
+        <v>97.01</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU0 Comdty</stp>
@@ -1673,7 +1683,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>97.070000000000007</v>
+        <v>97.034999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU2 Comdty</stp>
@@ -1682,7 +1692,7 @@
         <tr r="G21" s="1"/>
       </tp>
       <tp>
-        <v>97.03</v>
+        <v>96.990000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ9 Comdty</stp>
@@ -1691,7 +1701,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>2.62</v>
+        <v>2.64</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR12m Curncy</stp>
@@ -1700,7 +1710,7 @@
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>97.05</v>
+        <v>97.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ2 Comdty</stp>
@@ -1709,7 +1719,7 @@
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>97.05</v>
+        <v>97.01</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ0 Comdty</stp>
@@ -1718,7 +1728,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>97.08</v>
+        <v>97.045000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH2 Comdty</stp>
@@ -1727,7 +1737,7 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>97.05</v>
+        <v>97.015000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH3 Comdty</stp>
@@ -1736,7 +1746,7 @@
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>97.075000000000003</v>
+        <v>97.03</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM1 Comdty</stp>
@@ -1745,7 +1755,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>97.034999999999997</v>
+        <v>97.01</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM3 Comdty</stp>
@@ -1754,7 +1764,7 @@
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>97.03</v>
+        <v>96.990000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH0 Comdty</stp>
@@ -1763,7 +1773,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>97.04</v>
+        <v>97</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM0 Comdty</stp>
@@ -1772,7 +1782,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>97.075000000000003</v>
+        <v>97.04</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM2 Comdty</stp>
@@ -1781,7 +1791,7 @@
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>97.064999999999998</v>
+        <v>97.025000000000006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH1 Comdty</stp>
@@ -2094,7 +2104,7 @@
   <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2201,7 @@
       </c>
       <c r="C4" s="3">
         <f>_xll.BDP(A4&amp;" Comdty","PX_SETTLE")</f>
-        <v>6091.5</v>
+        <v>6073</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2215,7 +2225,7 @@
       </c>
       <c r="C5" s="3">
         <f>_xll.BDP(A5&amp;" Comdty","PX_SETTLE")</f>
-        <v>6102</v>
+        <v>6081</v>
       </c>
       <c r="D5" t="str">
         <f>IF(B5=$F$1,"3m",TEXT(B5,"mmmyy"))</f>
@@ -2227,7 +2237,7 @@
       </c>
       <c r="G5">
         <f>_xll.BDP(F5&amp;" Comdty","PX_LAST")</f>
-        <v>97.64</v>
+        <v>97.65</v>
       </c>
       <c r="H5" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F5,$B$1,F5,$M$1,G5,1,0,"USD.LIBOR.3M")</f>
@@ -2245,7 +2255,7 @@
       </c>
       <c r="C6" s="3">
         <f>_xll.BDP(A6&amp;" Comdty","PX_SETTLE")</f>
-        <v>6106.5</v>
+        <v>6085</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D69" si="1">IF(B6=$F$1,"3m",TEXT(B6,"mmmyy"))</f>
@@ -2257,7 +2267,7 @@
       </c>
       <c r="G6">
         <f>_xll.BDP(F6&amp;" Comdty","PX_LAST")</f>
-        <v>97.38</v>
+        <v>97.375</v>
       </c>
       <c r="H6" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F6,$B$1,F6,$M$1,G6,1,0,"USD.LIBOR.3M")</f>
@@ -2275,7 +2285,7 @@
       </c>
       <c r="C7" s="3">
         <f>_xll.BDP(A7&amp;" Comdty","PX_SETTLE")</f>
-        <v>6109</v>
+        <v>6087.5</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -2287,7 +2297,7 @@
       </c>
       <c r="G7">
         <f>_xll.BDP(F7&amp;" Comdty","PX_LAST")</f>
-        <v>97.23</v>
+        <v>97.210000000000008</v>
       </c>
       <c r="H7" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F7,$B$1,F7,$M$1,G7,1,0,"USD.LIBOR.3M")</f>
@@ -2305,7 +2315,7 @@
       </c>
       <c r="C8" s="3">
         <f>_xll.BDP(A8&amp;" Comdty","PX_SETTLE")</f>
-        <v>6105</v>
+        <v>6083.75</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -2317,7 +2327,7 @@
       </c>
       <c r="G8">
         <f>_xll.BDP(F8&amp;" Comdty","PX_LAST")</f>
-        <v>97.125</v>
+        <v>97.094999999999999</v>
       </c>
       <c r="H8" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F8,$B$1,F8,$M$1,G8,1,0,"USD.LIBOR.3M")</f>
@@ -2335,7 +2345,7 @@
       </c>
       <c r="C9" s="3">
         <f>_xll.BDP(A9&amp;" Comdty","PX_SETTLE")</f>
-        <v>6110.5</v>
+        <v>6090</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -2347,7 +2357,7 @@
       </c>
       <c r="G9">
         <f>_xll.BDP(F9&amp;" Comdty","PX_LAST")</f>
-        <v>97.070000000000007</v>
+        <v>97.034999999999997</v>
       </c>
       <c r="H9" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F9,$B$1,F9,$M$1,G9,1,0,"USD.LIBOR.3M")</f>
@@ -2365,7 +2375,7 @@
       </c>
       <c r="C10" s="3">
         <f>_xll.BDP(A10&amp;" Comdty","PX_SETTLE")</f>
-        <v>6114.5</v>
+        <v>6094</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -2377,7 +2387,7 @@
       </c>
       <c r="G10">
         <f>_xll.BDP(F10&amp;" Comdty","PX_LAST")</f>
-        <v>97.03</v>
+        <v>96.990000000000009</v>
       </c>
       <c r="H10" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F10,$B$1,F10,$M$1,G10,1,0,"USD.LIBOR.3M")</f>
@@ -2395,7 +2405,7 @@
       </c>
       <c r="C11" s="3">
         <f>_xll.BDP(A11&amp;" Comdty","PX_SETTLE")</f>
-        <v>6121</v>
+        <v>6100.5</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -2407,7 +2417,7 @@
       </c>
       <c r="G11">
         <f>_xll.BDP(F11&amp;" Comdty","PX_LAST")</f>
-        <v>97.03</v>
+        <v>96.990000000000009</v>
       </c>
       <c r="H11" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F11,$B$1,F11,$M$1,G11,1,0,"USD.LIBOR.3M")</f>
@@ -2425,7 +2435,7 @@
       </c>
       <c r="C12" s="3">
         <f>_xll.BDP(A12&amp;" Comdty","PX_SETTLE")</f>
-        <v>6127</v>
+        <v>6107</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -2437,7 +2447,7 @@
       </c>
       <c r="G12">
         <f>_xll.BDP(F12&amp;" Comdty","PX_LAST")</f>
-        <v>97.04</v>
+        <v>97</v>
       </c>
       <c r="H12" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F12,$B$1,F12,$M$1,G12,1,0,"USD.LIBOR.3M")</f>
@@ -2455,7 +2465,7 @@
       </c>
       <c r="C13" s="3">
         <f>_xll.BDP(A13&amp;" Comdty","PX_SETTLE")</f>
-        <v>6133</v>
+        <v>6113</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -2467,7 +2477,7 @@
       </c>
       <c r="G13">
         <f>_xll.BDP(F13&amp;" Comdty","PX_LAST")</f>
-        <v>97.05</v>
+        <v>97.01</v>
       </c>
       <c r="H13" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F13,$B$1,F13,$M$1,G13,1,0,"USD.LIBOR.3M")</f>
@@ -2485,7 +2495,7 @@
       </c>
       <c r="C14" s="3">
         <f>_xll.BDP(A14&amp;" Comdty","PX_SETTLE")</f>
-        <v>6139</v>
+        <v>6119</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -2497,7 +2507,7 @@
       </c>
       <c r="G14">
         <f>_xll.BDP(F14&amp;" Comdty","PX_LAST")</f>
-        <v>97.05</v>
+        <v>97.01</v>
       </c>
       <c r="H14" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F14,$B$1,F14,$M$1,G14,1,0,"USD.LIBOR.3M")</f>
@@ -2515,7 +2525,7 @@
       </c>
       <c r="C15" s="3">
         <f>_xll.BDP(A15&amp;" Comdty","PX_SETTLE")</f>
-        <v>6145.5</v>
+        <v>6127</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -2527,7 +2537,7 @@
       </c>
       <c r="G15">
         <f>_xll.BDP(F15&amp;" Comdty","PX_LAST")</f>
-        <v>97.064999999999998</v>
+        <v>97.025000000000006</v>
       </c>
       <c r="H15" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F15,$B$1,F15,$M$1,G15,1,0,"USD.LIBOR.3M")</f>
@@ -2545,7 +2555,7 @@
       </c>
       <c r="C16" s="3">
         <f>_xll.BDP(A16&amp;" Comdty","PX_SETTLE")</f>
-        <v>6150.5</v>
+        <v>6133</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -2557,7 +2567,7 @@
       </c>
       <c r="G16">
         <f>_xll.BDP(F16&amp;" Comdty","PX_LAST")</f>
-        <v>97.075000000000003</v>
+        <v>97.03</v>
       </c>
       <c r="H16" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F16,$B$1,F16,$M$1,G16,1,0,"USD.LIBOR.3M")</f>
@@ -2575,7 +2585,7 @@
       </c>
       <c r="C17" s="3">
         <f>_xll.BDP(A17&amp;" Comdty","PX_SETTLE")</f>
-        <v>6155.5</v>
+        <v>6139</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -2587,7 +2597,7 @@
       </c>
       <c r="G17">
         <f>_xll.BDP(F17&amp;" Comdty","PX_LAST")</f>
-        <v>97.08</v>
+        <v>97.045000000000002</v>
       </c>
       <c r="H17" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F17,$B$1,F17,$M$1,G17,1,0,"USD.LIBOR.3M")</f>
@@ -2605,7 +2615,7 @@
       </c>
       <c r="C18" s="3">
         <f>_xll.BDP(A18&amp;" Comdty","PX_SETTLE")</f>
-        <v>6160.5</v>
+        <v>6144</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -2617,7 +2627,7 @@
       </c>
       <c r="G18">
         <f>_xll.BDP(F18&amp;" Comdty","PX_LAST")</f>
-        <v>97.075000000000003</v>
+        <v>97.03</v>
       </c>
       <c r="H18" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F18,$B$1,F18,$M$1,G18,1,0,"USD.LIBOR.3M")</f>
@@ -2635,7 +2645,7 @@
       </c>
       <c r="C19" s="3">
         <f>_xll.BDP(A19&amp;" Comdty","PX_SETTLE")</f>
-        <v>6165.5</v>
+        <v>6149</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -2647,7 +2657,7 @@
       </c>
       <c r="G19">
         <f>_xll.BDP(F19&amp;" Comdty","PX_LAST")</f>
-        <v>97.08</v>
+        <v>97.045000000000002</v>
       </c>
       <c r="H19" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F19,$B$1,F19,$M$1,G19,1,0,"USD.LIBOR.3M")</f>
@@ -2665,7 +2675,7 @@
       </c>
       <c r="C20" s="3">
         <f>_xll.BDP(A20&amp;" Comdty","PX_SETTLE")</f>
-        <v>6170.5</v>
+        <v>6154</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -2677,7 +2687,7 @@
       </c>
       <c r="G20">
         <f>_xll.BDP(F20&amp;" Comdty","PX_LAST")</f>
-        <v>97.075000000000003</v>
+        <v>97.04</v>
       </c>
       <c r="H20" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F20,$B$1,F20,$M$1,G20,1,0,"USD.LIBOR.3M")</f>
@@ -2695,7 +2705,7 @@
       </c>
       <c r="C21" s="3">
         <f>_xll.BDP(A21&amp;" Comdty","PX_SETTLE")</f>
-        <v>6175.5</v>
+        <v>6159</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -2707,7 +2717,7 @@
       </c>
       <c r="G21">
         <f>_xll.BDP(F21&amp;" Comdty","PX_LAST")</f>
-        <v>97.070000000000007</v>
+        <v>97.034999999999997</v>
       </c>
       <c r="H21" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F21,$B$1,F21,$M$1,G21,1,0,"USD.LIBOR.3M")</f>
@@ -2725,7 +2735,7 @@
       </c>
       <c r="C22" s="3">
         <f>_xll.BDP(A22&amp;" Comdty","PX_SETTLE")</f>
-        <v>6180</v>
+        <v>6163.5</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -2737,7 +2747,7 @@
       </c>
       <c r="G22">
         <f>_xll.BDP(F22&amp;" Comdty","PX_LAST")</f>
-        <v>97.05</v>
+        <v>97.02</v>
       </c>
       <c r="H22" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F22,$B$1,F22,$M$1,G22,1,0,"USD.LIBOR.3M")</f>
@@ -2755,7 +2765,7 @@
       </c>
       <c r="C23" s="3">
         <f>_xll.BDP(A23&amp;" Comdty","PX_SETTLE")</f>
-        <v>6184.5</v>
+        <v>6168</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2767,7 +2777,7 @@
       </c>
       <c r="G23">
         <f>_xll.BDP(F23&amp;" Comdty","PX_LAST")</f>
-        <v>97.05</v>
+        <v>97.015000000000001</v>
       </c>
       <c r="H23" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F23,$B$1,F23,$M$1,G23,1,0,"USD.LIBOR.3M")</f>
@@ -2785,7 +2795,7 @@
       </c>
       <c r="C24" s="3">
         <f>_xll.BDP(A24&amp;" Comdty","PX_SETTLE")</f>
-        <v>6189</v>
+        <v>6172.5</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2797,7 +2807,7 @@
       </c>
       <c r="G24">
         <f>_xll.BDP(F24&amp;" Comdty","PX_LAST")</f>
-        <v>97.034999999999997</v>
+        <v>97.01</v>
       </c>
       <c r="H24" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F24,$B$1,F24,$M$1,G24,1,0,"USD.LIBOR.3M")</f>
@@ -2815,7 +2825,7 @@
       </c>
       <c r="C25" s="3">
         <f>_xll.BDP(A25&amp;" Comdty","PX_SETTLE")</f>
-        <v>6193.5</v>
+        <v>6177</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2833,7 +2843,7 @@
       </c>
       <c r="C26" s="3">
         <f>_xll.BDP(A26&amp;" Comdty","PX_SETTLE")</f>
-        <v>6198</v>
+        <v>6181.5</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2858,14 +2868,14 @@
       </c>
       <c r="C27" s="3">
         <f>_xll.BDP(A27&amp;" Comdty","PX_SETTLE")</f>
-        <v>6202.5</v>
+        <v>6186.5</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
         <v>Jun20</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" t="str">
         <f>_xll.QVol_CreateGridVolSurface("XAU",B1,0.5,L29:L40,K29:K40,"Delta","Linear","LinearInVariance",J29:J40)</f>
@@ -2883,7 +2893,7 @@
       </c>
       <c r="C28" s="3">
         <f>_xll.BDP(A28&amp;" Comdty","PX_SETTLE")</f>
-        <v>6207.5</v>
+        <v>6191.5</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2901,25 +2911,25 @@
       </c>
       <c r="C29" s="3">
         <f>_xll.BDP(A29&amp;" Comdty","PX_SETTLE")</f>
-        <v>6212.5</v>
+        <v>6196.5</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
         <v>Aug20</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="3">
         <f>_xll.BDP("XAU Curncy","PX_Last")</f>
-        <v>1209.57</v>
+        <v>1204.83</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J29&amp;" Curncy","PX_Last")/100</f>
-        <v>0.14415</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="L29" s="2">
         <f>_xll.QDates_AddPeriod($B$2,"1b","F","NYC+LON")</f>
@@ -2937,29 +2947,29 @@
       </c>
       <c r="C30" s="3">
         <f>_xll.BDP(A30&amp;" Comdty","PX_SETTLE")</f>
-        <v>6217</v>
+        <v>6201</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
         <v>Sep20</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7">
         <f>_xll.BDP("XAUSR"&amp;F30&amp;" Curncy","PX_Last")/100</f>
-        <v>2.1000000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="H30" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F30,"F","NYC+LON")</f>
         <v>43347</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J30&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10050000000000001</v>
+        <v>9.0950000000000003E-2</v>
       </c>
       <c r="L30" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J30,"F","NYC+LON")</f>
@@ -2977,29 +2987,29 @@
       </c>
       <c r="C31" s="3">
         <f>_xll.BDP(A31&amp;" Comdty","PX_SETTLE")</f>
-        <v>6221.5</v>
+        <v>6205.5</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
         <v>Oct20</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="7">
         <f>_xll.BDP("XAUSR"&amp;F31&amp;" Curncy","PX_Last")/100</f>
-        <v>2.12E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="H31" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F31,"F","NYC+LON")</f>
         <v>43354</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J31&amp;" Curncy","PX_Last")/100</f>
-        <v>0.1014</v>
+        <v>9.4700000000000006E-2</v>
       </c>
       <c r="L31" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J31,"F","NYC+LON")</f>
@@ -3017,14 +3027,14 @@
       </c>
       <c r="C32" s="3">
         <f>_xll.BDP(A32&amp;" Comdty","PX_SETTLE")</f>
-        <v>6226.5</v>
+        <v>6210.5</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
         <v>Nov20</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="7">
         <f>_xll.BDP("XAUSR"&amp;F32&amp;" Curncy","PX_Last")/100</f>
@@ -3035,11 +3045,11 @@
         <v>43371</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J32&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10199999999999999</v>
+        <v>9.2874999999999999E-2</v>
       </c>
       <c r="L32" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J32,"F","NYC+LON")</f>
@@ -3057,14 +3067,14 @@
       </c>
       <c r="C33" s="3">
         <f>_xll.BDP(A33&amp;" Comdty","PX_SETTLE")</f>
-        <v>6230.5</v>
+        <v>6215</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
         <v>Dec20</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="7">
         <f>_xll.BDP("XAUSR"&amp;F33&amp;" Curncy","PX_Last")/100</f>
@@ -3075,11 +3085,11 @@
         <v>43402</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J33&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10085000000000001</v>
+        <v>9.6349999999999991E-2</v>
       </c>
       <c r="L33" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J33,"F","NYC+LON")</f>
@@ -3097,7 +3107,7 @@
       </c>
       <c r="C34" s="3">
         <f>_xll.BDP(A34&amp;" Comdty","PX_SETTLE")</f>
-        <v>6233</v>
+        <v>6217.5</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -3115,11 +3125,11 @@
         <v>43432</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J34&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10305</v>
+        <v>9.8049999999999998E-2</v>
       </c>
       <c r="L34" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J34,"F","NYC+LON")</f>
@@ -3137,29 +3147,29 @@
       </c>
       <c r="C35" s="3">
         <f>_xll.BDP(A35&amp;" Comdty","PX_SETTLE")</f>
-        <v>6235.5</v>
+        <v>6220</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
         <v>Feb21</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="7">
         <f>_xll.BDP("XAUSR"&amp;F35&amp;" Curncy","PX_Last")/100</f>
-        <v>2.4500000000000001E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="H35" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F35,"F","NYC+LON")</f>
         <v>43524</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J35&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10345</v>
+        <v>0.10034999999999999</v>
       </c>
       <c r="L35" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J35,"F","NYC+LON")</f>
@@ -3177,29 +3187,29 @@
       </c>
       <c r="C36" s="3">
         <f>_xll.BDP(A36&amp;" Comdty","PX_SETTLE")</f>
-        <v>6238</v>
+        <v>6222.5</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
         <v>Mar21</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" s="7">
         <f>_xll.BDP("XAUSR"&amp;F36&amp;" Curncy","PX_Last")/100</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="H36" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F36,"F","NYC+LON")</f>
         <v>43613</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J36&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10395</v>
+        <v>0.1017</v>
       </c>
       <c r="L36" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J36,"F","NYC+LON")</f>
@@ -3217,29 +3227,29 @@
       </c>
       <c r="C37" s="3">
         <f>_xll.BDP(A37&amp;" Comdty","PX_SETTLE")</f>
-        <v>6240.5</v>
+        <v>6225</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
         <v>Apr21</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7">
         <f>_xll.BDP("XAUSR"&amp;F37&amp;" Curncy","PX_Last")/100</f>
-        <v>2.6200000000000001E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="H37" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F37,"F","NYC+LON")</f>
         <v>43705</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J37&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10630000000000001</v>
+        <v>0.10439999999999999</v>
       </c>
       <c r="L37" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J37,"F","NYC+LON")</f>
@@ -3257,14 +3267,14 @@
       </c>
       <c r="C38" s="3">
         <f>_xll.BDP(A38&amp;" Comdty","PX_SETTLE")</f>
-        <v>6243</v>
+        <v>6227.5</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
         <v>May21</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="7">
         <f>_xll.BDP("XAUSR"&amp;F38&amp;" Curncy","PX_Last")/100</f>
@@ -3275,11 +3285,11 @@
         <v>44071</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J38&amp;" Curncy","PX_Last")/100</f>
-        <v>0.1082</v>
+        <v>0.10664999999999999</v>
       </c>
       <c r="L38" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J38,"F","NYC+LON")</f>
@@ -3297,18 +3307,18 @@
       </c>
       <c r="C39" s="3">
         <f>_xll.BDP(A39&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245.5</v>
+        <v>6230</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
         <v>Jun21</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J39&amp;" Curncy","PX_Last")/100</f>
-        <v>0.11574999999999999</v>
+        <v>0.11355</v>
       </c>
       <c r="L39" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J39,"F","NYC+LON")</f>
@@ -3326,18 +3336,18 @@
       </c>
       <c r="C40" s="3">
         <f>_xll.BDP(A40&amp;" Comdty","PX_SETTLE")</f>
-        <v>6248</v>
+        <v>6232.5</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
         <v>Jul21</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J40&amp;" Curncy","PX_Last")/100</f>
-        <v>0.11985</v>
+        <v>0.11735</v>
       </c>
       <c r="L40" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J40,"F","NYC+LON")</f>
@@ -3355,7 +3365,7 @@
       </c>
       <c r="C41" s="3">
         <f>_xll.BDP(A41&amp;" Comdty","PX_SETTLE")</f>
-        <v>6250.5</v>
+        <v>6235</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -3373,7 +3383,7 @@
       </c>
       <c r="C42" s="3">
         <f>_xll.BDP(A42&amp;" Comdty","PX_SETTLE")</f>
-        <v>6253</v>
+        <v>6237.5</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
@@ -3391,7 +3401,7 @@
       </c>
       <c r="C43" s="3">
         <f>_xll.BDP(A43&amp;" Comdty","PX_SETTLE")</f>
-        <v>6255.5</v>
+        <v>6240</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
@@ -3409,7 +3419,7 @@
       </c>
       <c r="C44" s="3">
         <f>_xll.BDP(A44&amp;" Comdty","PX_SETTLE")</f>
-        <v>6258</v>
+        <v>6242.5</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
@@ -3427,7 +3437,7 @@
       </c>
       <c r="C45" s="3">
         <f>_xll.BDP(A45&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
@@ -3445,7 +3455,7 @@
       </c>
       <c r="C46" s="3">
         <f>_xll.BDP(A46&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
@@ -3463,7 +3473,7 @@
       </c>
       <c r="C47" s="3">
         <f>_xll.BDP(A47&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
@@ -3481,7 +3491,7 @@
       </c>
       <c r="C48" s="3">
         <f>_xll.BDP(A48&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
@@ -3499,7 +3509,7 @@
       </c>
       <c r="C49" s="3">
         <f>_xll.BDP(A49&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
@@ -3517,7 +3527,7 @@
       </c>
       <c r="C50" s="3">
         <f>_xll.BDP(A50&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
@@ -3535,7 +3545,7 @@
       </c>
       <c r="C51" s="3">
         <f>_xll.BDP(A51&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
@@ -3553,7 +3563,7 @@
       </c>
       <c r="C52" s="3">
         <f>_xll.BDP(A52&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
@@ -3571,7 +3581,7 @@
       </c>
       <c r="C53" s="3">
         <f>_xll.BDP(A53&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -3589,7 +3599,7 @@
       </c>
       <c r="C54" s="3">
         <f>_xll.BDP(A54&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -3607,7 +3617,7 @@
       </c>
       <c r="C55" s="3">
         <f>_xll.BDP(A55&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
@@ -3625,7 +3635,7 @@
       </c>
       <c r="C56" s="3">
         <f>_xll.BDP(A56&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
@@ -3643,7 +3653,7 @@
       </c>
       <c r="C57" s="3">
         <f>_xll.BDP(A57&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
@@ -3661,7 +3671,7 @@
       </c>
       <c r="C58" s="3">
         <f>_xll.BDP(A58&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
@@ -3679,7 +3689,7 @@
       </c>
       <c r="C59" s="3">
         <f>_xll.BDP(A59&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
@@ -3697,7 +3707,7 @@
       </c>
       <c r="C60" s="3">
         <f>_xll.BDP(A60&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
@@ -3715,7 +3725,7 @@
       </c>
       <c r="C61" s="3">
         <f>_xll.BDP(A61&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
@@ -3733,7 +3743,7 @@
       </c>
       <c r="C62" s="3">
         <f>_xll.BDP(A62&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
@@ -3751,7 +3761,7 @@
       </c>
       <c r="C63" s="3">
         <f>_xll.BDP(A63&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
@@ -3769,7 +3779,7 @@
       </c>
       <c r="C64" s="3">
         <f>_xll.BDP(A64&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
@@ -3787,7 +3797,7 @@
       </c>
       <c r="C65" s="3">
         <f>_xll.BDP(A65&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
@@ -3805,7 +3815,7 @@
       </c>
       <c r="C66" s="3">
         <f>_xll.BDP(A66&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
@@ -3823,7 +3833,7 @@
       </c>
       <c r="C67" s="3">
         <f>_xll.BDP(A67&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -3841,7 +3851,7 @@
       </c>
       <c r="C68" s="3">
         <f>_xll.BDP(A68&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -3859,7 +3869,7 @@
       </c>
       <c r="C69" s="3">
         <f>_xll.BDP(A69&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -3877,7 +3887,7 @@
       </c>
       <c r="C70" s="3">
         <f>_xll.BDP(A70&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ref="D70:D128" si="4">IF(B70=$F$1,"3m",TEXT(B70,"mmmyy"))</f>
@@ -3895,7 +3905,7 @@
       </c>
       <c r="C71" s="3">
         <f>_xll.BDP(A71&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="4"/>
@@ -3913,7 +3923,7 @@
       </c>
       <c r="C72" s="3">
         <f>_xll.BDP(A72&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="4"/>
@@ -3931,7 +3941,7 @@
       </c>
       <c r="C73" s="3">
         <f>_xll.BDP(A73&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="4"/>
@@ -3949,7 +3959,7 @@
       </c>
       <c r="C74" s="3">
         <f>_xll.BDP(A74&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="4"/>
@@ -3967,7 +3977,7 @@
       </c>
       <c r="C75" s="3">
         <f>_xll.BDP(A75&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="4"/>
@@ -3985,7 +3995,7 @@
       </c>
       <c r="C76" s="3">
         <f>_xll.BDP(A76&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="4"/>
@@ -4003,7 +4013,7 @@
       </c>
       <c r="C77" s="3">
         <f>_xll.BDP(A77&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="4"/>
@@ -4021,7 +4031,7 @@
       </c>
       <c r="C78" s="3">
         <f>_xll.BDP(A78&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="4"/>
@@ -4039,7 +4049,7 @@
       </c>
       <c r="C79" s="3">
         <f>_xll.BDP(A79&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="4"/>
@@ -4057,7 +4067,7 @@
       </c>
       <c r="C80" s="3">
         <f>_xll.BDP(A80&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="4"/>
@@ -4075,7 +4085,7 @@
       </c>
       <c r="C81" s="3">
         <f>_xll.BDP(A81&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="4"/>
@@ -4093,7 +4103,7 @@
       </c>
       <c r="C82" s="3">
         <f>_xll.BDP(A82&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="4"/>
@@ -4111,7 +4121,7 @@
       </c>
       <c r="C83" s="3">
         <f>_xll.BDP(A83&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="4"/>
@@ -4129,7 +4139,7 @@
       </c>
       <c r="C84" s="3">
         <f>_xll.BDP(A84&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="4"/>
@@ -4147,7 +4157,7 @@
       </c>
       <c r="C85" s="3">
         <f>_xll.BDP(A85&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="4"/>
@@ -4165,7 +4175,7 @@
       </c>
       <c r="C86" s="3">
         <f>_xll.BDP(A86&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="4"/>
@@ -4183,7 +4193,7 @@
       </c>
       <c r="C87" s="3">
         <f>_xll.BDP(A87&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="4"/>
@@ -4201,7 +4211,7 @@
       </c>
       <c r="C88" s="3">
         <f>_xll.BDP(A88&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="4"/>
@@ -4219,7 +4229,7 @@
       </c>
       <c r="C89" s="3">
         <f>_xll.BDP(A89&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="4"/>
@@ -4237,7 +4247,7 @@
       </c>
       <c r="C90" s="3">
         <f>_xll.BDP(A90&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="4"/>
@@ -4255,7 +4265,7 @@
       </c>
       <c r="C91" s="3">
         <f>_xll.BDP(A91&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="4"/>
@@ -4273,7 +4283,7 @@
       </c>
       <c r="C92" s="3">
         <f>_xll.BDP(A92&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="4"/>
@@ -4291,7 +4301,7 @@
       </c>
       <c r="C93" s="3">
         <f>_xll.BDP(A93&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="4"/>
@@ -4309,7 +4319,7 @@
       </c>
       <c r="C94" s="3">
         <f>_xll.BDP(A94&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="4"/>
@@ -4327,7 +4337,7 @@
       </c>
       <c r="C95" s="3">
         <f>_xll.BDP(A95&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="4"/>
@@ -4345,7 +4355,7 @@
       </c>
       <c r="C96" s="3">
         <f>_xll.BDP(A96&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="4"/>
@@ -4363,7 +4373,7 @@
       </c>
       <c r="C97" s="3">
         <f>_xll.BDP(A97&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="4"/>
@@ -4381,7 +4391,7 @@
       </c>
       <c r="C98" s="3">
         <f>_xll.BDP(A98&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -4399,7 +4409,7 @@
       </c>
       <c r="C99" s="3">
         <f>_xll.BDP(A99&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="4"/>
@@ -4417,7 +4427,7 @@
       </c>
       <c r="C100" s="3">
         <f>_xll.BDP(A100&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="4"/>
@@ -4435,7 +4445,7 @@
       </c>
       <c r="C101" s="3">
         <f>_xll.BDP(A101&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="4"/>
@@ -4453,7 +4463,7 @@
       </c>
       <c r="C102" s="3">
         <f>_xll.BDP(A102&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
@@ -4471,7 +4481,7 @@
       </c>
       <c r="C103" s="3">
         <f>_xll.BDP(A103&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="4"/>
@@ -4489,7 +4499,7 @@
       </c>
       <c r="C104" s="3">
         <f>_xll.BDP(A104&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="4"/>
@@ -4507,7 +4517,7 @@
       </c>
       <c r="C105" s="3">
         <f>_xll.BDP(A105&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="4"/>
@@ -4525,7 +4535,7 @@
       </c>
       <c r="C106" s="3">
         <f>_xll.BDP(A106&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="4"/>
@@ -4543,7 +4553,7 @@
       </c>
       <c r="C107" s="3">
         <f>_xll.BDP(A107&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="4"/>
@@ -4561,7 +4571,7 @@
       </c>
       <c r="C108" s="3">
         <f>_xll.BDP(A108&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="4"/>
@@ -4579,7 +4589,7 @@
       </c>
       <c r="C109" s="3">
         <f>_xll.BDP(A109&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="4"/>
@@ -4597,7 +4607,7 @@
       </c>
       <c r="C110" s="3">
         <f>_xll.BDP(A110&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="4"/>
@@ -4615,7 +4625,7 @@
       </c>
       <c r="C111" s="3">
         <f>_xll.BDP(A111&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="4"/>
@@ -4633,7 +4643,7 @@
       </c>
       <c r="C112" s="3">
         <f>_xll.BDP(A112&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="4"/>
@@ -4651,7 +4661,7 @@
       </c>
       <c r="C113" s="3">
         <f>_xll.BDP(A113&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="4"/>
@@ -4669,7 +4679,7 @@
       </c>
       <c r="C114" s="3">
         <f>_xll.BDP(A114&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="4"/>
@@ -4687,7 +4697,7 @@
       </c>
       <c r="C115" s="3">
         <f>_xll.BDP(A115&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="4"/>
@@ -4705,7 +4715,7 @@
       </c>
       <c r="C116" s="3">
         <f>_xll.BDP(A116&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="4"/>
@@ -4723,7 +4733,7 @@
       </c>
       <c r="C117" s="3">
         <f>_xll.BDP(A117&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
@@ -4741,7 +4751,7 @@
       </c>
       <c r="C118" s="3">
         <f>_xll.BDP(A118&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="4"/>
@@ -4759,7 +4769,7 @@
       </c>
       <c r="C119" s="3">
         <f>_xll.BDP(A119&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="4"/>
@@ -4777,7 +4787,7 @@
       </c>
       <c r="C120" s="3">
         <f>_xll.BDP(A120&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="4"/>
@@ -4795,7 +4805,7 @@
       </c>
       <c r="C121" s="3">
         <f>_xll.BDP(A121&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="4"/>
@@ -4813,7 +4823,7 @@
       </c>
       <c r="C122" s="3">
         <f>_xll.BDP(A122&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="4"/>
@@ -4831,7 +4841,7 @@
       </c>
       <c r="C123" s="3">
         <f>_xll.BDP(A123&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="4"/>
@@ -4849,7 +4859,7 @@
       </c>
       <c r="C124" s="3">
         <f>_xll.BDP(A124&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="4"/>
@@ -4867,7 +4877,7 @@
       </c>
       <c r="C125" s="3">
         <f>_xll.BDP(A125&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="4"/>
@@ -4885,7 +4895,7 @@
       </c>
       <c r="C126" s="3">
         <f>_xll.BDP(A126&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="4"/>
@@ -4903,7 +4913,7 @@
       </c>
       <c r="C127" s="3">
         <f>_xll.BDP(A127&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="4"/>
@@ -4921,7 +4931,7 @@
       </c>
       <c r="C128" s="3">
         <f>_xll.BDP(A128&amp;" Comdty","PX_SETTLE")</f>
-        <v>6260.5</v>
+        <v>6245</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="4"/>
@@ -5104,10 +5114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P221"/>
+  <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,10 +5140,10 @@
         <v>TradeId</v>
       </c>
       <c r="I1" t="str">
-        <v>PV</v>
-      </c>
-      <c r="J1" t="e">
-        <v>#N/A</v>
+        <v>Currency</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Value</v>
       </c>
       <c r="K1" t="e">
         <v>#N/A</v>
@@ -5161,11 +5171,11 @@
       <c r="H2" t="str">
         <v>SwpCA_APR-19</v>
       </c>
-      <c r="I2" s="3">
-        <v>130252.7364337855</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
+      <c r="I2" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J2">
+        <v>110600.89425481207</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
@@ -5186,11 +5196,11 @@
       <c r="H3" t="str">
         <v>SwpCA_MAY-19</v>
       </c>
-      <c r="I3" s="3">
-        <v>136289.68657650903</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
+      <c r="I3" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J3">
+        <v>116868.90294528572</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -5204,7 +5214,7 @@
       </c>
       <c r="P3">
         <f>_xll.QCurves_GetAveragePrice(Curves!$I$1,N3:N24)</f>
-        <v>6132.5616883116891</v>
+        <v>6112.5616883116891</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -5222,11 +5232,11 @@
       <c r="H4" t="str">
         <v>SwpCA_JUN-19</v>
       </c>
-      <c r="I4" s="3">
-        <v>141532.10213087779</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#N/A</v>
+      <c r="I4" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J4">
+        <v>123251.04648611795</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
@@ -5256,11 +5266,11 @@
       <c r="H5" t="str">
         <v>SwpCA_JUL-19</v>
       </c>
-      <c r="I5" s="3">
-        <v>146554.6183975123</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
+      <c r="I5" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J5">
+        <v>129421.30736887369</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
@@ -5293,11 +5303,11 @@
       <c r="H6" t="str">
         <v>SwpCA_AUG-19</v>
       </c>
-      <c r="I6" s="3">
-        <v>150667.30061112138</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
+      <c r="I6" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J6">
+        <v>134414.98799155111</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
@@ -5310,7 +5320,7 @@
       </c>
       <c r="P6">
         <f>(P3-P5)*P4</f>
-        <v>132561.68831168907</v>
+        <v>112561.68831168907</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -5331,11 +5341,11 @@
       <c r="H7" t="str">
         <v>SwpCA_SEP-19</v>
       </c>
-      <c r="I7" s="3">
-        <v>155338.36505393646</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+      <c r="I7" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J7">
+        <v>139303.9432569994</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
@@ -5366,11 +5376,11 @@
       <c r="H8" t="str">
         <v>SwpCA_OCT-19</v>
       </c>
-      <c r="I8" s="3">
-        <v>160107.28654569929</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
+      <c r="I8" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J8">
+        <v>144110.44022077648</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
@@ -5383,7 +5393,7 @@
       </c>
       <c r="P8">
         <f>_xll.QCurves_GetDF(Curves!$M$2,Curves!B1,P7)</f>
-        <v>0.98258205740051685</v>
+        <v>0.98258027143793847</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -5401,11 +5411,11 @@
       <c r="H9" t="str">
         <v>SwpCA_NOV-19</v>
       </c>
-      <c r="I9" s="3">
-        <v>164102.32663013169</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
+      <c r="I9" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J9">
+        <v>148138.30044393102</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
@@ -5418,7 +5428,7 @@
       </c>
       <c r="P9">
         <f>P8*P6</f>
-        <v>130252.7364337855</v>
+        <v>110600.89425481207</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -5436,11 +5446,11 @@
       <c r="H10" t="str">
         <v>SwpCA_DEC-19</v>
       </c>
-      <c r="I10" s="3">
-        <v>168511.88227172103</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="I10" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J10">
+        <v>152582.47130846075</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
@@ -5464,11 +5474,11 @@
       <c r="H11" t="str">
         <v>SwpCA_JAN-20</v>
       </c>
-      <c r="I11" s="3">
-        <v>173014.43009810866</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+      <c r="I11" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J11">
+        <v>157120.25143446532</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -5479,9 +5489,9 @@
       <c r="O11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="6" t="e">
         <f>P9-I2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -5499,11 +5509,11 @@
       <c r="H12" t="str">
         <v>SwpCA_FEB-20</v>
       </c>
-      <c r="I12" s="3">
-        <v>176424.8468169038</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
+      <c r="I12" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J12">
+        <v>160561.32520384638</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
@@ -5527,11 +5537,11 @@
       <c r="H13" t="str">
         <v>SwpCA_MAR-20</v>
       </c>
-      <c r="I13" s="3">
-        <v>180337.78616168693</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+      <c r="I13" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J13">
+        <v>164506.71072921535</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
@@ -5555,11 +5565,11 @@
       <c r="H14" t="str">
         <v>SwpCA_APR-20</v>
       </c>
-      <c r="I14" s="3">
-        <v>184527.03989350569</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="I14" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J14">
+        <v>168730.1525094891</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -5583,11 +5593,11 @@
       <c r="H15" t="str">
         <v>SwpCA_MAY-20</v>
       </c>
-      <c r="I15" s="3">
-        <v>187852.93325595657</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
+      <c r="I15" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J15">
+        <v>172114.83575903464</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
@@ -5605,16 +5615,16 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H17" t="str">
         <f t="array" ref="H17:L221">_xll.QCube_DisplayCube(D22)</f>
-        <v>TradeId</v>
+        <v>Metric</v>
       </c>
       <c r="I17" t="str">
-        <v>Delta</v>
+        <v>PointLabel</v>
       </c>
       <c r="J17" t="str">
-        <v>Gamma</v>
+        <v>Value</v>
       </c>
       <c r="K17" t="e">
         <v>#N/A</v>
@@ -5626,7 +5636,7 @@
         <v>43574</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5635,13 +5645,13 @@
         <v>Portfolio¬1</v>
       </c>
       <c r="H18" t="str">
-        <v>SwpCA_APR-19</v>
-      </c>
-      <c r="I18" s="3">
-        <v>982.58205746678868</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <v>Mar19</v>
       </c>
       <c r="J18">
-        <v>-6.2573235481977463E-5</v>
+        <v>-1.7753336578607559E-5</v>
       </c>
       <c r="K18" t="e">
         <v>#N/A</v>
@@ -5653,7 +5663,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5662,13 +5672,13 @@
         <v>PV¬1</v>
       </c>
       <c r="H19" t="str">
-        <v>SwpCA_MAY-19</v>
-      </c>
-      <c r="I19" s="3">
-        <v>980.07554117939435</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <v>Apr19</v>
       </c>
       <c r="J19">
-        <v>1.1641532182693481E-6</v>
+        <v>-5.3114490583539009E-5</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
@@ -5680,7 +5690,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -5689,13 +5699,13 @@
         <v>Delta¬1</v>
       </c>
       <c r="H20" t="str">
-        <v>SwpCA1_MAY-19</v>
-      </c>
-      <c r="I20" s="3">
-        <v>980.07554117939435</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <v>May19</v>
       </c>
       <c r="J20">
-        <v>1.1641532182693481E-6</v>
+        <v>5.3696567192673683E-5</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
@@ -5707,22 +5717,22 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="str">
-        <f>_xll.QCube_AggregateCube(C21,D20,"PointLabel",B24:C25)</f>
+        <f>_xll.QCube_AggregateCube(C21,D20,{"Metric","PointLabel"},"Sum")</f>
         <v>Agg1¬1</v>
       </c>
       <c r="H21" t="str">
-        <v>SwpCA_JUN-19</v>
-      </c>
-      <c r="I21" s="3">
-        <v>977.92783066397533</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <v>Jun19</v>
       </c>
       <c r="J21">
-        <v>5.8207660913467407E-7</v>
+        <v>8.5856299847364426E-6</v>
       </c>
       <c r="K21" t="e">
         <v>#N/A</v>
@@ -5734,22 +5744,28 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D22" t="str">
-        <f>_xll.QCube_AggregateCube(C22,D20,"TradeId",B24:C25)</f>
-        <v>Agg2¬1</v>
+        <f>_xll.QCube_FilterCube(C22,D21,A22:B22)</f>
+        <v>FilteredA¬1</v>
       </c>
       <c r="H22" t="str">
-        <v>SwpCA_JUL-19</v>
-      </c>
-      <c r="I22" s="3">
-        <v>975.54213732946664</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <v>Jul19</v>
       </c>
       <c r="J22">
-        <v>9.8953023552894592E-6</v>
+        <v>-2.9103830456733704E-7</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
@@ -5761,15 +5777,15 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
-        <v>SwpCA_AUG-19</v>
-      </c>
-      <c r="I23" s="3">
-        <v>972.96422248473391</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <v>Aug19</v>
       </c>
       <c r="J23">
-        <v>9.8953023552894592E-6</v>
+        <v>8.7311491370201111E-6</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
@@ -5781,7 +5797,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -5789,13 +5805,13 @@
         <v>21</v>
       </c>
       <c r="H24" t="str">
-        <v>SwpCA_SEP-19</v>
-      </c>
-      <c r="I24" s="3">
-        <v>970.77191435237182</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <v>Sep19</v>
       </c>
       <c r="J24">
-        <v>-9.0221874415874481E-6</v>
+        <v>-8.7311491370201111E-6</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
@@ -5807,21 +5823,21 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="H25" t="str">
-        <v>SwpCA_OCT-19</v>
-      </c>
-      <c r="I25" s="3">
-        <v>968.19437809608644</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <v>Oct19</v>
       </c>
       <c r="J25">
-        <v>-7.8871380537748337E-5</v>
+        <v>-3.4924596548080444E-5</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
@@ -5833,15 +5849,15 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H26" t="str">
-        <v>SwpCA_NOV-19</v>
-      </c>
-      <c r="I26" s="3">
-        <v>965.90588795515941</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <v>Nov19</v>
       </c>
       <c r="J26">
-        <v>-3.5215634852647781E-5</v>
+        <v>-3.6088749766349792E-5</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
@@ -5853,22 +5869,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="str">
         <f>_xll.QCube_FilterCube("fCube",D20,B29:C30)</f>
         <v>fCube¬1</v>
       </c>
       <c r="H27" t="str">
-        <v>SwpCA_DEC-19</v>
-      </c>
-      <c r="I27" s="3">
-        <v>963.46129094599746</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <v>Dec19</v>
       </c>
       <c r="J27">
-        <v>2.6193447411060333E-5</v>
+        <v>-9.3132257461547852E-6</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
@@ -5877,15 +5893,15 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28" t="str">
-        <v>SwpCA_JAN-20</v>
-      </c>
-      <c r="I28" s="3">
-        <v>960.94168323179474</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <v>Jan20</v>
       </c>
       <c r="J28">
-        <v>-2.5320332497358322E-5</v>
+        <v>-8.149072527885437E-6</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
@@ -5894,21 +5910,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="H29" t="str">
-        <v>SwpCA_FEB-20</v>
-      </c>
-      <c r="I29" s="3">
-        <v>958.72089792392217</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <v>Feb20</v>
       </c>
       <c r="J29">
-        <v>1.6880221664905548E-5</v>
+        <v>8.7311491370201111E-6</v>
       </c>
       <c r="K29" t="e">
         <v>#N/A</v>
@@ -5917,21 +5933,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
       <c r="H30" t="str">
-        <v>SwpCA_MAR-20</v>
-      </c>
-      <c r="I30" s="3">
-        <v>956.32493254670408</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <v>Mar20</v>
       </c>
       <c r="J30">
-        <v>-8.149072527885437E-6</v>
+        <v>9.0221874415874481E-6</v>
       </c>
       <c r="K30" t="e">
         <v>#N/A</v>
@@ -5940,15 +5956,15 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H31" t="str">
-        <v>SwpCA_APR-20</v>
-      </c>
-      <c r="I31" s="3">
-        <v>953.75053655152442</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <v>Apr20</v>
       </c>
       <c r="J31">
-        <v>9.0221874415874481E-6</v>
+        <v>-8.7311491370201111E-6</v>
       </c>
       <c r="K31" t="e">
         <v>#N/A</v>
@@ -5957,15 +5973,15 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H32" t="str">
-        <v>SwpCA_MAY-20</v>
-      </c>
-      <c r="I32" s="3">
-        <v>951.40097498806426</v>
+        <v>Gamma</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <v>May20</v>
       </c>
       <c r="J32">
-        <v>8.7311491370201111E-7</v>
+        <v>2.5902409106492996E-5</v>
       </c>
       <c r="K32" t="e">
         <v>#N/A</v>
@@ -5975,14 +5991,14 @@
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#N/A</v>
+      <c r="H33" t="str">
+        <v>Gamma</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <v>Jun20</v>
+      </c>
+      <c r="J33">
+        <v>2.9103830456733704E-7</v>
       </c>
       <c r="K33" t="e">
         <v>#N/A</v>
@@ -9188,6 +9204,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>"Delta,Gamma"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9197,7 +9218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -9218,10 +9239,10 @@
         <v>TradeId</v>
       </c>
       <c r="I1" t="str">
-        <v>PV</v>
-      </c>
-      <c r="J1" t="e">
-        <v>#N/A</v>
+        <v>Currency</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Value</v>
       </c>
       <c r="K1" t="e">
         <v>#N/A</v>
@@ -9244,11 +9265,11 @@
       <c r="H2" t="str">
         <v>XAU_NOV-18</v>
       </c>
-      <c r="I2" s="3">
-        <v>26094.099147900139</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
+      <c r="I2" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J2">
+        <v>22738.211634811414</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
@@ -9269,11 +9290,11 @@
       <c r="H3" t="str">
         <v>XAU_DEC-18</v>
       </c>
-      <c r="I3" s="3">
-        <v>31455.740267318397</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
+      <c r="I3" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J3">
+        <v>28145.348133976673</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -9296,11 +9317,11 @@
       <c r="H4" t="str">
         <v>XAU_JAN-19</v>
       </c>
-      <c r="I4" s="3">
-        <v>36543.448727502095</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#N/A</v>
+      <c r="I4" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J4">
+        <v>33185.515459618444</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
@@ -9323,11 +9344,11 @@
       <c r="H5" t="str">
         <v>XAU_FEB-19</v>
       </c>
-      <c r="I5" s="3">
-        <v>41147.866953969969</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
+      <c r="I5" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J5">
+        <v>37745.581682776574</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
@@ -9350,11 +9371,11 @@
       <c r="H6" t="str">
         <v>XAU_MAR-19</v>
       </c>
-      <c r="I6" s="3">
-        <v>45476.995629279292</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
+      <c r="I6" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J6">
+        <v>42071.50140160384</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
@@ -9377,11 +9398,11 @@
       <c r="H7" t="str">
         <v>XAU_APR-19</v>
       </c>
-      <c r="I7" s="3">
-        <v>49897.65902692746</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+      <c r="I7" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J7">
+        <v>46523.652896349951</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
@@ -9405,11 +9426,11 @@
       <c r="H8" t="str">
         <v>XAU_MAY-19</v>
       </c>
-      <c r="I8" s="3">
-        <v>54129.89442963765</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
+      <c r="I8" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J8">
+        <v>50805.674353613911</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
@@ -9432,11 +9453,11 @@
       <c r="H9" t="str">
         <v>XAU_JUN-19</v>
       </c>
-      <c r="I9" s="3">
-        <v>58325.572959602883</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
+      <c r="I9" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J9">
+        <v>55005.198195061523</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
@@ -9459,11 +9480,11 @@
       <c r="H10" t="str">
         <v>XAU_JUL-19</v>
       </c>
-      <c r="I10" s="3">
-        <v>62552.676302141503</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+      <c r="I10" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J10">
+        <v>59183.916349162457</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
@@ -9485,11 +9506,11 @@
       <c r="H11" t="str">
         <v>XAU_AUG-19</v>
       </c>
-      <c r="I11" s="3">
-        <v>66708.40479462134</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+      <c r="I11" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J11">
+        <v>63276.043130852304</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -9513,11 +9534,11 @@
       <c r="H12" t="str">
         <v>XAU_SEP-19</v>
       </c>
-      <c r="I12" s="3">
-        <v>71003.097026310366</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
+      <c r="I12" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J12">
+        <v>67466.647376247434</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
@@ -9539,11 +9560,11 @@
       <c r="H13" t="str">
         <v>XAU_OCT-19</v>
       </c>
-      <c r="I13" s="3">
-        <v>75377.617492302234</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+      <c r="I13" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J13">
+        <v>71719.625104015155</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
@@ -9565,11 +9586,11 @@
       <c r="H14" t="str">
         <v>XAU_NOV-19</v>
       </c>
-      <c r="I14" s="3">
-        <v>79594.719041954697</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
+      <c r="I14" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J14">
+        <v>75823.417099354745</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -9591,11 +9612,11 @@
       <c r="H15" t="str">
         <v>XAU_DEC-19</v>
       </c>
-      <c r="I15" s="3">
-        <v>83649.335335760188</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
+      <c r="I15" s="3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="J15">
+        <v>79769.059786711179</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
@@ -9606,18 +9627,18 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H17" t="str">
+      <c r="H17" t="e">
         <f t="array" ref="H17:K221">_xll.QCube_DisplayCube(D28)</f>
-        <v>PointLabel</v>
-      </c>
-      <c r="I17" t="str">
-        <v>Vega</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J17" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K17" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -9629,120 +9650,120 @@
         <f>_xll.QIns_CreatePortfolio("XAU_"&amp;C18,D2:D15)</f>
         <v>XAU_Portfolio¬1</v>
       </c>
-      <c r="H18" t="str">
-        <v>2M</v>
-      </c>
-      <c r="I18" s="3">
-        <v>794.33523710211739</v>
+      <c r="H18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J18" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K18" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="str">
         <f>_xll.QIns_AssetPortfolioPV(C19,D18,Curves!M4)</f>
         <v>XAU_PV¬1</v>
       </c>
-      <c r="H19" t="str">
-        <v>3M</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4514.7400641145105</v>
+      <c r="H19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J19" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K19" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="str">
         <f>_xll.QIns_AssetPortfolioDeltaGamma(C20,D18,Curves!M4)</f>
         <v>XAU_Delta¬1</v>
       </c>
-      <c r="H20" t="str">
-        <v>6M</v>
-      </c>
-      <c r="I20" s="3">
-        <v>10435.67138763647</v>
+      <c r="H20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J20" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K20" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="str">
+        <v>34</v>
+      </c>
+      <c r="D21" t="e">
         <f>_xll.QCube_AggregateCube(C21,D20,"PointLabel",B24:C25)</f>
-        <v>Xau1¬1</v>
-      </c>
-      <c r="H21" t="str">
-        <v>9M</v>
-      </c>
-      <c r="I21" s="3">
-        <v>12250.546014155552</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J21" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K21" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="str">
+        <v>35</v>
+      </c>
+      <c r="D22" t="e">
         <f>_xll.QCube_AggregateCube(C22,D20,"TradeId",B24:C25)</f>
-        <v>Xau2¬1</v>
-      </c>
-      <c r="H22" t="str">
-        <v>1Y</v>
-      </c>
-      <c r="I22" s="3">
-        <v>19020.76670042357</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J22" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K22" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H23" t="str">
-        <v>18M</v>
-      </c>
-      <c r="I23" s="3">
-        <v>9090.9655500128865</v>
+      <c r="H23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J23" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K23" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -9754,2803 +9775,2803 @@
         <v>21</v>
       </c>
       <c r="H24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I24" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K24" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="H25" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I25" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J25" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K25" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H26" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J26" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K26" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="str">
         <f>_xll.QIns_AssetPortfolioVega(C27,D18,Curves!$M$4)</f>
         <v>XAU_Vega¬1</v>
       </c>
       <c r="H27" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J27" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K27" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="str">
+        <v>52</v>
+      </c>
+      <c r="D28" t="e">
         <f>_xll.QCube_AggregateCube(C28,D27,"PointLabel",B31:C31)</f>
-        <v>Xau3¬1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J28" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K28" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H29" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J29" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K29" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H30" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K30" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="H31" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K31" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H32" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J32" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K32" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J33" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K33" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J34" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K34" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J35" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K35" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I36" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J36" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K36" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J37" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K37" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J38" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K38" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J39" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K39" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I40" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J40" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K40" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I41" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J41" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K41" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I42" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J42" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K42" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I43" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J43" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K43" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I44" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J44" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K44" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I45" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J45" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K45" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H46" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I46" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J46" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K46" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H47" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I47" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J47" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K47" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H48" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I48" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J48" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K48" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I49" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J49" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K49" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I50" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J50" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K50" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I51" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J51" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K51" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H52" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I52" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J52" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K52" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H53" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I53" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J53" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K53" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H54" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I54" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J54" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K54" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I55" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J55" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K55" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I56" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J56" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K56" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I57" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J57" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K57" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H58" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I58" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J58" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K58" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H59" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I59" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J59" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K59" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H60" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I60" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J60" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K60" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H61" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J61" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K61" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H62" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I62" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J62" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K62" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H63" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I63" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J63" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K63" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H64" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I64" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J64" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K64" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H65" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I65" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J65" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K65" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H66" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I66" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J66" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K66" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H67" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I67" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J67" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K67" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H68" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I68" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J68" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K68" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H69" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I69" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J69" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K69" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H70" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I70" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J70" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K70" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H71" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I71" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J71" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K71" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H72" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I72" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J72" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K72" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H73" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I73" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J73" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K73" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H74" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I74" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J74" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K74" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H75" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I75" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J75" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K75" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H76" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I76" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J76" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K76" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H77" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I77" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J77" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K77" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H78" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I78" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J78" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K78" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H79" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I79" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J79" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K79" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H80" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I80" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J80" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K80" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I81" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K81" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H82" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I82" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J82" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K82" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H83" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I83" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J83" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K83" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H84" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I84" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J84" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K84" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H85" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I85" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J85" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K85" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H86" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I86" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J86" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K86" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H87" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I87" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J87" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K87" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H88" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I88" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J88" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K88" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H89" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I89" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J89" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K89" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H90" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I90" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J90" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K90" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H91" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I91" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J91" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K91" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H92" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I92" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J92" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K92" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H93" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I93" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J93" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K93" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H94" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I94" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J94" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K94" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H95" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I95" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J95" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K95" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H96" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I96" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J96" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K96" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H97" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I97" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J97" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K97" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H98" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I98" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J98" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K98" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H99" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I99" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J99" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K99" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H100" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I100" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J100" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K100" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H101" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I101" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J101" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K101" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H102" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I102" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J102" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K102" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H103" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I103" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J103" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K103" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H104" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I104" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J104" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K104" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H105" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I105" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J105" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K105" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H106" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I106" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J106" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K106" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H107" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I107" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J107" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K107" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H108" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I108" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J108" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K108" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H109" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I109" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J109" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K109" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H110" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I110" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J110" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K110" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="111" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H111" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I111" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J111" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K111" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="112" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H112" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I112" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J112" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K112" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="113" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H113" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I113" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J113" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K113" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="114" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H114" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I114" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J114" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K114" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="115" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H115" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I115" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J115" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K115" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="116" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H116" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I116" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J116" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K116" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="117" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H117" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I117" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J117" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K117" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="118" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H118" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I118" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J118" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K118" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="119" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H119" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I119" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J119" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K119" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="120" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H120" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I120" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J120" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K120" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="121" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H121" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I121" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J121" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K121" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="122" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H122" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I122" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J122" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K122" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="123" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H123" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I123" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J123" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K123" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="124" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H124" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I124" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J124" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K124" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="125" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H125" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I125" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J125" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K125" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="126" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H126" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I126" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J126" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K126" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="127" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H127" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I127" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J127" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K127" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="128" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H128" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I128" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J128" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K128" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="129" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H129" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I129" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J129" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K129" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="130" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H130" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I130" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J130" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K130" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="131" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H131" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I131" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J131" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K131" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="132" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H132" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I132" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J132" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K132" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="133" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H133" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I133" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J133" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K133" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="134" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H134" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I134" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J134" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K134" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="135" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H135" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I135" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J135" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K135" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="136" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H136" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I136" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J136" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K136" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="137" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H137" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I137" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J137" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K137" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="138" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H138" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I138" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J138" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K138" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="139" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H139" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I139" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J139" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K139" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="140" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H140" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I140" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J140" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K140" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="141" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H141" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I141" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J141" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K141" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="142" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H142" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I142" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J142" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K142" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="143" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H143" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I143" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J143" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K143" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="144" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H144" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I144" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J144" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K144" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="145" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H145" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I145" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J145" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K145" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="146" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H146" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I146" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J146" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K146" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="147" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H147" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I147" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J147" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K147" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="148" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H148" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I148" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J148" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K148" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="149" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H149" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I149" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J149" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K149" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="150" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H150" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I150" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J150" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K150" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="151" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H151" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I151" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J151" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K151" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="152" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H152" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I152" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J152" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K152" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="153" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H153" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I153" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J153" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K153" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="154" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H154" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I154" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J154" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K154" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="155" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H155" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I155" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J155" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K155" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="156" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H156" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I156" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J156" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K156" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="157" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H157" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I157" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J157" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K157" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="158" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H158" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I158" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J158" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K158" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="159" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H159" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I159" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J159" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K159" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="160" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H160" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I160" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J160" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K160" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="161" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H161" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I161" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J161" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K161" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="162" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H162" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I162" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J162" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K162" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="163" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H163" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I163" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J163" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K163" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="164" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H164" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I164" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J164" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K164" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="165" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H165" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I165" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J165" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K165" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="166" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H166" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I166" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J166" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K166" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="167" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H167" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I167" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J167" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K167" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="168" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H168" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I168" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J168" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K168" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="169" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H169" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I169" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J169" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K169" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="170" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H170" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I170" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J170" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K170" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="171" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H171" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I171" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J171" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K171" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="172" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H172" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I172" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J172" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K172" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="173" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H173" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I173" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J173" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K173" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="174" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H174" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I174" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J174" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K174" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="175" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H175" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I175" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J175" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K175" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="176" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H176" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I176" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J176" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K176" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="177" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H177" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I177" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J177" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K177" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="178" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H178" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I178" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J178" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K178" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="179" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H179" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I179" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J179" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K179" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="180" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H180" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I180" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J180" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K180" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="181" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H181" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I181" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J181" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K181" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="182" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H182" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I182" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J182" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K182" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="183" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H183" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I183" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J183" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K183" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="184" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H184" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I184" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J184" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K184" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="185" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H185" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I185" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J185" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K185" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="186" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H186" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I186" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J186" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K186" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="187" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H187" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I187" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J187" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K187" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="188" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H188" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I188" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J188" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K188" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="189" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H189" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I189" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J189" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K189" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="190" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H190" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I190" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J190" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K190" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="191" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H191" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I191" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J191" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K191" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="192" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H192" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I192" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J192" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K192" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="193" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H193" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I193" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J193" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K193" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="194" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H194" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I194" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J194" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K194" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="195" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H195" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I195" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J195" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K195" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="196" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H196" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I196" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J196" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K196" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="197" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H197" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I197" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J197" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K197" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="198" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H198" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I198" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J198" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K198" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="199" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H199" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I199" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J199" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K199" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="200" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H200" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I200" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J200" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K200" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="201" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H201" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I201" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J201" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K201" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="202" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H202" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I202" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J202" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K202" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="203" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H203" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I203" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J203" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K203" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="204" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H204" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I204" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J204" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K204" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="205" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H205" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I205" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J205" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K205" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="206" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H206" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I206" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J206" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K206" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="207" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H207" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I207" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J207" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K207" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="208" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H208" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I208" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J208" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K208" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="209" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H209" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I209" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J209" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K209" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="210" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H210" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I210" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J210" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K210" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="211" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H211" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I211" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J211" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K211" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="212" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H212" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I212" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J212" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K212" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="213" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H213" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I213" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J213" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K213" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="214" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H214" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I214" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J214" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K214" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="215" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H215" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I215" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J215" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K215" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="216" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H216" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I216" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J216" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K216" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="217" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H217" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I217" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J217" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K217" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="218" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H218" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I218" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J218" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K218" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="219" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H219" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I219" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J219" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K219" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="220" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H220" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I220" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J220" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K220" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="221" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H221" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I221" s="3" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J221" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K221" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Qwack - LMEDateExample.xlsx
+++ b/examples/Qwack - LMEDateExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Curves" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Val Date</t>
   </si>
@@ -295,7 +295,7 @@
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
       <tp>
-        <v>1204.83</v>
+        <v>1193.3499999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAU Curncy</stp>
@@ -306,7 +306,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>6081</v>
+        <v>5896.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20180919 LME Comdty</stp>
@@ -315,7 +315,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280920 LME Comdty</stp>
@@ -324,7 +324,7 @@
         <tr r="C126" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270915 LME Comdty</stp>
@@ -333,7 +333,7 @@
         <tr r="C114" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280816 LME Comdty</stp>
@@ -342,7 +342,7 @@
         <tr r="C125" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270421 LME Comdty</stp>
@@ -351,7 +351,7 @@
         <tr r="C109" s="1"/>
       </tp>
       <tp>
-        <v>2.2599999999999998</v>
+        <v>2.27</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR3m Curncy</stp>
@@ -360,7 +360,7 @@
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260916 LME Comdty</stp>
@@ -369,7 +369,7 @@
         <tr r="C102" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270317 LME Comdty</stp>
@@ -378,7 +378,7 @@
         <tr r="C108" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280216 LME Comdty</stp>
@@ -387,7 +387,7 @@
         <tr r="C119" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270818 LME Comdty</stp>
@@ -396,7 +396,7 @@
         <tr r="C113" s="1"/>
       </tp>
       <tp>
-        <v>2.15</v>
+        <v>2.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR1W Curncy</stp>
@@ -405,7 +405,7 @@
         <tr r="G30" s="1"/>
       </tp>
       <tp>
-        <v>2.23</v>
+        <v>2.2400000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR2m Curncy</stp>
@@ -414,7 +414,7 @@
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280119 LME Comdty</stp>
@@ -423,7 +423,7 @@
         <tr r="C118" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260819 LME Comdty</stp>
@@ -432,7 +432,7 @@
         <tr r="C101" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20281115 LME Comdty</stp>
@@ -450,7 +450,7 @@
         <tr r="G31" s="1"/>
       </tp>
       <tp>
-        <v>2.17</v>
+        <v>2.2200000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR1m Curncy</stp>
@@ -459,7 +459,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>2.46</v>
+        <v>2.4500000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR6m Curncy</stp>
@@ -468,7 +468,7 @@
         <tr r="G35" s="1"/>
       </tp>
       <tp>
-        <v>6083.75</v>
+        <v>5903.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181123 LME Comdty</stp>
@@ -477,7 +477,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260715 LME Comdty</stp>
@@ -486,7 +486,7 @@
         <tr r="C100" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20281018 LME Comdty</stp>
@@ -495,7 +495,7 @@
         <tr r="C127" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271117 LME Comdty</stp>
@@ -504,7 +504,7 @@
         <tr r="C116" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261216 LME Comdty</stp>
@@ -513,7 +513,7 @@
         <tr r="C105" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270616 LME Comdty</stp>
@@ -522,7 +522,7 @@
         <tr r="C111" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280517 LME Comdty</stp>
@@ -531,7 +531,7 @@
         <tr r="C122" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270120 LME Comdty</stp>
@@ -540,7 +540,7 @@
         <tr r="C106" s="1"/>
       </tp>
       <tp>
-        <v>6087.5</v>
+        <v>5906.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181121 LME Comdty</stp>
@@ -549,7 +549,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271215 LME Comdty</stp>
@@ -558,7 +558,7 @@
         <tr r="C117" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270217 LME Comdty</stp>
@@ -567,7 +567,7 @@
         <tr r="C107" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280419 LME Comdty</stp>
@@ -576,7 +576,7 @@
         <tr r="C121" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261118 LME Comdty</stp>
@@ -585,7 +585,7 @@
         <tr r="C104" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270519 LME Comdty</stp>
@@ -594,7 +594,7 @@
         <tr r="C110" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270721 LME Comdty</stp>
@@ -603,7 +603,7 @@
         <tr r="C112" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271020 LME Comdty</stp>
@@ -612,7 +612,7 @@
         <tr r="C115" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280621 LME Comdty</stp>
@@ -630,7 +630,7 @@
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>6090</v>
+        <v>5910</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181219 LME Comdty</stp>
@@ -639,7 +639,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280719 LME Comdty</stp>
@@ -648,7 +648,7 @@
         <tr r="C124" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280315 LME Comdty</stp>
@@ -657,7 +657,7 @@
         <tr r="C120" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261021 LME Comdty</stp>
@@ -666,7 +666,7 @@
         <tr r="C103" s="1"/>
       </tp>
       <tp>
-        <v>6085</v>
+        <v>5902.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181017 LME Comdty</stp>
@@ -684,7 +684,7 @@
         <tr r="G38" s="1"/>
       </tp>
       <tp>
-        <v>11.355</v>
+        <v>11.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV18M Curncy</stp>
@@ -693,7 +693,7 @@
         <tr r="K39" s="1"/>
       </tp>
       <tp>
-        <v>9.0950000000000006</v>
+        <v>9.4450000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1W Curncy</stp>
@@ -702,7 +702,7 @@
         <tr r="K30" s="1"/>
       </tp>
       <tp>
-        <v>9.2874999999999996</v>
+        <v>9.5474999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV3W Curncy</stp>
@@ -711,7 +711,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>9.4700000000000006</v>
+        <v>9.26</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2W Curncy</stp>
@@ -720,7 +720,7 @@
         <tr r="K31" s="1"/>
       </tp>
       <tp>
-        <v>10.664999999999999</v>
+        <v>10.595000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1Y Curncy</stp>
@@ -729,7 +729,7 @@
         <tr r="K38" s="1"/>
       </tp>
       <tp>
-        <v>11.734999999999999</v>
+        <v>11.62</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2Y Curncy</stp>
@@ -738,7 +738,7 @@
         <tr r="K40" s="1"/>
       </tp>
       <tp>
-        <v>6073</v>
+        <v>5891.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADY Comdty</stp>
@@ -747,7 +747,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>6237.5</v>
+        <v>6028.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210915 LME Comdty</stp>
@@ -756,7 +756,7 @@
         <tr r="C42" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220720 LME Comdty</stp>
@@ -765,7 +765,7 @@
         <tr r="C52" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230517 LME Comdty</stp>
@@ -774,7 +774,7 @@
         <tr r="C62" s="1"/>
       </tp>
       <tp>
-        <v>6107</v>
+        <v>5921.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190320 LME Comdty</stp>
@@ -783,7 +783,7 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240320 LME Comdty</stp>
@@ -792,7 +792,7 @@
         <tr r="C72" s="1"/>
       </tp>
       <tp>
-        <v>6215</v>
+        <v>6006</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201216 LME Comdty</stp>
@@ -801,7 +801,7 @@
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251217 LME Comdty</stp>
@@ -810,7 +810,7 @@
         <tr r="C93" s="1"/>
       </tp>
       <tp>
-        <v>6163.5</v>
+        <v>5966.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200115 LME Comdty</stp>
@@ -819,7 +819,7 @@
         <tr r="C22" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250115 LME Comdty</stp>
@@ -828,7 +828,7 @@
         <tr r="C82" s="1"/>
       </tp>
       <tp>
-        <v>6240</v>
+        <v>6031</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211020 LME Comdty</stp>
@@ -837,7 +837,7 @@
         <tr r="C43" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220817 LME Comdty</stp>
@@ -846,7 +846,7 @@
         <tr r="C53" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230621 LME Comdty</stp>
@@ -855,7 +855,7 @@
         <tr r="C63" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240417 LME Comdty</stp>
@@ -864,7 +864,7 @@
         <tr r="C73" s="1"/>
       </tp>
       <tp>
-        <v>6113</v>
+        <v>5926</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190417 LME Comdty</stp>
@@ -873,7 +873,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250219 LME Comdty</stp>
@@ -882,7 +882,7 @@
         <tr r="C83" s="1"/>
       </tp>
       <tp>
-        <v>6168</v>
+        <v>5970.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200219 LME Comdty</stp>
@@ -891,7 +891,7 @@
         <tr r="C23" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251119 LME Comdty</stp>
@@ -900,7 +900,7 @@
         <tr r="C92" s="1"/>
       </tp>
       <tp>
-        <v>6210.5</v>
+        <v>6002.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201118 LME Comdty</stp>
@@ -909,7 +909,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>6201</v>
+        <v>5995.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200916 LME Comdty</stp>
@@ -918,7 +918,7 @@
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250917 LME Comdty</stp>
@@ -927,7 +927,7 @@
         <tr r="C90" s="1"/>
       </tp>
       <tp>
-        <v>6232.5</v>
+        <v>6023.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210721 LME Comdty</stp>
@@ -936,7 +936,7 @@
         <tr r="C40" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220518 LME Comdty</stp>
@@ -945,7 +945,7 @@
         <tr r="C50" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230315 LME Comdty</stp>
@@ -954,7 +954,7 @@
         <tr r="C60" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241218 LME Comdty</stp>
@@ -963,7 +963,7 @@
         <tr r="C81" s="1"/>
       </tp>
       <tp>
-        <v>6159</v>
+        <v>5963</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191218 LME Comdty</stp>
@@ -972,7 +972,7 @@
         <tr r="C21" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240117 LME Comdty</stp>
@@ -981,7 +981,7 @@
         <tr r="C70" s="1"/>
       </tp>
       <tp>
-        <v>6094</v>
+        <v>5913</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190116 LME Comdty</stp>
@@ -990,7 +990,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251015 LME Comdty</stp>
@@ -999,7 +999,7 @@
         <tr r="C91" s="1"/>
       </tp>
       <tp>
-        <v>6205.5</v>
+        <v>5999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201021 LME Comdty</stp>
@@ -1008,7 +1008,7 @@
         <tr r="C31" s="1"/>
       </tp>
       <tp>
-        <v>6235</v>
+        <v>6026</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210818 LME Comdty</stp>
@@ -1017,7 +1017,7 @@
         <tr r="C41" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220615 LME Comdty</stp>
@@ -1026,7 +1026,7 @@
         <tr r="C51" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230419 LME Comdty</stp>
@@ -1035,7 +1035,7 @@
         <tr r="C61" s="1"/>
       </tp>
       <tp>
-        <v>6100.5</v>
+        <v>5917.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190220 LME Comdty</stp>
@@ -1044,7 +1044,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240221 LME Comdty</stp>
@@ -1053,7 +1053,7 @@
         <tr r="C71" s="1"/>
       </tp>
       <tp>
-        <v>6154</v>
+        <v>5958.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191120 LME Comdty</stp>
@@ -1062,7 +1062,7 @@
         <tr r="C20" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241120 LME Comdty</stp>
@@ -1071,7 +1071,7 @@
         <tr r="C80" s="1"/>
       </tp>
       <tp>
-        <v>97.034999999999997</v>
+        <v>96.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU9 Comdty</stp>
@@ -1080,7 +1080,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230920 LME Comdty</stp>
@@ -1089,7 +1089,7 @@
         <tr r="C66" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240717 LME Comdty</stp>
@@ -1098,7 +1098,7 @@
         <tr r="C76" s="1"/>
       </tp>
       <tp>
-        <v>6133</v>
+        <v>5939.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190717 LME Comdty</stp>
@@ -1107,7 +1107,7 @@
         <tr r="C16" s="1"/>
       </tp>
       <tp>
-        <v>6181.5</v>
+        <v>5981.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200520 LME Comdty</stp>
@@ -1116,7 +1116,7 @@
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250521 LME Comdty</stp>
@@ -1125,7 +1125,7 @@
         <tr r="C86" s="1"/>
       </tp>
       <tp>
-        <v>6222.5</v>
+        <v>6013.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210317 LME Comdty</stp>
@@ -1134,7 +1134,7 @@
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260318 LME Comdty</stp>
@@ -1143,7 +1143,7 @@
         <tr r="C96" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221221 LME Comdty</stp>
@@ -1152,7 +1152,7 @@
         <tr r="C57" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220119 LME Comdty</stp>
@@ -1161,7 +1161,7 @@
         <tr r="C46" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231018 LME Comdty</stp>
@@ -1170,7 +1170,7 @@
         <tr r="C67" s="1"/>
       </tp>
       <tp>
-        <v>97.094999999999999</v>
+        <v>97.05</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM9 Comdty</stp>
@@ -1179,7 +1179,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>6139</v>
+        <v>5944</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190821 LME Comdty</stp>
@@ -1188,7 +1188,7 @@
         <tr r="C17" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240821 LME Comdty</stp>
@@ -1197,7 +1197,7 @@
         <tr r="C77" s="1"/>
       </tp>
       <tp>
-        <v>6186.5</v>
+        <v>5985</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200617 LME Comdty</stp>
@@ -1206,7 +1206,7 @@
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250618 LME Comdty</stp>
@@ -1215,7 +1215,7 @@
         <tr r="C87" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260415 LME Comdty</stp>
@@ -1224,7 +1224,7 @@
         <tr r="C97" s="1"/>
       </tp>
       <tp>
-        <v>6225</v>
+        <v>6016</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210421 LME Comdty</stp>
@@ -1233,7 +1233,7 @@
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220216 LME Comdty</stp>
@@ -1242,7 +1242,7 @@
         <tr r="C47" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221116 LME Comdty</stp>
@@ -1251,7 +1251,7 @@
         <tr r="C56" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220921 LME Comdty</stp>
@@ -1260,7 +1260,7 @@
         <tr r="C54" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230719 LME Comdty</stp>
@@ -1269,7 +1269,7 @@
         <tr r="C64" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240515 LME Comdty</stp>
@@ -1278,7 +1278,7 @@
         <tr r="C74" s="1"/>
       </tp>
       <tp>
-        <v>6119</v>
+        <v>5930.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190515 LME Comdty</stp>
@@ -1287,7 +1287,7 @@
         <tr r="C14" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250319 LME Comdty</stp>
@@ -1296,7 +1296,7 @@
         <tr r="C84" s="1"/>
       </tp>
       <tp>
-        <v>6172.5</v>
+        <v>5974.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200318 LME Comdty</stp>
@@ -1305,7 +1305,7 @@
         <tr r="C24" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211215 LME Comdty</stp>
@@ -1314,7 +1314,7 @@
         <tr r="C45" s="1"/>
       </tp>
       <tp>
-        <v>6217.5</v>
+        <v>6008.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210120 LME Comdty</stp>
@@ -1323,7 +1323,7 @@
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260121 LME Comdty</stp>
@@ -1332,7 +1332,7 @@
         <tr r="C94" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221019 LME Comdty</stp>
@@ -1341,7 +1341,7 @@
         <tr r="C55" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230816 LME Comdty</stp>
@@ -1350,7 +1350,7 @@
         <tr r="C65" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240619 LME Comdty</stp>
@@ -1359,7 +1359,7 @@
         <tr r="C75" s="1"/>
       </tp>
       <tp>
-        <v>6127</v>
+        <v>5935</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190619 LME Comdty</stp>
@@ -1368,7 +1368,7 @@
         <tr r="C15" s="1"/>
       </tp>
       <tp>
-        <v>6177</v>
+        <v>5978</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200415 LME Comdty</stp>
@@ -1377,7 +1377,7 @@
         <tr r="C25" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250416 LME Comdty</stp>
@@ -1386,7 +1386,7 @@
         <tr r="C85" s="1"/>
       </tp>
       <tp>
-        <v>6220</v>
+        <v>6011</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210217 LME Comdty</stp>
@@ -1395,7 +1395,7 @@
         <tr r="C35" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260218 LME Comdty</stp>
@@ -1404,7 +1404,7 @@
         <tr r="C95" s="1"/>
       </tp>
       <tp>
-        <v>6242.5</v>
+        <v>6033.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211117 LME Comdty</stp>
@@ -1413,7 +1413,7 @@
         <tr r="C44" s="1"/>
       </tp>
       <tp>
-        <v>97.65</v>
+        <v>97.647500000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU8 Comdty</stp>
@@ -1422,7 +1422,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>97.210000000000008</v>
+        <v>97.174999999999997</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH9 Comdty</stp>
@@ -1431,7 +1431,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240918 LME Comdty</stp>
@@ -1440,7 +1440,7 @@
         <tr r="C78" s="1"/>
       </tp>
       <tp>
-        <v>6144</v>
+        <v>5948.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190918 LME Comdty</stp>
@@ -1449,7 +1449,7 @@
         <tr r="C18" s="1"/>
       </tp>
       <tp>
-        <v>6191.5</v>
+        <v>5988.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200715 LME Comdty</stp>
@@ -1458,7 +1458,7 @@
         <tr r="C28" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250716 LME Comdty</stp>
@@ -1467,7 +1467,7 @@
         <tr r="C88" s="1"/>
       </tp>
       <tp>
-        <v>6227.5</v>
+        <v>6018.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210519 LME Comdty</stp>
@@ -1476,7 +1476,7 @@
         <tr r="C38" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260520 LME Comdty</stp>
@@ -1485,7 +1485,7 @@
         <tr r="C98" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220316 LME Comdty</stp>
@@ -1494,7 +1494,7 @@
         <tr r="C48" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231220 LME Comdty</stp>
@@ -1503,7 +1503,7 @@
         <tr r="C69" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230118 LME Comdty</stp>
@@ -1512,7 +1512,7 @@
         <tr r="C58" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241016 LME Comdty</stp>
@@ -1521,7 +1521,7 @@
         <tr r="C79" s="1"/>
       </tp>
       <tp>
-        <v>6149</v>
+        <v>5953.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191016 LME Comdty</stp>
@@ -1530,7 +1530,7 @@
         <tr r="C19" s="1"/>
       </tp>
       <tp>
-        <v>97.375</v>
+        <v>97.34</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ8 Comdty</stp>
@@ -1539,7 +1539,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>6196.5</v>
+        <v>5992</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200819 LME Comdty</stp>
@@ -1548,7 +1548,7 @@
         <tr r="C29" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250820 LME Comdty</stp>
@@ -1557,7 +1557,7 @@
         <tr r="C89" s="1"/>
       </tp>
       <tp>
-        <v>6230</v>
+        <v>6021</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210616 LME Comdty</stp>
@@ -1566,7 +1566,7 @@
         <tr r="C39" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260617 LME Comdty</stp>
@@ -1575,7 +1575,7 @@
         <tr r="C99" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220420 LME Comdty</stp>
@@ -1584,7 +1584,7 @@
         <tr r="C49" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230215 LME Comdty</stp>
@@ -1593,7 +1593,7 @@
         <tr r="C59" s="1"/>
       </tp>
       <tp>
-        <v>6245</v>
+        <v>6036</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231115 LME Comdty</stp>
@@ -1602,7 +1602,7 @@
         <tr r="C68" s="1"/>
       </tp>
       <tp>
-        <v>10.44</v>
+        <v>10.315</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV9M Curncy</stp>
@@ -1611,7 +1611,7 @@
         <tr r="K37" s="1"/>
       </tp>
       <tp>
-        <v>9.8049999999999997</v>
+        <v>9.8650000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2M Curncy</stp>
@@ -1620,7 +1620,7 @@
         <tr r="K34" s="1"/>
       </tp>
       <tp>
-        <v>10.035</v>
+        <v>9.7899999999999991</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV3M Curncy</stp>
@@ -1629,7 +1629,7 @@
         <tr r="K35" s="1"/>
       </tp>
       <tp>
-        <v>10.17</v>
+        <v>9.99</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV6M Curncy</stp>
@@ -1647,7 +1647,7 @@
         <tr r="K33" s="1"/>
       </tp>
       <tp>
-        <v>11.75</v>
+        <v>11.845000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDVON Curncy</stp>
@@ -1656,7 +1656,7 @@
         <tr r="K29" s="1"/>
       </tp>
       <tp>
-        <v>97.045000000000002</v>
+        <v>96.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU1 Comdty</stp>
@@ -1665,7 +1665,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>97.03</v>
+        <v>96.975000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ1 Comdty</stp>
@@ -1674,7 +1674,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>97.01</v>
+        <v>96.945000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU0 Comdty</stp>
@@ -1683,7 +1683,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>97.034999999999997</v>
+        <v>96.975000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU2 Comdty</stp>
@@ -1692,7 +1692,7 @@
         <tr r="G21" s="1"/>
       </tp>
       <tp>
-        <v>96.990000000000009</v>
+        <v>96.94</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ9 Comdty</stp>
@@ -1710,7 +1710,7 @@
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>97.02</v>
+        <v>96.965000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ2 Comdty</stp>
@@ -1719,7 +1719,7 @@
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>97.01</v>
+        <v>96.945000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ0 Comdty</stp>
@@ -1728,7 +1728,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>97.045000000000002</v>
+        <v>96.984999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH2 Comdty</stp>
@@ -1737,7 +1737,7 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>97.015000000000001</v>
+        <v>96.960000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH3 Comdty</stp>
@@ -1746,7 +1746,7 @@
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>97.03</v>
+        <v>96.975000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM1 Comdty</stp>
@@ -1755,7 +1755,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>97.01</v>
+        <v>96.95</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM3 Comdty</stp>
@@ -1764,7 +1764,7 @@
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>96.990000000000009</v>
+        <v>96.93</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH0 Comdty</stp>
@@ -1773,7 +1773,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>97</v>
+        <v>96.935000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM0 Comdty</stp>
@@ -1782,7 +1782,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>97.04</v>
+        <v>96.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM2 Comdty</stp>
@@ -1791,7 +1791,7 @@
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>97.025000000000006</v>
+        <v>96.965000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH1 Comdty</stp>
@@ -2103,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="str">
-        <f>_xll.QCurves_CreatePriceCurve(F2,$B$1,B4:B128,C4:C128,"LME",D4:D128)</f>
+        <f>_xll.QCurves_CreatePriceCurve(F2,F2,$B$1,B4:B128,C4:C128,"LME",D4:D128)</f>
         <v>CA¬1</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -2169,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="str">
-        <f>_xll.QCurves_CreateContangoPriceCurve("XAU",B1,B2,G29,H30:H38,G30:G38,F30:F38)</f>
+        <f>_xll.QCurves_CreateContangoPriceCurve("XAU","XAU",B1,B2,G29,H30:H38,G30:G38,F30:F38)</f>
         <v>XAU¬1</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C4" s="3">
         <f>_xll.BDP(A4&amp;" Comdty","PX_SETTLE")</f>
-        <v>6073</v>
+        <v>5891.5</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="C5" s="3">
         <f>_xll.BDP(A5&amp;" Comdty","PX_SETTLE")</f>
-        <v>6081</v>
+        <v>5896.5</v>
       </c>
       <c r="D5" t="str">
         <f>IF(B5=$F$1,"3m",TEXT(B5,"mmmyy"))</f>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G5">
         <f>_xll.BDP(F5&amp;" Comdty","PX_LAST")</f>
-        <v>97.65</v>
+        <v>97.647500000000008</v>
       </c>
       <c r="H5" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F5,$B$1,F5,$M$1,G5,1,0,"USD.LIBOR.3M")</f>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C6" s="3">
         <f>_xll.BDP(A6&amp;" Comdty","PX_SETTLE")</f>
-        <v>6085</v>
+        <v>5902.25</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D69" si="1">IF(B6=$F$1,"3m",TEXT(B6,"mmmyy"))</f>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="G6">
         <f>_xll.BDP(F6&amp;" Comdty","PX_LAST")</f>
-        <v>97.375</v>
+        <v>97.34</v>
       </c>
       <c r="H6" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F6,$B$1,F6,$M$1,G6,1,0,"USD.LIBOR.3M")</f>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C7" s="3">
         <f>_xll.BDP(A7&amp;" Comdty","PX_SETTLE")</f>
-        <v>6087.5</v>
+        <v>5906.75</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="G7">
         <f>_xll.BDP(F7&amp;" Comdty","PX_LAST")</f>
-        <v>97.210000000000008</v>
+        <v>97.174999999999997</v>
       </c>
       <c r="H7" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F7,$B$1,F7,$M$1,G7,1,0,"USD.LIBOR.3M")</f>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="C8" s="3">
         <f>_xll.BDP(A8&amp;" Comdty","PX_SETTLE")</f>
-        <v>6083.75</v>
+        <v>5903.75</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="G8">
         <f>_xll.BDP(F8&amp;" Comdty","PX_LAST")</f>
-        <v>97.094999999999999</v>
+        <v>97.05</v>
       </c>
       <c r="H8" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F8,$B$1,F8,$M$1,G8,1,0,"USD.LIBOR.3M")</f>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="C9" s="3">
         <f>_xll.BDP(A9&amp;" Comdty","PX_SETTLE")</f>
-        <v>6090</v>
+        <v>5910</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G9">
         <f>_xll.BDP(F9&amp;" Comdty","PX_LAST")</f>
-        <v>97.034999999999997</v>
+        <v>96.98</v>
       </c>
       <c r="H9" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F9,$B$1,F9,$M$1,G9,1,0,"USD.LIBOR.3M")</f>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C10" s="3">
         <f>_xll.BDP(A10&amp;" Comdty","PX_SETTLE")</f>
-        <v>6094</v>
+        <v>5913</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="G10">
         <f>_xll.BDP(F10&amp;" Comdty","PX_LAST")</f>
-        <v>96.990000000000009</v>
+        <v>96.94</v>
       </c>
       <c r="H10" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F10,$B$1,F10,$M$1,G10,1,0,"USD.LIBOR.3M")</f>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C11" s="3">
         <f>_xll.BDP(A11&amp;" Comdty","PX_SETTLE")</f>
-        <v>6100.5</v>
+        <v>5917.25</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="G11">
         <f>_xll.BDP(F11&amp;" Comdty","PX_LAST")</f>
-        <v>96.990000000000009</v>
+        <v>96.93</v>
       </c>
       <c r="H11" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F11,$B$1,F11,$M$1,G11,1,0,"USD.LIBOR.3M")</f>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C12" s="3">
         <f>_xll.BDP(A12&amp;" Comdty","PX_SETTLE")</f>
-        <v>6107</v>
+        <v>5921.5</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G12">
         <f>_xll.BDP(F12&amp;" Comdty","PX_LAST")</f>
-        <v>97</v>
+        <v>96.935000000000002</v>
       </c>
       <c r="H12" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F12,$B$1,F12,$M$1,G12,1,0,"USD.LIBOR.3M")</f>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C13" s="3">
         <f>_xll.BDP(A13&amp;" Comdty","PX_SETTLE")</f>
-        <v>6113</v>
+        <v>5926</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G13">
         <f>_xll.BDP(F13&amp;" Comdty","PX_LAST")</f>
-        <v>97.01</v>
+        <v>96.945000000000007</v>
       </c>
       <c r="H13" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F13,$B$1,F13,$M$1,G13,1,0,"USD.LIBOR.3M")</f>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C14" s="3">
         <f>_xll.BDP(A14&amp;" Comdty","PX_SETTLE")</f>
-        <v>6119</v>
+        <v>5930.5</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G14">
         <f>_xll.BDP(F14&amp;" Comdty","PX_LAST")</f>
-        <v>97.01</v>
+        <v>96.945000000000007</v>
       </c>
       <c r="H14" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F14,$B$1,F14,$M$1,G14,1,0,"USD.LIBOR.3M")</f>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C15" s="3">
         <f>_xll.BDP(A15&amp;" Comdty","PX_SETTLE")</f>
-        <v>6127</v>
+        <v>5935</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G15">
         <f>_xll.BDP(F15&amp;" Comdty","PX_LAST")</f>
-        <v>97.025000000000006</v>
+        <v>96.965000000000003</v>
       </c>
       <c r="H15" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F15,$B$1,F15,$M$1,G15,1,0,"USD.LIBOR.3M")</f>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C16" s="3">
         <f>_xll.BDP(A16&amp;" Comdty","PX_SETTLE")</f>
-        <v>6133</v>
+        <v>5939.5</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G16">
         <f>_xll.BDP(F16&amp;" Comdty","PX_LAST")</f>
-        <v>97.03</v>
+        <v>96.975000000000009</v>
       </c>
       <c r="H16" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F16,$B$1,F16,$M$1,G16,1,0,"USD.LIBOR.3M")</f>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="C17" s="3">
         <f>_xll.BDP(A17&amp;" Comdty","PX_SETTLE")</f>
-        <v>6139</v>
+        <v>5944</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G17">
         <f>_xll.BDP(F17&amp;" Comdty","PX_LAST")</f>
-        <v>97.045000000000002</v>
+        <v>96.98</v>
       </c>
       <c r="H17" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F17,$B$1,F17,$M$1,G17,1,0,"USD.LIBOR.3M")</f>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="C18" s="3">
         <f>_xll.BDP(A18&amp;" Comdty","PX_SETTLE")</f>
-        <v>6144</v>
+        <v>5948.75</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="G18">
         <f>_xll.BDP(F18&amp;" Comdty","PX_LAST")</f>
-        <v>97.03</v>
+        <v>96.975000000000009</v>
       </c>
       <c r="H18" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F18,$B$1,F18,$M$1,G18,1,0,"USD.LIBOR.3M")</f>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C19" s="3">
         <f>_xll.BDP(A19&amp;" Comdty","PX_SETTLE")</f>
-        <v>6149</v>
+        <v>5953.5</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="G19">
         <f>_xll.BDP(F19&amp;" Comdty","PX_LAST")</f>
-        <v>97.045000000000002</v>
+        <v>96.984999999999999</v>
       </c>
       <c r="H19" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F19,$B$1,F19,$M$1,G19,1,0,"USD.LIBOR.3M")</f>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C20" s="3">
         <f>_xll.BDP(A20&amp;" Comdty","PX_SETTLE")</f>
-        <v>6154</v>
+        <v>5958.25</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="G20">
         <f>_xll.BDP(F20&amp;" Comdty","PX_LAST")</f>
-        <v>97.04</v>
+        <v>96.98</v>
       </c>
       <c r="H20" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F20,$B$1,F20,$M$1,G20,1,0,"USD.LIBOR.3M")</f>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="C21" s="3">
         <f>_xll.BDP(A21&amp;" Comdty","PX_SETTLE")</f>
-        <v>6159</v>
+        <v>5963</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="G21">
         <f>_xll.BDP(F21&amp;" Comdty","PX_LAST")</f>
-        <v>97.034999999999997</v>
+        <v>96.975000000000009</v>
       </c>
       <c r="H21" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F21,$B$1,F21,$M$1,G21,1,0,"USD.LIBOR.3M")</f>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="C22" s="3">
         <f>_xll.BDP(A22&amp;" Comdty","PX_SETTLE")</f>
-        <v>6163.5</v>
+        <v>5966.75</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="G22">
         <f>_xll.BDP(F22&amp;" Comdty","PX_LAST")</f>
-        <v>97.02</v>
+        <v>96.965000000000003</v>
       </c>
       <c r="H22" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F22,$B$1,F22,$M$1,G22,1,0,"USD.LIBOR.3M")</f>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C23" s="3">
         <f>_xll.BDP(A23&amp;" Comdty","PX_SETTLE")</f>
-        <v>6168</v>
+        <v>5970.5</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="G23">
         <f>_xll.BDP(F23&amp;" Comdty","PX_LAST")</f>
-        <v>97.015000000000001</v>
+        <v>96.960000000000008</v>
       </c>
       <c r="H23" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F23,$B$1,F23,$M$1,G23,1,0,"USD.LIBOR.3M")</f>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C24" s="3">
         <f>_xll.BDP(A24&amp;" Comdty","PX_SETTLE")</f>
-        <v>6172.5</v>
+        <v>5974.25</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="G24">
         <f>_xll.BDP(F24&amp;" Comdty","PX_LAST")</f>
-        <v>97.01</v>
+        <v>96.95</v>
       </c>
       <c r="H24" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F24,$B$1,F24,$M$1,G24,1,0,"USD.LIBOR.3M")</f>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="C25" s="3">
         <f>_xll.BDP(A25&amp;" Comdty","PX_SETTLE")</f>
-        <v>6177</v>
+        <v>5978</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C26" s="3">
         <f>_xll.BDP(A26&amp;" Comdty","PX_SETTLE")</f>
-        <v>6181.5</v>
+        <v>5981.5</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C27" s="3">
         <f>_xll.BDP(A27&amp;" Comdty","PX_SETTLE")</f>
-        <v>6186.5</v>
+        <v>5985</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2878,7 +2878,7 @@
         <v>54</v>
       </c>
       <c r="K27" t="str">
-        <f>_xll.QVol_CreateGridVolSurface("XAU",B1,0.5,L29:L40,K29:K40,"Delta","Linear","LinearInVariance",J29:J40)</f>
+        <f>_xll.QVol_CreateGridVolSurface("XAU",B1,0.5,L29:L40,K29:K40,"ForwardDelta","Linear","LinearInVariance","Act365F",J29:J40,"USD")</f>
         <v>XAU¬1</v>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="C28" s="3">
         <f>_xll.BDP(A28&amp;" Comdty","PX_SETTLE")</f>
-        <v>6191.5</v>
+        <v>5988.5</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C29" s="3">
         <f>_xll.BDP(A29&amp;" Comdty","PX_SETTLE")</f>
-        <v>6196.5</v>
+        <v>5992</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -2922,14 +2922,14 @@
       </c>
       <c r="G29" s="3">
         <f>_xll.BDP("XAU Curncy","PX_Last")</f>
-        <v>1204.83</v>
+        <v>1193.3499999999999</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J29&amp;" Curncy","PX_Last")/100</f>
-        <v>0.11749999999999999</v>
+        <v>0.11845</v>
       </c>
       <c r="L29" s="2">
         <f>_xll.QDates_AddPeriod($B$2,"1b","F","NYC+LON")</f>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C30" s="3">
         <f>_xll.BDP(A30&amp;" Comdty","PX_SETTLE")</f>
-        <v>6201</v>
+        <v>5995.5</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="G30" s="7">
         <f>_xll.BDP("XAUSR"&amp;F30&amp;" Curncy","PX_Last")/100</f>
-        <v>2.1499999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H30" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F30,"F","NYC+LON")</f>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="K30" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J30&amp;" Curncy","PX_Last")/100</f>
-        <v>9.0950000000000003E-2</v>
+        <v>9.4450000000000006E-2</v>
       </c>
       <c r="L30" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J30,"F","NYC+LON")</f>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C31" s="3">
         <f>_xll.BDP(A31&amp;" Comdty","PX_SETTLE")</f>
-        <v>6205.5</v>
+        <v>5999</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K31" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J31&amp;" Curncy","PX_Last")/100</f>
-        <v>9.4700000000000006E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="L31" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J31,"F","NYC+LON")</f>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C32" s="3">
         <f>_xll.BDP(A32&amp;" Comdty","PX_SETTLE")</f>
-        <v>6210.5</v>
+        <v>6002.5</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G32" s="7">
         <f>_xll.BDP("XAUSR"&amp;F32&amp;" Curncy","PX_Last")/100</f>
-        <v>2.1700000000000001E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="H32" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F32,"F","NYC+LON")</f>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="K32" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J32&amp;" Curncy","PX_Last")/100</f>
-        <v>9.2874999999999999E-2</v>
+        <v>9.547499999999999E-2</v>
       </c>
       <c r="L32" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J32,"F","NYC+LON")</f>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="C33" s="3">
         <f>_xll.BDP(A33&amp;" Comdty","PX_SETTLE")</f>
-        <v>6215</v>
+        <v>6006</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G33" s="7">
         <f>_xll.BDP("XAUSR"&amp;F33&amp;" Curncy","PX_Last")/100</f>
-        <v>2.23E-2</v>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="H33" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F33,"F","NYC+LON")</f>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="C34" s="3">
         <f>_xll.BDP(A34&amp;" Comdty","PX_SETTLE")</f>
-        <v>6217.5</v>
+        <v>6008.5</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G34" s="7">
         <f>_xll.BDP("XAUSR"&amp;F34&amp;" Curncy","PX_Last")/100</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="H34" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F34,"F","NYC+LON")</f>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K34" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J34&amp;" Curncy","PX_Last")/100</f>
-        <v>9.8049999999999998E-2</v>
+        <v>9.8650000000000002E-2</v>
       </c>
       <c r="L34" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J34,"F","NYC+LON")</f>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C35" s="3">
         <f>_xll.BDP(A35&amp;" Comdty","PX_SETTLE")</f>
-        <v>6220</v>
+        <v>6011</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="G35" s="7">
         <f>_xll.BDP("XAUSR"&amp;F35&amp;" Curncy","PX_Last")/100</f>
-        <v>2.46E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H35" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F35,"F","NYC+LON")</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="K35" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J35&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10034999999999999</v>
+        <v>9.7899999999999987E-2</v>
       </c>
       <c r="L35" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J35,"F","NYC+LON")</f>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="C36" s="3">
         <f>_xll.BDP(A36&amp;" Comdty","PX_SETTLE")</f>
-        <v>6222.5</v>
+        <v>6013.5</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="K36" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J36&amp;" Curncy","PX_Last")/100</f>
-        <v>0.1017</v>
+        <v>9.9900000000000003E-2</v>
       </c>
       <c r="L36" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J36,"F","NYC+LON")</f>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="C37" s="3">
         <f>_xll.BDP(A37&amp;" Comdty","PX_SETTLE")</f>
-        <v>6225</v>
+        <v>6016</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="K37" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J37&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10439999999999999</v>
+        <v>0.10314999999999999</v>
       </c>
       <c r="L37" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J37,"F","NYC+LON")</f>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="C38" s="3">
         <f>_xll.BDP(A38&amp;" Comdty","PX_SETTLE")</f>
-        <v>6227.5</v>
+        <v>6018.5</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K38" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J38&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10664999999999999</v>
+        <v>0.10595</v>
       </c>
       <c r="L38" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J38,"F","NYC+LON")</f>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="C39" s="3">
         <f>_xll.BDP(A39&amp;" Comdty","PX_SETTLE")</f>
-        <v>6230</v>
+        <v>6021</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="K39" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J39&amp;" Curncy","PX_Last")/100</f>
-        <v>0.11355</v>
+        <v>0.1125</v>
       </c>
       <c r="L39" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J39,"F","NYC+LON")</f>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C40" s="3">
         <f>_xll.BDP(A40&amp;" Comdty","PX_SETTLE")</f>
-        <v>6232.5</v>
+        <v>6023.5</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="K40" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J40&amp;" Curncy","PX_Last")/100</f>
-        <v>0.11735</v>
+        <v>0.1162</v>
       </c>
       <c r="L40" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J40,"F","NYC+LON")</f>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="C41" s="3">
         <f>_xll.BDP(A41&amp;" Comdty","PX_SETTLE")</f>
-        <v>6235</v>
+        <v>6026</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C42" s="3">
         <f>_xll.BDP(A42&amp;" Comdty","PX_SETTLE")</f>
-        <v>6237.5</v>
+        <v>6028.5</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C43" s="3">
         <f>_xll.BDP(A43&amp;" Comdty","PX_SETTLE")</f>
-        <v>6240</v>
+        <v>6031</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C44" s="3">
         <f>_xll.BDP(A44&amp;" Comdty","PX_SETTLE")</f>
-        <v>6242.5</v>
+        <v>6033.5</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C45" s="3">
         <f>_xll.BDP(A45&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C46" s="3">
         <f>_xll.BDP(A46&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="C47" s="3">
         <f>_xll.BDP(A47&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C48" s="3">
         <f>_xll.BDP(A48&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C49" s="3">
         <f>_xll.BDP(A49&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C50" s="3">
         <f>_xll.BDP(A50&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C51" s="3">
         <f>_xll.BDP(A51&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="C52" s="3">
         <f>_xll.BDP(A52&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C53" s="3">
         <f>_xll.BDP(A53&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C54" s="3">
         <f>_xll.BDP(A54&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C55" s="3">
         <f>_xll.BDP(A55&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C56" s="3">
         <f>_xll.BDP(A56&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C57" s="3">
         <f>_xll.BDP(A57&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C58" s="3">
         <f>_xll.BDP(A58&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C59" s="3">
         <f>_xll.BDP(A59&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C60" s="3">
         <f>_xll.BDP(A60&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="C61" s="3">
         <f>_xll.BDP(A61&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="C62" s="3">
         <f>_xll.BDP(A62&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C63" s="3">
         <f>_xll.BDP(A63&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="C64" s="3">
         <f>_xll.BDP(A64&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C65" s="3">
         <f>_xll.BDP(A65&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C66" s="3">
         <f>_xll.BDP(A66&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="C67" s="3">
         <f>_xll.BDP(A67&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C68" s="3">
         <f>_xll.BDP(A68&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="C69" s="3">
         <f>_xll.BDP(A69&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C70" s="3">
         <f>_xll.BDP(A70&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ref="D70:D128" si="4">IF(B70=$F$1,"3m",TEXT(B70,"mmmyy"))</f>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="C71" s="3">
         <f>_xll.BDP(A71&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="4"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="C72" s="3">
         <f>_xll.BDP(A72&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="4"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C73" s="3">
         <f>_xll.BDP(A73&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="4"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C74" s="3">
         <f>_xll.BDP(A74&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="4"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="C75" s="3">
         <f>_xll.BDP(A75&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="4"/>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="C76" s="3">
         <f>_xll.BDP(A76&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="4"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C77" s="3">
         <f>_xll.BDP(A77&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="4"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C78" s="3">
         <f>_xll.BDP(A78&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="4"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C79" s="3">
         <f>_xll.BDP(A79&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="4"/>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C80" s="3">
         <f>_xll.BDP(A80&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="4"/>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="C81" s="3">
         <f>_xll.BDP(A81&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="4"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C82" s="3">
         <f>_xll.BDP(A82&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="4"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C83" s="3">
         <f>_xll.BDP(A83&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="4"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C84" s="3">
         <f>_xll.BDP(A84&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="4"/>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="C85" s="3">
         <f>_xll.BDP(A85&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="4"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C86" s="3">
         <f>_xll.BDP(A86&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="4"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C87" s="3">
         <f>_xll.BDP(A87&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="4"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="C88" s="3">
         <f>_xll.BDP(A88&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="4"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C89" s="3">
         <f>_xll.BDP(A89&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="4"/>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C90" s="3">
         <f>_xll.BDP(A90&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="4"/>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="C91" s="3">
         <f>_xll.BDP(A91&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="4"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="C92" s="3">
         <f>_xll.BDP(A92&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="4"/>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C93" s="3">
         <f>_xll.BDP(A93&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="4"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C94" s="3">
         <f>_xll.BDP(A94&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="4"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="C95" s="3">
         <f>_xll.BDP(A95&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="4"/>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="C96" s="3">
         <f>_xll.BDP(A96&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="4"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C97" s="3">
         <f>_xll.BDP(A97&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="4"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="C98" s="3">
         <f>_xll.BDP(A98&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="C99" s="3">
         <f>_xll.BDP(A99&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="4"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C100" s="3">
         <f>_xll.BDP(A100&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="4"/>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C101" s="3">
         <f>_xll.BDP(A101&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="4"/>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="C102" s="3">
         <f>_xll.BDP(A102&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C103" s="3">
         <f>_xll.BDP(A103&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="4"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C104" s="3">
         <f>_xll.BDP(A104&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="4"/>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="C105" s="3">
         <f>_xll.BDP(A105&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="4"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C106" s="3">
         <f>_xll.BDP(A106&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="4"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C107" s="3">
         <f>_xll.BDP(A107&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="4"/>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C108" s="3">
         <f>_xll.BDP(A108&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="4"/>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="C109" s="3">
         <f>_xll.BDP(A109&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="4"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="C110" s="3">
         <f>_xll.BDP(A110&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="4"/>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="C111" s="3">
         <f>_xll.BDP(A111&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="4"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C112" s="3">
         <f>_xll.BDP(A112&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="4"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C113" s="3">
         <f>_xll.BDP(A113&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="4"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C114" s="3">
         <f>_xll.BDP(A114&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="4"/>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C115" s="3">
         <f>_xll.BDP(A115&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="4"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C116" s="3">
         <f>_xll.BDP(A116&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="4"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C117" s="3">
         <f>_xll.BDP(A117&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C118" s="3">
         <f>_xll.BDP(A118&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="4"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C119" s="3">
         <f>_xll.BDP(A119&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="4"/>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="C120" s="3">
         <f>_xll.BDP(A120&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="4"/>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C121" s="3">
         <f>_xll.BDP(A121&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="4"/>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C122" s="3">
         <f>_xll.BDP(A122&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="4"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="C123" s="3">
         <f>_xll.BDP(A123&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="4"/>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="C124" s="3">
         <f>_xll.BDP(A124&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="4"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="C125" s="3">
         <f>_xll.BDP(A125&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="4"/>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="C126" s="3">
         <f>_xll.BDP(A126&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="4"/>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="C127" s="3">
         <f>_xll.BDP(A127&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="4"/>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C128" s="3">
         <f>_xll.BDP(A128&amp;" Comdty","PX_SETTLE")</f>
-        <v>6245</v>
+        <v>6036</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="4"/>
@@ -5114,10 +5114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P221"/>
+  <dimension ref="A1:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,12 +5129,13 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H1" t="str">
         <f t="array" ref="H1:K15">_xll.QCube_DisplayCube(D19)</f>
         <v>TradeId</v>
@@ -5156,7 +5157,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>43556</v>
       </c>
@@ -5175,13 +5176,13 @@
         <v>USD</v>
       </c>
       <c r="J2">
-        <v>110600.89425481207</v>
+        <v>-72606.148669632501</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>43586</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>USD</v>
       </c>
       <c r="J3">
-        <v>116868.90294528572</v>
+        <v>-67698.772339229326</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -5209,15 +5210,19 @@
         <f t="array" ref="N3:N26">TRANSPOSE(_xll.QDates_ListBusinessDaysInPeriod(N1,O1,"NYC"))</f>
         <v>43556</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2">
+        <f>_xll.QDates_AddPeriod(N3,"2b","F","NYC")</f>
+        <v>43558</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P3">
-        <f>_xll.QCurves_GetAveragePrice(Curves!$I$1,N3:N24)</f>
-        <v>6112.5616883116891</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>_xll.QCurves_GetAveragePrice(Curves!$I$1,O3:O24)</f>
+        <v>5926.1095779220777</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>43617</v>
       </c>
@@ -5236,7 +5241,7 @@
         <v>USD</v>
       </c>
       <c r="J4">
-        <v>123251.04648611795</v>
+        <v>-63549.837101878125</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
@@ -5244,14 +5249,18 @@
       <c r="N4" s="2">
         <v>43557</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2">
+        <f>_xll.QDates_AddPeriod(N4,"2b","F","NYC")</f>
+        <v>43559</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>43647</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>USD</v>
       </c>
       <c r="J5">
-        <v>129421.30736887369</v>
+        <v>-58853.071379158413</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
@@ -5278,14 +5287,18 @@
       <c r="N5" s="2">
         <v>43558</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2">
+        <f>_xll.QDates_AddPeriod(N5,"2b","F","NYC")</f>
+        <v>43560</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>43678</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>USD</v>
       </c>
       <c r="J6">
-        <v>134414.98799155111</v>
+        <v>-54601.418540102975</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
@@ -5315,15 +5328,19 @@
       <c r="N6" s="2">
         <v>43559</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="2">
+        <f>_xll.QDates_AddPeriod(N6,"2b","F","NYC")</f>
+        <v>43563</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P6">
-        <f>(P3-P5)*P4</f>
-        <v>112561.68831168907</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>(Q3-Q5)*Q4</f>
+        <v>-73890.422077922267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>43709</v>
       </c>
@@ -5345,7 +5362,7 @@
         <v>USD</v>
       </c>
       <c r="J7">
-        <v>139303.9432569994</v>
+        <v>-49623.548270752523</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
@@ -5353,15 +5370,19 @@
       <c r="N7" s="2">
         <v>43560</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="2">
+        <f>_xll.QDates_AddPeriod(N7,"2b","F","NYC")</f>
+        <v>43564</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <f>_xll.QDates_AddPeriod(O1,"2b","F","NYC")</f>
         <v>43587</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>43739</v>
       </c>
@@ -5380,7 +5401,7 @@
         <v>USD</v>
       </c>
       <c r="J8">
-        <v>144110.44022077648</v>
+        <v>-44702.523448696295</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
@@ -5388,15 +5409,19 @@
       <c r="N8" s="2">
         <v>43563</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="2">
+        <f>_xll.QDates_AddPeriod(N8,"2b","F","NYC")</f>
+        <v>43565</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P8">
-        <f>_xll.QCurves_GetDF(Curves!$M$2,Curves!B1,P7)</f>
-        <v>0.98258027143793847</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f>_xll.QCurves_GetDF(Curves!$M$2,Curves!B1,Q7)</f>
+        <v>0.98261921677838815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>43770</v>
       </c>
@@ -5415,7 +5440,7 @@
         <v>USD</v>
       </c>
       <c r="J9">
-        <v>148138.30044393102</v>
+        <v>-40407.912106306234</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
@@ -5423,15 +5448,19 @@
       <c r="N9" s="2">
         <v>43564</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="2">
+        <f>_xll.QDates_AddPeriod(N9,"2b","F","NYC")</f>
+        <v>43566</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P9">
-        <f>P8*P6</f>
-        <v>110600.89425481207</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f>Q8*Q6</f>
+        <v>-72606.148669632501</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>43800</v>
       </c>
@@ -5450,7 +5479,7 @@
         <v>USD</v>
       </c>
       <c r="J10">
-        <v>152582.47130846075</v>
+        <v>-35695.006794755202</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
@@ -5458,8 +5487,12 @@
       <c r="N10" s="2">
         <v>43565</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <f>_xll.QDates_AddPeriod(N10,"2b","F","NYC")</f>
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>43831</v>
       </c>
@@ -5478,7 +5511,7 @@
         <v>USD</v>
       </c>
       <c r="J11">
-        <v>157120.25143446532</v>
+        <v>-31469.893906413152</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -5486,15 +5519,19 @@
       <c r="N11" s="2">
         <v>43566</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2">
+        <f>_xll.QDates_AddPeriod(N11,"2b","F","NYC")</f>
+        <v>43570</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="6" t="e">
-        <f>P9-I2</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6">
+        <f>Q9-J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>43862</v>
       </c>
@@ -5513,7 +5550,7 @@
         <v>USD</v>
       </c>
       <c r="J12">
-        <v>160561.32520384638</v>
+        <v>-28243.71031285033</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
@@ -5521,8 +5558,12 @@
       <c r="N12" s="2">
         <v>43567</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <f>_xll.QDates_AddPeriod(N12,"2b","F","NYC")</f>
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>43891</v>
       </c>
@@ -5541,7 +5582,7 @@
         <v>USD</v>
       </c>
       <c r="J13">
-        <v>164506.71072921535</v>
+        <v>-24521.029094884794</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
@@ -5549,8 +5590,12 @@
       <c r="N13" s="2">
         <v>43570</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="2">
+        <f>_xll.QDates_AddPeriod(N13,"2b","F","NYC")</f>
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>43922</v>
       </c>
@@ -5569,7 +5614,7 @@
         <v>USD</v>
       </c>
       <c r="J14">
-        <v>168730.1525094891</v>
+        <v>-20707.647570980429</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -5577,8 +5622,12 @@
       <c r="N14" s="2">
         <v>43571</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <f>_xll.QDates_AddPeriod(N14,"2b","F","NYC")</f>
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>43952</v>
       </c>
@@ -5597,7 +5646,7 @@
         <v>USD</v>
       </c>
       <c r="J15">
-        <v>172114.83575903464</v>
+        <v>-17681.081368335639</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
@@ -5605,8 +5654,12 @@
       <c r="N15" s="2">
         <v>43572</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <f>_xll.QDates_AddPeriod(N15,"2b","F","NYC")</f>
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xll.QIns_CreateAsianSwap("SwpCA1_"&amp;C3,F6:F7,"CA","USD",6000,1000,"NYC","NYC","2b","2b",,"USD.LIBOR.3M")</f>
         <v>SwpCA1_MAY-19¬1</v>
@@ -5614,8 +5667,12 @@
       <c r="N16" s="2">
         <v>43573</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <f>_xll.QDates_AddPeriod(N16,"2b","F","NYC")</f>
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H17" t="str">
         <f t="array" ref="H17:L221">_xll.QCube_DisplayCube(D22)</f>
         <v>Metric</v>
@@ -5635,8 +5692,12 @@
       <c r="N17" s="2">
         <v>43574</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <f>_xll.QDates_AddPeriod(N17,"2b","F","NYC")</f>
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +5712,7 @@
         <v>Mar19</v>
       </c>
       <c r="J18">
-        <v>-1.7753336578607559E-5</v>
+        <v>1.4760672684133169E-7</v>
       </c>
       <c r="K18" t="e">
         <v>#N/A</v>
@@ -5662,8 +5723,12 @@
       <c r="N18" s="2">
         <v>43577</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <f>_xll.QDates_AddPeriod(N18,"2b","F","NYC")</f>
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5678,7 +5743,7 @@
         <v>Apr19</v>
       </c>
       <c r="J19">
-        <v>-5.3114490583539009E-5</v>
+        <v>7.2777174864313565E-5</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
@@ -5689,8 +5754,12 @@
       <c r="N19" s="2">
         <v>43578</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <f>_xll.QDates_AddPeriod(N19,"2b","F","NYC")</f>
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -5705,7 +5774,7 @@
         <v>May19</v>
       </c>
       <c r="J20">
-        <v>5.3696567192673683E-5</v>
+        <v>7.4121402349192067E-7</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
@@ -5716,8 +5785,12 @@
       <c r="N20" s="2">
         <v>43579</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="2">
+        <f>_xll.QDates_AddPeriod(N20,"2b","F","NYC")</f>
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -5732,7 +5805,7 @@
         <v>Jun19</v>
       </c>
       <c r="J21">
-        <v>8.5856299847364426E-6</v>
+        <v>2.7502090915731969E-5</v>
       </c>
       <c r="K21" t="e">
         <v>#N/A</v>
@@ -5743,8 +5816,12 @@
       <c r="N21" s="2">
         <v>43580</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <f>_xll.QDates_AddPeriod(N21,"2b","F","NYC")</f>
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -5765,7 +5842,7 @@
         <v>Jul19</v>
       </c>
       <c r="J22">
-        <v>-2.9103830456733704E-7</v>
+        <v>-9.1630852239177329E-6</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
@@ -5776,8 +5853,12 @@
       <c r="N22" s="2">
         <v>43581</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <f>_xll.QDates_AddPeriod(N22,"2b","F","NYC")</f>
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
         <v>Gamma</v>
       </c>
@@ -5785,7 +5866,7 @@
         <v>Aug19</v>
       </c>
       <c r="J23">
-        <v>8.7311491370201111E-6</v>
+        <v>2.7269041424915486E-5</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
@@ -5796,8 +5877,12 @@
       <c r="N23" s="2">
         <v>43584</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <f>_xll.QDates_AddPeriod(N23,"2b","F","NYC")</f>
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -5811,7 +5896,7 @@
         <v>Sep19</v>
       </c>
       <c r="J24">
-        <v>-8.7311491370201111E-6</v>
+        <v>1.8271714452566812E-5</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
@@ -5822,8 +5907,12 @@
       <c r="N24" s="2">
         <v>43585</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <f>_xll.QDates_AddPeriod(N24,"2b","F","NYC")</f>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -5837,7 +5926,7 @@
         <v>Oct19</v>
       </c>
       <c r="J25">
-        <v>-3.4924596548080444E-5</v>
+        <v>1.5012489029686549E-7</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
@@ -5848,8 +5937,9 @@
       <c r="N25" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H26" t="str">
         <v>Gamma</v>
       </c>
@@ -5857,7 +5947,7 @@
         <v>Nov19</v>
       </c>
       <c r="J26">
-        <v>-3.6088749766349792E-5</v>
+        <v>3.6433914374356391E-5</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
@@ -5868,8 +5958,9 @@
       <c r="N26" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>40</v>
       </c>
@@ -5884,7 +5975,7 @@
         <v>Dec19</v>
       </c>
       <c r="J27">
-        <v>-9.3132257461547852E-6</v>
+        <v>-2.7277238245915214E-5</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
@@ -5893,7 +5984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H28" t="str">
         <v>Gamma</v>
       </c>
@@ -5901,7 +5992,7 @@
         <v>Jan20</v>
       </c>
       <c r="J28">
-        <v>-8.149072527885437E-6</v>
+        <v>-9.1893781473117997E-6</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
@@ -5910,7 +6001,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -5924,7 +6015,7 @@
         <v>Feb20</v>
       </c>
       <c r="J29">
-        <v>8.7311491370201111E-6</v>
+        <v>1.8091937192821206E-5</v>
       </c>
       <c r="K29" t="e">
         <v>#N/A</v>
@@ -5933,7 +6024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -5947,7 +6038,7 @@
         <v>Mar20</v>
       </c>
       <c r="J30">
-        <v>9.0221874415874481E-6</v>
+        <v>5.4444191732727631E-5</v>
       </c>
       <c r="K30" t="e">
         <v>#N/A</v>
@@ -5956,7 +6047,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H31" t="str">
         <v>Gamma</v>
       </c>
@@ -5964,7 +6055,7 @@
         <v>Apr20</v>
       </c>
       <c r="J31">
-        <v>-8.7311491370201111E-6</v>
+        <v>2.7210114694753429E-5</v>
       </c>
       <c r="K31" t="e">
         <v>#N/A</v>
@@ -5973,7 +6064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H32" t="str">
         <v>Gamma</v>
       </c>
@@ -5981,7 +6072,7 @@
         <v>May20</v>
       </c>
       <c r="J32">
-        <v>2.5902409106492996E-5</v>
+        <v>9.0970388555433601E-6</v>
       </c>
       <c r="K32" t="e">
         <v>#N/A</v>
@@ -5998,7 +6089,7 @@
         <v>Jun20</v>
       </c>
       <c r="J33">
-        <v>2.9103830456733704E-7</v>
+        <v>-3.8315306483127642E-8</v>
       </c>
       <c r="K33" t="e">
         <v>#N/A</v>
@@ -9216,10 +9307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O221"/>
+  <dimension ref="A1:O221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9235,14 +9326,14 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H1" t="str">
-        <f t="array" ref="H1:K15">_xll.QCube_DisplayCube(D19)</f>
+        <f t="array" ref="H1:K15">_xll.QCube_DisplayCube(D22)</f>
         <v>TradeId</v>
       </c>
       <c r="I1" t="str">
-        <v>Currency</v>
-      </c>
-      <c r="J1" t="str">
         <v>Value</v>
+      </c>
+      <c r="J1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K1" t="e">
         <v>#N/A</v>
@@ -9265,11 +9356,11 @@
       <c r="H2" t="str">
         <v>XAU_NOV-18</v>
       </c>
-      <c r="I2" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J2">
-        <v>22738.211634811414</v>
+      <c r="I2" s="3">
+        <v>441.12246246644531</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
@@ -9290,11 +9381,11 @@
       <c r="H3" t="str">
         <v>XAU_DEC-18</v>
       </c>
-      <c r="I3" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J3">
-        <v>28145.348133976673</v>
+      <c r="I3" s="3">
+        <v>467.6396703962688</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -9317,11 +9408,11 @@
       <c r="H4" t="str">
         <v>XAU_JAN-19</v>
       </c>
-      <c r="I4" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J4">
-        <v>33185.515459618444</v>
+      <c r="I4" s="3">
+        <v>488.99781815441702</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
@@ -9344,11 +9435,11 @@
       <c r="H5" t="str">
         <v>XAU_FEB-19</v>
       </c>
-      <c r="I5" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J5">
-        <v>37745.581682776574</v>
+      <c r="I5" s="3">
+        <v>505.36703359600301</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
@@ -9371,11 +9462,11 @@
       <c r="H6" t="str">
         <v>XAU_MAR-19</v>
       </c>
-      <c r="I6" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J6">
-        <v>42071.50140160384</v>
+      <c r="I6" s="3">
+        <v>518.61222450924424</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
@@ -9398,11 +9489,11 @@
       <c r="H7" t="str">
         <v>XAU_APR-19</v>
       </c>
-      <c r="I7" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J7">
-        <v>46523.652896349951</v>
+      <c r="I7" s="3">
+        <v>530.56615643703446</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
@@ -9426,11 +9517,11 @@
       <c r="H8" t="str">
         <v>XAU_MAY-19</v>
       </c>
-      <c r="I8" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J8">
-        <v>50805.674353613911</v>
+      <c r="I8" s="3">
+        <v>541.56127578908797</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
@@ -9453,11 +9544,11 @@
       <c r="H9" t="str">
         <v>XAU_JUN-19</v>
       </c>
-      <c r="I9" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J9">
-        <v>55005.198195061523</v>
+      <c r="I9" s="3">
+        <v>551.18342500414178</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
@@ -9480,11 +9571,11 @@
       <c r="H10" t="str">
         <v>XAU_JUL-19</v>
       </c>
-      <c r="I10" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J10">
-        <v>59183.916349162457</v>
+      <c r="I10" s="3">
+        <v>560.00560616595214</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
@@ -9506,11 +9597,11 @@
       <c r="H11" t="str">
         <v>XAU_AUG-19</v>
       </c>
-      <c r="I11" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J11">
-        <v>63276.043130852304</v>
+      <c r="I11" s="3">
+        <v>568.26689276985235</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -9534,11 +9625,11 @@
       <c r="H12" t="str">
         <v>XAU_SEP-19</v>
       </c>
-      <c r="I12" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J12">
-        <v>67466.647376247434</v>
+      <c r="I12" s="3">
+        <v>575.34254610866901</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
@@ -9560,11 +9651,11 @@
       <c r="H13" t="str">
         <v>XAU_OCT-19</v>
       </c>
-      <c r="I13" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J13">
-        <v>71719.625104015155</v>
+      <c r="I13" s="3">
+        <v>581.47119856947165</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
@@ -9586,11 +9677,11 @@
       <c r="H14" t="str">
         <v>XAU_NOV-19</v>
       </c>
-      <c r="I14" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J14">
-        <v>75823.417099354745</v>
+      <c r="I14" s="3">
+        <v>587.34434129309716</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -9612,11 +9703,11 @@
       <c r="H15" t="str">
         <v>XAU_DEC-19</v>
       </c>
-      <c r="I15" s="3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="J15">
-        <v>79769.059786711179</v>
+      <c r="I15" s="3">
+        <v>592.69460412840237</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
@@ -9626,23 +9717,23 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H17" t="e">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
         <f t="array" ref="H17:K221">_xll.QCube_DisplayCube(D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#VALUE!</v>
+        <v>PointLabel</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Value</v>
       </c>
       <c r="J17" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K17" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -9650,21 +9741,21 @@
         <f>_xll.QIns_CreatePortfolio("XAU_"&amp;C18,D2:D15)</f>
         <v>XAU_Portfolio¬1</v>
       </c>
-      <c r="H18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="H18" t="str">
+        <v>2M</v>
+      </c>
+      <c r="I18" s="3">
+        <v>786.02647752622215</v>
       </c>
       <c r="J18" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K18" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>32</v>
       </c>
@@ -9672,21 +9763,21 @@
         <f>_xll.QIns_AssetPortfolioPV(C19,D18,Curves!M4)</f>
         <v>XAU_PV¬1</v>
       </c>
-      <c r="H19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="H19" t="str">
+        <v>3M</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4453.3865274238087</v>
       </c>
       <c r="J19" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K19" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>33</v>
       </c>
@@ -9694,207 +9785,199 @@
         <f>_xll.QIns_AssetPortfolioDeltaGamma(C20,D18,Curves!M4)</f>
         <v>XAU_Delta¬1</v>
       </c>
-      <c r="H20" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="H20" t="str">
+        <v>6M</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10488.293272448453</v>
       </c>
       <c r="J20" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K20" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" t="e">
-        <f>_xll.QCube_AggregateCube(C21,D20,"PointLabel",B24:C25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="D21" t="str">
+        <f>_xll.QCube_AggregateCube(C21,D20,"PointLabel","Sum")</f>
+        <v>Xau1¬1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>9M</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12381.759180022782</v>
       </c>
       <c r="J21" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K21" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="e">
-        <f>_xll.QCube_AggregateCube(C22,D20,"TradeId",B24:C25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="D22" t="str">
+        <f>_xll.QCube_AggregateCube(C22,D20,"TradeId","Sum")</f>
+        <v>Xau2¬1</v>
+      </c>
+      <c r="H22" t="str">
+        <v>1Y</v>
+      </c>
+      <c r="I22" s="3">
+        <v>19323.544484610138</v>
       </c>
       <c r="J22" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K22" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H23" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <v>18M</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9186.9083001461695</v>
       </c>
       <c r="J23" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K23" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I24" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J24" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K24" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>D20</f>
+        <v>XAU_Delta¬1</v>
       </c>
       <c r="H25" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I25" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J25" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K25" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H26" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I26" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J26" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K26" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>51</v>
       </c>
       <c r="D27" t="str">
-        <f>_xll.QIns_AssetPortfolioVega(C27,D18,Curves!$M$4)</f>
+        <f>_xll.QIns_AssetPortfolioVega(C27,D18,Curves!$M$4,"USD")</f>
         <v>XAU_Vega¬1</v>
       </c>
       <c r="H27" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I27" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J27" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K27" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="e">
-        <f>_xll.QCube_AggregateCube(C28,D27,"PointLabel",B31:C31)</f>
-        <v>#VALUE!</v>
+      <c r="D28" t="str">
+        <f>_xll.QCube_AggregateCube(C28,D27,"PointLabel","Sum")</f>
+        <v>Xau3¬1</v>
       </c>
       <c r="H28" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I28" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J28" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K28" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H29" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I29" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J29" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K29" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H30" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I30" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J30" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K30" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -9902,2676 +9985,2676 @@
         <v>21</v>
       </c>
       <c r="H31" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I31" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K31" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H32" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I32" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J32" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K32" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I33" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K33" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I34" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K34" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I35" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K35" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I36" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J36" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K36" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I37" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K37" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I38" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J38" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K38" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I39" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J39" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K39" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I40" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J40" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K40" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I41" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J41" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K41" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I42" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J42" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K42" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I43" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J43" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K43" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I44" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J44" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K44" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I45" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J45" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K45" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H46" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I46" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J46" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K46" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H47" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I47" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J47" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K47" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H48" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I48" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J48" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K48" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I49" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J49" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K49" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I50" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J50" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K50" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I51" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J51" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K51" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H52" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I52" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J52" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K52" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H53" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I53" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H54" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I54" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I55" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I56" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I57" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J57" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K57" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H58" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I58" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H59" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I59" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H60" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I60" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J60" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K60" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H61" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I61" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H62" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I62" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H63" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I63" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H64" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I64" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H65" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I65" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H66" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I66" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H67" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I67" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H68" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I68" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H69" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I69" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H70" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I70" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H71" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I71" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H72" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I72" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H73" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I73" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H74" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I74" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I75" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H76" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I76" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H77" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I77" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H78" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I78" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J78" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H79" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I79" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H80" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I80" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J80" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K80" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I81" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H82" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I82" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H83" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I83" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H84" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I84" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H85" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I85" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I86" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H87" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I87" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J87" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H88" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I88" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J88" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K88" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H89" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I89" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J89" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K89" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H90" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I90" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J90" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K90" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H91" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I91" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J91" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K91" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H92" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I92" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J92" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K92" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H93" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I93" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J93" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K93" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H94" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I94" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J94" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K94" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H95" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I95" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J95" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K95" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H96" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I96" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J96" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K96" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H97" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I97" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J97" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K97" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H98" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I98" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J98" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K98" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H99" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I99" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J99" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K99" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H100" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I100" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J100" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K100" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H101" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I101" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J101" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K101" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H102" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I102" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J102" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K102" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H103" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I103" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J103" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K103" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H104" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I104" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J104" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K104" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H105" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I105" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J105" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K105" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H106" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I106" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J106" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K106" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H107" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I107" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J107" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K107" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H108" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I108" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J108" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K108" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H109" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I109" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J109" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K109" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H110" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I110" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J110" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K110" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H111" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I111" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J111" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K111" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H112" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I112" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J112" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K112" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H113" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I113" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J113" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K113" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H114" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I114" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J114" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K114" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H115" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I115" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J115" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K115" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H116" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I116" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J116" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K116" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H117" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I117" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J117" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K117" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H118" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I118" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J118" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K118" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H119" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I119" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J119" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K119" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H120" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I120" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J120" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K120" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H121" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I121" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J121" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K121" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H122" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I122" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J122" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K122" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H123" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I123" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J123" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K123" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H124" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I124" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J124" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K124" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H125" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I125" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J125" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K125" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H126" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I126" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J126" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K126" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H127" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I127" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J127" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K127" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H128" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I128" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J128" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K128" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H129" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I129" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J129" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K129" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H130" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I130" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J130" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K130" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H131" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I131" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J131" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K131" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H132" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I132" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J132" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K132" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H133" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I133" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J133" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K133" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H134" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I134" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J134" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K134" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H135" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I135" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J135" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K135" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H136" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I136" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J136" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K136" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H137" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I137" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J137" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K137" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H138" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I138" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J138" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K138" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H139" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I139" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J139" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K139" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H140" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I140" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J140" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K140" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H141" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I141" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J141" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K141" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H142" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I142" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J142" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K142" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H143" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I143" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J143" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K143" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H144" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I144" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J144" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K144" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H145" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I145" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J145" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K145" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H146" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I146" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J146" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K146" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H147" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I147" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J147" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K147" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H148" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I148" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J148" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K148" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H149" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I149" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J149" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K149" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H150" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I150" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J150" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K150" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H151" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I151" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J151" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K151" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H152" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I152" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J152" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K152" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H153" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I153" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J153" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K153" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H154" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I154" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J154" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K154" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H155" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I155" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J155" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K155" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H156" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I156" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J156" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K156" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H157" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I157" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J157" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K157" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H158" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I158" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J158" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K158" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H159" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I159" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J159" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K159" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H160" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I160" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J160" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K160" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="161" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H161" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I161" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J161" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K161" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="162" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H162" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I162" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J162" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K162" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H163" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I163" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J163" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K163" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H164" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I164" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J164" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K164" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="165" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H165" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I165" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J165" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K165" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="166" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H166" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I166" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J166" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K166" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="167" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H167" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I167" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J167" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K167" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H168" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I168" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J168" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K168" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H169" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I169" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J169" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K169" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="170" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H170" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I170" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J170" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K170" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="171" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H171" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I171" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J171" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K171" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H172" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I172" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J172" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K172" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H173" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I173" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J173" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K173" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H174" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I174" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J174" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K174" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H175" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I175" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J175" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K175" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H176" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I176" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J176" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K176" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H177" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I177" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J177" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K177" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H178" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I178" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J178" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K178" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H179" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I179" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J179" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K179" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H180" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I180" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J180" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K180" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H181" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I181" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J181" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K181" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H182" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I182" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J182" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K182" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H183" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I183" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J183" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K183" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H184" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I184" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J184" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K184" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H185" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I185" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J185" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K185" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H186" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I186" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J186" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K186" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H187" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I187" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J187" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K187" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H188" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I188" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J188" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K188" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H189" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I189" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J189" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K189" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H190" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I190" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J190" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K190" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H191" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I191" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J191" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K191" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H192" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I192" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J192" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K192" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H193" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I193" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J193" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K193" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H194" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I194" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J194" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K194" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H195" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I195" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J195" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K195" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H196" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I196" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J196" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K196" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H197" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I197" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J197" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K197" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H198" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I198" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J198" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K198" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H199" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I199" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J199" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K199" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H200" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I200" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J200" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K200" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H201" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I201" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J201" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K201" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="202" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H202" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I202" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J202" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K202" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="203" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H203" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I203" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J203" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K203" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H204" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I204" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J204" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K204" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H205" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I205" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J205" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K205" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H206" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I206" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J206" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K206" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H207" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I207" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J207" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K207" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H208" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I208" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J208" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K208" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="209" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H209" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I209" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J209" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K209" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H210" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I210" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J210" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K210" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H211" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I211" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J211" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K211" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="212" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H212" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I212" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J212" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K212" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H213" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I213" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J213" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K213" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H214" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I214" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J214" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K214" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="215" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H215" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I215" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J215" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K215" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H216" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I216" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J216" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K216" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="217" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H217" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I217" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J217" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K217" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="218" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H218" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I218" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J218" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K218" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="219" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H219" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I219" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J219" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K219" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="220" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H220" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I220" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J220" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K220" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="221" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H221" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I221" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J221" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K221" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Qwack - LMEDateExample.xlsx
+++ b/examples/Qwack - LMEDateExample.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\qwack\qwack-master\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A751F6A-3588-478B-BEB5-355292E752C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curves" sheetId="1" r:id="rId1"/>
     <sheet name="CuSwaps" sheetId="2" r:id="rId2"/>
     <sheet name="XauOptions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -295,7 +296,7 @@
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
       <tp>
-        <v>1193.3499999999999</v>
+        <v>1204.32</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAU Curncy</stp>
@@ -306,7 +307,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>5896.5</v>
+        <v>5920</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20180919 LME Comdty</stp>
@@ -315,7 +316,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280920 LME Comdty</stp>
@@ -324,7 +325,7 @@
         <tr r="C126" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270915 LME Comdty</stp>
@@ -333,7 +334,7 @@
         <tr r="C114" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280816 LME Comdty</stp>
@@ -342,7 +343,7 @@
         <tr r="C125" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270421 LME Comdty</stp>
@@ -351,7 +352,7 @@
         <tr r="C109" s="1"/>
       </tp>
       <tp>
-        <v>2.27</v>
+        <v>2.34</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR3m Curncy</stp>
@@ -360,7 +361,7 @@
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260916 LME Comdty</stp>
@@ -369,7 +370,7 @@
         <tr r="C102" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270317 LME Comdty</stp>
@@ -378,7 +379,7 @@
         <tr r="C108" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280216 LME Comdty</stp>
@@ -387,7 +388,7 @@
         <tr r="C119" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270818 LME Comdty</stp>
@@ -396,7 +397,7 @@
         <tr r="C113" s="1"/>
       </tp>
       <tp>
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR1W Curncy</stp>
@@ -405,7 +406,7 @@
         <tr r="G30" s="1"/>
       </tp>
       <tp>
-        <v>2.2400000000000002</v>
+        <v>2.2799999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR2m Curncy</stp>
@@ -414,7 +415,7 @@
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280119 LME Comdty</stp>
@@ -423,7 +424,7 @@
         <tr r="C118" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260819 LME Comdty</stp>
@@ -432,7 +433,7 @@
         <tr r="C101" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20281115 LME Comdty</stp>
@@ -441,7 +442,7 @@
         <tr r="C128" s="1"/>
       </tp>
       <tp>
-        <v>2.15</v>
+        <v>2.2599999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR2W Curncy</stp>
@@ -450,7 +451,7 @@
         <tr r="G31" s="1"/>
       </tp>
       <tp>
-        <v>2.2200000000000002</v>
+        <v>2.2599999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR1m Curncy</stp>
@@ -459,7 +460,7 @@
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>2.4500000000000002</v>
+        <v>2.5299999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR6m Curncy</stp>
@@ -468,7 +469,7 @@
         <tr r="G35" s="1"/>
       </tp>
       <tp>
-        <v>5903.75</v>
+        <v>6114</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181123 LME Comdty</stp>
@@ -477,7 +478,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260715 LME Comdty</stp>
@@ -486,7 +487,7 @@
         <tr r="C100" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20281018 LME Comdty</stp>
@@ -495,7 +496,7 @@
         <tr r="C127" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271117 LME Comdty</stp>
@@ -504,7 +505,7 @@
         <tr r="C116" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261216 LME Comdty</stp>
@@ -513,7 +514,7 @@
         <tr r="C105" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270616 LME Comdty</stp>
@@ -522,7 +523,7 @@
         <tr r="C111" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280517 LME Comdty</stp>
@@ -531,7 +532,7 @@
         <tr r="C122" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270120 LME Comdty</stp>
@@ -540,7 +541,7 @@
         <tr r="C106" s="1"/>
       </tp>
       <tp>
-        <v>5906.75</v>
+        <v>6117</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181121 LME Comdty</stp>
@@ -549,7 +550,7 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271215 LME Comdty</stp>
@@ -558,7 +559,7 @@
         <tr r="C117" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270217 LME Comdty</stp>
@@ -567,7 +568,7 @@
         <tr r="C107" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280419 LME Comdty</stp>
@@ -576,7 +577,7 @@
         <tr r="C121" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261118 LME Comdty</stp>
@@ -585,7 +586,7 @@
         <tr r="C104" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270519 LME Comdty</stp>
@@ -594,7 +595,7 @@
         <tr r="C110" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20270721 LME Comdty</stp>
@@ -603,7 +604,7 @@
         <tr r="C112" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20271020 LME Comdty</stp>
@@ -612,7 +613,7 @@
         <tr r="C115" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280621 LME Comdty</stp>
@@ -621,7 +622,7 @@
         <tr r="C123" s="1"/>
       </tp>
       <tp>
-        <v>2.5499999999999998</v>
+        <v>2.56</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR9m Curncy</stp>
@@ -630,7 +631,7 @@
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>5910</v>
+        <v>6121</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181219 LME Comdty</stp>
@@ -639,7 +640,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280719 LME Comdty</stp>
@@ -648,7 +649,7 @@
         <tr r="C124" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20280315 LME Comdty</stp>
@@ -657,7 +658,7 @@
         <tr r="C120" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20261021 LME Comdty</stp>
@@ -666,7 +667,7 @@
         <tr r="C103" s="1"/>
       </tp>
       <tp>
-        <v>5902.25</v>
+        <v>6110</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20181017 LME Comdty</stp>
@@ -675,7 +676,7 @@
         <tr r="C6" s="1"/>
       </tp>
       <tp>
-        <v>2.8</v>
+        <v>2.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR2y Curncy</stp>
@@ -684,7 +685,7 @@
         <tr r="G38" s="1"/>
       </tp>
       <tp>
-        <v>11.25</v>
+        <v>11.29</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV18M Curncy</stp>
@@ -693,7 +694,7 @@
         <tr r="K39" s="1"/>
       </tp>
       <tp>
-        <v>9.4450000000000003</v>
+        <v>9.3350000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1W Curncy</stp>
@@ -702,7 +703,7 @@
         <tr r="K30" s="1"/>
       </tp>
       <tp>
-        <v>9.5474999999999994</v>
+        <v>9.02</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV3W Curncy</stp>
@@ -711,7 +712,7 @@
         <tr r="K32" s="1"/>
       </tp>
       <tp>
-        <v>9.26</v>
+        <v>9.1</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2W Curncy</stp>
@@ -720,7 +721,7 @@
         <tr r="K31" s="1"/>
       </tp>
       <tp>
-        <v>10.595000000000001</v>
+        <v>10.61</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1Y Curncy</stp>
@@ -729,7 +730,7 @@
         <tr r="K38" s="1"/>
       </tp>
       <tp>
-        <v>11.62</v>
+        <v>11.66</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2Y Curncy</stp>
@@ -738,7 +739,7 @@
         <tr r="K40" s="1"/>
       </tp>
       <tp>
-        <v>5891.5</v>
+        <v>6096.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADY Comdty</stp>
@@ -747,7 +748,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>6028.5</v>
+        <v>6207</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210915 LME Comdty</stp>
@@ -756,7 +757,7 @@
         <tr r="C42" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220720 LME Comdty</stp>
@@ -765,7 +766,7 @@
         <tr r="C52" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230517 LME Comdty</stp>
@@ -774,7 +775,7 @@
         <tr r="C62" s="1"/>
       </tp>
       <tp>
-        <v>5921.5</v>
+        <v>6128.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190320 LME Comdty</stp>
@@ -783,7 +784,7 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240320 LME Comdty</stp>
@@ -792,7 +793,7 @@
         <tr r="C72" s="1"/>
       </tp>
       <tp>
-        <v>6006</v>
+        <v>6188</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201216 LME Comdty</stp>
@@ -801,7 +802,7 @@
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251217 LME Comdty</stp>
@@ -810,7 +811,7 @@
         <tr r="C93" s="1"/>
       </tp>
       <tp>
-        <v>5966.75</v>
+        <v>6160.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200115 LME Comdty</stp>
@@ -819,7 +820,7 @@
         <tr r="C22" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250115 LME Comdty</stp>
@@ -828,7 +829,7 @@
         <tr r="C82" s="1"/>
       </tp>
       <tp>
-        <v>6031</v>
+        <v>6209</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211020 LME Comdty</stp>
@@ -837,7 +838,7 @@
         <tr r="C43" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220817 LME Comdty</stp>
@@ -846,7 +847,7 @@
         <tr r="C53" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230621 LME Comdty</stp>
@@ -855,7 +856,7 @@
         <tr r="C63" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240417 LME Comdty</stp>
@@ -864,7 +865,7 @@
         <tr r="C73" s="1"/>
       </tp>
       <tp>
-        <v>5926</v>
+        <v>6131.25</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190417 LME Comdty</stp>
@@ -873,7 +874,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250219 LME Comdty</stp>
@@ -882,7 +883,7 @@
         <tr r="C83" s="1"/>
       </tp>
       <tp>
-        <v>5970.5</v>
+        <v>6163</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200219 LME Comdty</stp>
@@ -891,7 +892,7 @@
         <tr r="C23" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251119 LME Comdty</stp>
@@ -900,7 +901,7 @@
         <tr r="C92" s="1"/>
       </tp>
       <tp>
-        <v>6002.5</v>
+        <v>6185.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201118 LME Comdty</stp>
@@ -909,7 +910,7 @@
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>5995.5</v>
+        <v>6180.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200916 LME Comdty</stp>
@@ -918,7 +919,7 @@
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250917 LME Comdty</stp>
@@ -927,7 +928,7 @@
         <tr r="C90" s="1"/>
       </tp>
       <tp>
-        <v>6023.5</v>
+        <v>6203</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210721 LME Comdty</stp>
@@ -936,7 +937,7 @@
         <tr r="C40" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220518 LME Comdty</stp>
@@ -945,7 +946,7 @@
         <tr r="C50" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230315 LME Comdty</stp>
@@ -954,7 +955,7 @@
         <tr r="C60" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241218 LME Comdty</stp>
@@ -963,7 +964,7 @@
         <tr r="C81" s="1"/>
       </tp>
       <tp>
-        <v>5963</v>
+        <v>6158</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191218 LME Comdty</stp>
@@ -972,7 +973,7 @@
         <tr r="C21" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240117 LME Comdty</stp>
@@ -981,7 +982,7 @@
         <tr r="C70" s="1"/>
       </tp>
       <tp>
-        <v>5913</v>
+        <v>6123</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190116 LME Comdty</stp>
@@ -990,7 +991,7 @@
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20251015 LME Comdty</stp>
@@ -999,7 +1000,7 @@
         <tr r="C91" s="1"/>
       </tp>
       <tp>
-        <v>5999</v>
+        <v>6183</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20201021 LME Comdty</stp>
@@ -1008,7 +1009,7 @@
         <tr r="C31" s="1"/>
       </tp>
       <tp>
-        <v>6026</v>
+        <v>6205</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210818 LME Comdty</stp>
@@ -1017,7 +1018,7 @@
         <tr r="C41" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220615 LME Comdty</stp>
@@ -1026,7 +1027,7 @@
         <tr r="C51" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230419 LME Comdty</stp>
@@ -1035,7 +1036,7 @@
         <tr r="C61" s="1"/>
       </tp>
       <tp>
-        <v>5917.25</v>
+        <v>6125.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190220 LME Comdty</stp>
@@ -1044,7 +1045,7 @@
         <tr r="C11" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240221 LME Comdty</stp>
@@ -1053,7 +1054,7 @@
         <tr r="C71" s="1"/>
       </tp>
       <tp>
-        <v>5958.25</v>
+        <v>6154.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191120 LME Comdty</stp>
@@ -1062,7 +1063,7 @@
         <tr r="C20" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241120 LME Comdty</stp>
@@ -1071,7 +1072,7 @@
         <tr r="C80" s="1"/>
       </tp>
       <tp>
-        <v>96.98</v>
+        <v>96.9</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU9 Comdty</stp>
@@ -1080,7 +1081,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230920 LME Comdty</stp>
@@ -1089,7 +1090,7 @@
         <tr r="C66" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240717 LME Comdty</stp>
@@ -1098,7 +1099,7 @@
         <tr r="C76" s="1"/>
       </tp>
       <tp>
-        <v>5939.5</v>
+        <v>6140.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190717 LME Comdty</stp>
@@ -1107,7 +1108,7 @@
         <tr r="C16" s="1"/>
       </tp>
       <tp>
-        <v>5981.5</v>
+        <v>6170.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200520 LME Comdty</stp>
@@ -1116,7 +1117,7 @@
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250521 LME Comdty</stp>
@@ -1125,7 +1126,7 @@
         <tr r="C86" s="1"/>
       </tp>
       <tp>
-        <v>6013.5</v>
+        <v>6195</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210317 LME Comdty</stp>
@@ -1134,7 +1135,7 @@
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260318 LME Comdty</stp>
@@ -1143,7 +1144,7 @@
         <tr r="C96" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221221 LME Comdty</stp>
@@ -1152,7 +1153,7 @@
         <tr r="C57" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220119 LME Comdty</stp>
@@ -1161,7 +1162,7 @@
         <tr r="C46" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231018 LME Comdty</stp>
@@ -1170,7 +1171,7 @@
         <tr r="C67" s="1"/>
       </tp>
       <tp>
-        <v>97.05</v>
+        <v>96.990000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM9 Comdty</stp>
@@ -1179,7 +1180,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>5944</v>
+        <v>6144.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190821 LME Comdty</stp>
@@ -1188,7 +1189,7 @@
         <tr r="C17" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240821 LME Comdty</stp>
@@ -1197,7 +1198,7 @@
         <tr r="C77" s="1"/>
       </tp>
       <tp>
-        <v>5985</v>
+        <v>6173</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200617 LME Comdty</stp>
@@ -1206,7 +1207,7 @@
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250618 LME Comdty</stp>
@@ -1215,7 +1216,7 @@
         <tr r="C87" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260415 LME Comdty</stp>
@@ -1224,7 +1225,7 @@
         <tr r="C97" s="1"/>
       </tp>
       <tp>
-        <v>6016</v>
+        <v>6197</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210421 LME Comdty</stp>
@@ -1233,7 +1234,7 @@
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220216 LME Comdty</stp>
@@ -1242,7 +1243,7 @@
         <tr r="C47" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221116 LME Comdty</stp>
@@ -1251,7 +1252,7 @@
         <tr r="C56" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220921 LME Comdty</stp>
@@ -1260,7 +1261,7 @@
         <tr r="C54" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230719 LME Comdty</stp>
@@ -1269,7 +1270,7 @@
         <tr r="C64" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240515 LME Comdty</stp>
@@ -1278,7 +1279,7 @@
         <tr r="C74" s="1"/>
       </tp>
       <tp>
-        <v>5930.5</v>
+        <v>6133.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190515 LME Comdty</stp>
@@ -1287,7 +1288,7 @@
         <tr r="C14" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250319 LME Comdty</stp>
@@ -1296,7 +1297,7 @@
         <tr r="C84" s="1"/>
       </tp>
       <tp>
-        <v>5974.25</v>
+        <v>6165.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200318 LME Comdty</stp>
@@ -1305,7 +1306,7 @@
         <tr r="C24" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211215 LME Comdty</stp>
@@ -1314,7 +1315,7 @@
         <tr r="C45" s="1"/>
       </tp>
       <tp>
-        <v>6008.5</v>
+        <v>6190.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210120 LME Comdty</stp>
@@ -1323,7 +1324,7 @@
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260121 LME Comdty</stp>
@@ -1332,7 +1333,7 @@
         <tr r="C94" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20221019 LME Comdty</stp>
@@ -1341,7 +1342,7 @@
         <tr r="C55" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230816 LME Comdty</stp>
@@ -1350,7 +1351,7 @@
         <tr r="C65" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240619 LME Comdty</stp>
@@ -1359,7 +1360,7 @@
         <tr r="C75" s="1"/>
       </tp>
       <tp>
-        <v>5935</v>
+        <v>6137</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190619 LME Comdty</stp>
@@ -1368,7 +1369,7 @@
         <tr r="C15" s="1"/>
       </tp>
       <tp>
-        <v>5978</v>
+        <v>6168</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200415 LME Comdty</stp>
@@ -1377,7 +1378,7 @@
         <tr r="C25" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250416 LME Comdty</stp>
@@ -1386,7 +1387,7 @@
         <tr r="C85" s="1"/>
       </tp>
       <tp>
-        <v>6011</v>
+        <v>6193</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210217 LME Comdty</stp>
@@ -1395,7 +1396,7 @@
         <tr r="C35" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260218 LME Comdty</stp>
@@ -1404,7 +1405,7 @@
         <tr r="C95" s="1"/>
       </tp>
       <tp>
-        <v>6033.5</v>
+        <v>6211</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20211117 LME Comdty</stp>
@@ -1413,7 +1414,7 @@
         <tr r="C44" s="1"/>
       </tp>
       <tp>
-        <v>97.647500000000008</v>
+        <v>96.575000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU8 Comdty</stp>
@@ -1422,7 +1423,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>97.174999999999997</v>
+        <v>97.15</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH9 Comdty</stp>
@@ -1431,7 +1432,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20240918 LME Comdty</stp>
@@ -1440,7 +1441,7 @@
         <tr r="C78" s="1"/>
       </tp>
       <tp>
-        <v>5948.75</v>
+        <v>6148</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20190918 LME Comdty</stp>
@@ -1449,7 +1450,7 @@
         <tr r="C18" s="1"/>
       </tp>
       <tp>
-        <v>5988.5</v>
+        <v>6175.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200715 LME Comdty</stp>
@@ -1458,7 +1459,7 @@
         <tr r="C28" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250716 LME Comdty</stp>
@@ -1467,7 +1468,7 @@
         <tr r="C88" s="1"/>
       </tp>
       <tp>
-        <v>6018.5</v>
+        <v>6199</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210519 LME Comdty</stp>
@@ -1476,7 +1477,7 @@
         <tr r="C38" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260520 LME Comdty</stp>
@@ -1485,7 +1486,7 @@
         <tr r="C98" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220316 LME Comdty</stp>
@@ -1494,7 +1495,7 @@
         <tr r="C48" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231220 LME Comdty</stp>
@@ -1503,7 +1504,7 @@
         <tr r="C69" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230118 LME Comdty</stp>
@@ -1512,7 +1513,7 @@
         <tr r="C58" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20241016 LME Comdty</stp>
@@ -1521,7 +1522,7 @@
         <tr r="C79" s="1"/>
       </tp>
       <tp>
-        <v>5953.5</v>
+        <v>6151.5</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20191016 LME Comdty</stp>
@@ -1530,7 +1531,7 @@
         <tr r="C19" s="1"/>
       </tp>
       <tp>
-        <v>97.34</v>
+        <v>97.325000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ8 Comdty</stp>
@@ -1539,7 +1540,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>5992</v>
+        <v>6178</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20200819 LME Comdty</stp>
@@ -1548,7 +1549,7 @@
         <tr r="C29" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20250820 LME Comdty</stp>
@@ -1557,7 +1558,7 @@
         <tr r="C89" s="1"/>
       </tp>
       <tp>
-        <v>6021</v>
+        <v>6201</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20210616 LME Comdty</stp>
@@ -1566,7 +1567,7 @@
         <tr r="C39" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20260617 LME Comdty</stp>
@@ -1575,7 +1576,7 @@
         <tr r="C99" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20220420 LME Comdty</stp>
@@ -1584,7 +1585,7 @@
         <tr r="C49" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20230215 LME Comdty</stp>
@@ -1593,7 +1594,7 @@
         <tr r="C59" s="1"/>
       </tp>
       <tp>
-        <v>6036</v>
+        <v>6213</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>LMCADP 20231115 LME Comdty</stp>
@@ -1602,7 +1603,7 @@
         <tr r="C68" s="1"/>
       </tp>
       <tp>
-        <v>10.315</v>
+        <v>10.335000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV9M Curncy</stp>
@@ -1611,7 +1612,7 @@
         <tr r="K37" s="1"/>
       </tp>
       <tp>
-        <v>9.8650000000000002</v>
+        <v>9.375</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV2M Curncy</stp>
@@ -1620,7 +1621,7 @@
         <tr r="K34" s="1"/>
       </tp>
       <tp>
-        <v>9.7899999999999991</v>
+        <v>9.6050000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV3M Curncy</stp>
@@ -1629,7 +1630,7 @@
         <tr r="K35" s="1"/>
       </tp>
       <tp>
-        <v>9.99</v>
+        <v>9.9149999999999991</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV6M Curncy</stp>
@@ -1638,7 +1639,7 @@
         <tr r="K36" s="1"/>
       </tp>
       <tp>
-        <v>9.6349999999999998</v>
+        <v>8.92</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDV1M Curncy</stp>
@@ -1647,7 +1648,7 @@
         <tr r="K33" s="1"/>
       </tp>
       <tp>
-        <v>11.845000000000001</v>
+        <v>9.8550000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUUSDVON Curncy</stp>
@@ -1656,7 +1657,7 @@
         <tr r="K29" s="1"/>
       </tp>
       <tp>
-        <v>96.98</v>
+        <v>96.855000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU1 Comdty</stp>
@@ -1665,7 +1666,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>96.975000000000009</v>
+        <v>96.844999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ1 Comdty</stp>
@@ -1674,7 +1675,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>96.945000000000007</v>
+        <v>96.825000000000003</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU0 Comdty</stp>
@@ -1683,7 +1684,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>96.975000000000009</v>
+        <v>96.850000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU2 Comdty</stp>
@@ -1692,7 +1693,7 @@
         <tr r="G21" s="1"/>
       </tp>
       <tp>
-        <v>96.94</v>
+        <v>96.835000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ9 Comdty</stp>
@@ -1701,7 +1702,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>2.64</v>
+        <v>2.7</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>XAUSR12m Curncy</stp>
@@ -1710,7 +1711,7 @@
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>96.965000000000003</v>
+        <v>96.835000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ2 Comdty</stp>
@@ -1719,7 +1720,7 @@
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>96.945000000000007</v>
+        <v>96.820000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ0 Comdty</stp>
@@ -1728,7 +1729,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>96.984999999999999</v>
+        <v>96.855000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH2 Comdty</stp>
@@ -1737,7 +1738,7 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>96.960000000000008</v>
+        <v>96.835000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH3 Comdty</stp>
@@ -1746,7 +1747,7 @@
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>96.975000000000009</v>
+        <v>96.850000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM1 Comdty</stp>
@@ -1755,7 +1756,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>96.95</v>
+        <v>96.820000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM3 Comdty</stp>
@@ -1764,7 +1765,7 @@
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>96.93</v>
+        <v>96.814999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH0 Comdty</stp>
@@ -1773,7 +1774,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>96.935000000000002</v>
+        <v>96.820000000000007</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM0 Comdty</stp>
@@ -1782,7 +1783,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>96.98</v>
+        <v>96.855000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM2 Comdty</stp>
@@ -1791,7 +1792,7 @@
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>96.965000000000003</v>
+        <v>96.84</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH1 Comdty</stp>
@@ -2100,11 +2101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2202,7 @@
       </c>
       <c r="C4" s="3">
         <f>_xll.BDP(A4&amp;" Comdty","PX_SETTLE")</f>
-        <v>5891.5</v>
+        <v>6096.5</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2211,7 +2212,7 @@
       </c>
       <c r="M4" t="str">
         <f>_xll.QCurves_CreateAssetFxModel(L4,B1,I1:I2,K27,I3)</f>
-        <v>AssetModel¬1</v>
+        <v>AssetModel¬3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2225,7 +2226,7 @@
       </c>
       <c r="C5" s="3">
         <f>_xll.BDP(A5&amp;" Comdty","PX_SETTLE")</f>
-        <v>5896.5</v>
+        <v>5920</v>
       </c>
       <c r="D5" t="str">
         <f>IF(B5=$F$1,"3m",TEXT(B5,"mmmyy"))</f>
@@ -2237,7 +2238,7 @@
       </c>
       <c r="G5">
         <f>_xll.BDP(F5&amp;" Comdty","PX_LAST")</f>
-        <v>97.647500000000008</v>
+        <v>96.575000000000003</v>
       </c>
       <c r="H5" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F5,$B$1,F5,$M$1,G5,1,0,"USD.LIBOR.3M")</f>
@@ -2255,7 +2256,7 @@
       </c>
       <c r="C6" s="3">
         <f>_xll.BDP(A6&amp;" Comdty","PX_SETTLE")</f>
-        <v>5902.25</v>
+        <v>6110</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D69" si="1">IF(B6=$F$1,"3m",TEXT(B6,"mmmyy"))</f>
@@ -2267,7 +2268,7 @@
       </c>
       <c r="G6">
         <f>_xll.BDP(F6&amp;" Comdty","PX_LAST")</f>
-        <v>97.34</v>
+        <v>97.325000000000003</v>
       </c>
       <c r="H6" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F6,$B$1,F6,$M$1,G6,1,0,"USD.LIBOR.3M")</f>
@@ -2285,7 +2286,7 @@
       </c>
       <c r="C7" s="3">
         <f>_xll.BDP(A7&amp;" Comdty","PX_SETTLE")</f>
-        <v>5906.75</v>
+        <v>6117</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -2297,7 +2298,7 @@
       </c>
       <c r="G7">
         <f>_xll.BDP(F7&amp;" Comdty","PX_LAST")</f>
-        <v>97.174999999999997</v>
+        <v>97.15</v>
       </c>
       <c r="H7" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F7,$B$1,F7,$M$1,G7,1,0,"USD.LIBOR.3M")</f>
@@ -2315,7 +2316,7 @@
       </c>
       <c r="C8" s="3">
         <f>_xll.BDP(A8&amp;" Comdty","PX_SETTLE")</f>
-        <v>5903.75</v>
+        <v>6114</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -2327,7 +2328,7 @@
       </c>
       <c r="G8">
         <f>_xll.BDP(F8&amp;" Comdty","PX_LAST")</f>
-        <v>97.05</v>
+        <v>96.990000000000009</v>
       </c>
       <c r="H8" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F8,$B$1,F8,$M$1,G8,1,0,"USD.LIBOR.3M")</f>
@@ -2345,7 +2346,7 @@
       </c>
       <c r="C9" s="3">
         <f>_xll.BDP(A9&amp;" Comdty","PX_SETTLE")</f>
-        <v>5910</v>
+        <v>6121</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -2357,7 +2358,7 @@
       </c>
       <c r="G9">
         <f>_xll.BDP(F9&amp;" Comdty","PX_LAST")</f>
-        <v>96.98</v>
+        <v>96.9</v>
       </c>
       <c r="H9" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F9,$B$1,F9,$M$1,G9,1,0,"USD.LIBOR.3M")</f>
@@ -2375,7 +2376,7 @@
       </c>
       <c r="C10" s="3">
         <f>_xll.BDP(A10&amp;" Comdty","PX_SETTLE")</f>
-        <v>5913</v>
+        <v>6123</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -2387,7 +2388,7 @@
       </c>
       <c r="G10">
         <f>_xll.BDP(F10&amp;" Comdty","PX_LAST")</f>
-        <v>96.94</v>
+        <v>96.835000000000008</v>
       </c>
       <c r="H10" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F10,$B$1,F10,$M$1,G10,1,0,"USD.LIBOR.3M")</f>
@@ -2405,7 +2406,7 @@
       </c>
       <c r="C11" s="3">
         <f>_xll.BDP(A11&amp;" Comdty","PX_SETTLE")</f>
-        <v>5917.25</v>
+        <v>6125.75</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -2417,7 +2418,7 @@
       </c>
       <c r="G11">
         <f>_xll.BDP(F11&amp;" Comdty","PX_LAST")</f>
-        <v>96.93</v>
+        <v>96.814999999999998</v>
       </c>
       <c r="H11" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F11,$B$1,F11,$M$1,G11,1,0,"USD.LIBOR.3M")</f>
@@ -2435,7 +2436,7 @@
       </c>
       <c r="C12" s="3">
         <f>_xll.BDP(A12&amp;" Comdty","PX_SETTLE")</f>
-        <v>5921.5</v>
+        <v>6128.5</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -2447,7 +2448,7 @@
       </c>
       <c r="G12">
         <f>_xll.BDP(F12&amp;" Comdty","PX_LAST")</f>
-        <v>96.935000000000002</v>
+        <v>96.820000000000007</v>
       </c>
       <c r="H12" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F12,$B$1,F12,$M$1,G12,1,0,"USD.LIBOR.3M")</f>
@@ -2465,7 +2466,7 @@
       </c>
       <c r="C13" s="3">
         <f>_xll.BDP(A13&amp;" Comdty","PX_SETTLE")</f>
-        <v>5926</v>
+        <v>6131.25</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -2477,7 +2478,7 @@
       </c>
       <c r="G13">
         <f>_xll.BDP(F13&amp;" Comdty","PX_LAST")</f>
-        <v>96.945000000000007</v>
+        <v>96.825000000000003</v>
       </c>
       <c r="H13" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F13,$B$1,F13,$M$1,G13,1,0,"USD.LIBOR.3M")</f>
@@ -2495,7 +2496,7 @@
       </c>
       <c r="C14" s="3">
         <f>_xll.BDP(A14&amp;" Comdty","PX_SETTLE")</f>
-        <v>5930.5</v>
+        <v>6133.75</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -2507,7 +2508,7 @@
       </c>
       <c r="G14">
         <f>_xll.BDP(F14&amp;" Comdty","PX_LAST")</f>
-        <v>96.945000000000007</v>
+        <v>96.820000000000007</v>
       </c>
       <c r="H14" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F14,$B$1,F14,$M$1,G14,1,0,"USD.LIBOR.3M")</f>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="C15" s="3">
         <f>_xll.BDP(A15&amp;" Comdty","PX_SETTLE")</f>
-        <v>5935</v>
+        <v>6137</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -2537,7 +2538,7 @@
       </c>
       <c r="G15">
         <f>_xll.BDP(F15&amp;" Comdty","PX_LAST")</f>
-        <v>96.965000000000003</v>
+        <v>96.84</v>
       </c>
       <c r="H15" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F15,$B$1,F15,$M$1,G15,1,0,"USD.LIBOR.3M")</f>
@@ -2555,7 +2556,7 @@
       </c>
       <c r="C16" s="3">
         <f>_xll.BDP(A16&amp;" Comdty","PX_SETTLE")</f>
-        <v>5939.5</v>
+        <v>6140.75</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -2567,7 +2568,7 @@
       </c>
       <c r="G16">
         <f>_xll.BDP(F16&amp;" Comdty","PX_LAST")</f>
-        <v>96.975000000000009</v>
+        <v>96.850000000000009</v>
       </c>
       <c r="H16" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F16,$B$1,F16,$M$1,G16,1,0,"USD.LIBOR.3M")</f>
@@ -2585,7 +2586,7 @@
       </c>
       <c r="C17" s="3">
         <f>_xll.BDP(A17&amp;" Comdty","PX_SETTLE")</f>
-        <v>5944</v>
+        <v>6144.5</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -2597,7 +2598,7 @@
       </c>
       <c r="G17">
         <f>_xll.BDP(F17&amp;" Comdty","PX_LAST")</f>
-        <v>96.98</v>
+        <v>96.855000000000004</v>
       </c>
       <c r="H17" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F17,$B$1,F17,$M$1,G17,1,0,"USD.LIBOR.3M")</f>
@@ -2615,7 +2616,7 @@
       </c>
       <c r="C18" s="3">
         <f>_xll.BDP(A18&amp;" Comdty","PX_SETTLE")</f>
-        <v>5948.75</v>
+        <v>6148</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -2627,7 +2628,7 @@
       </c>
       <c r="G18">
         <f>_xll.BDP(F18&amp;" Comdty","PX_LAST")</f>
-        <v>96.975000000000009</v>
+        <v>96.844999999999999</v>
       </c>
       <c r="H18" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F18,$B$1,F18,$M$1,G18,1,0,"USD.LIBOR.3M")</f>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="C19" s="3">
         <f>_xll.BDP(A19&amp;" Comdty","PX_SETTLE")</f>
-        <v>5953.5</v>
+        <v>6151.5</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -2657,7 +2658,7 @@
       </c>
       <c r="G19">
         <f>_xll.BDP(F19&amp;" Comdty","PX_LAST")</f>
-        <v>96.984999999999999</v>
+        <v>96.855000000000004</v>
       </c>
       <c r="H19" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F19,$B$1,F19,$M$1,G19,1,0,"USD.LIBOR.3M")</f>
@@ -2675,7 +2676,7 @@
       </c>
       <c r="C20" s="3">
         <f>_xll.BDP(A20&amp;" Comdty","PX_SETTLE")</f>
-        <v>5958.25</v>
+        <v>6154.75</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -2687,7 +2688,7 @@
       </c>
       <c r="G20">
         <f>_xll.BDP(F20&amp;" Comdty","PX_LAST")</f>
-        <v>96.98</v>
+        <v>96.855000000000004</v>
       </c>
       <c r="H20" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F20,$B$1,F20,$M$1,G20,1,0,"USD.LIBOR.3M")</f>
@@ -2705,7 +2706,7 @@
       </c>
       <c r="C21" s="3">
         <f>_xll.BDP(A21&amp;" Comdty","PX_SETTLE")</f>
-        <v>5963</v>
+        <v>6158</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -2717,7 +2718,7 @@
       </c>
       <c r="G21">
         <f>_xll.BDP(F21&amp;" Comdty","PX_LAST")</f>
-        <v>96.975000000000009</v>
+        <v>96.850000000000009</v>
       </c>
       <c r="H21" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F21,$B$1,F21,$M$1,G21,1,0,"USD.LIBOR.3M")</f>
@@ -2735,7 +2736,7 @@
       </c>
       <c r="C22" s="3">
         <f>_xll.BDP(A22&amp;" Comdty","PX_SETTLE")</f>
-        <v>5966.75</v>
+        <v>6160.5</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -2747,7 +2748,7 @@
       </c>
       <c r="G22">
         <f>_xll.BDP(F22&amp;" Comdty","PX_LAST")</f>
-        <v>96.965000000000003</v>
+        <v>96.835000000000008</v>
       </c>
       <c r="H22" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F22,$B$1,F22,$M$1,G22,1,0,"USD.LIBOR.3M")</f>
@@ -2765,7 +2766,7 @@
       </c>
       <c r="C23" s="3">
         <f>_xll.BDP(A23&amp;" Comdty","PX_SETTLE")</f>
-        <v>5970.5</v>
+        <v>6163</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -2777,7 +2778,7 @@
       </c>
       <c r="G23">
         <f>_xll.BDP(F23&amp;" Comdty","PX_LAST")</f>
-        <v>96.960000000000008</v>
+        <v>96.835000000000008</v>
       </c>
       <c r="H23" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F23,$B$1,F23,$M$1,G23,1,0,"USD.LIBOR.3M")</f>
@@ -2795,7 +2796,7 @@
       </c>
       <c r="C24" s="3">
         <f>_xll.BDP(A24&amp;" Comdty","PX_SETTLE")</f>
-        <v>5974.25</v>
+        <v>6165.5</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -2807,7 +2808,7 @@
       </c>
       <c r="G24">
         <f>_xll.BDP(F24&amp;" Comdty","PX_LAST")</f>
-        <v>96.95</v>
+        <v>96.820000000000007</v>
       </c>
       <c r="H24" t="str">
         <f>_xll.QIns_CreateSTIRFromCode(F24,$B$1,F24,$M$1,G24,1,0,"USD.LIBOR.3M")</f>
@@ -2825,7 +2826,7 @@
       </c>
       <c r="C25" s="3">
         <f>_xll.BDP(A25&amp;" Comdty","PX_SETTLE")</f>
-        <v>5978</v>
+        <v>6168</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -2843,7 +2844,7 @@
       </c>
       <c r="C26" s="3">
         <f>_xll.BDP(A26&amp;" Comdty","PX_SETTLE")</f>
-        <v>5981.5</v>
+        <v>6170.5</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -2868,7 +2869,7 @@
       </c>
       <c r="C27" s="3">
         <f>_xll.BDP(A27&amp;" Comdty","PX_SETTLE")</f>
-        <v>5985</v>
+        <v>6173</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -2878,8 +2879,8 @@
         <v>54</v>
       </c>
       <c r="K27" t="str">
-        <f>_xll.QVol_CreateGridVolSurface("XAU",B1,0.5,L29:L40,K29:K40,"ForwardDelta","Linear","LinearInVariance","Act365F",J29:J40,"USD")</f>
-        <v>XAU¬1</v>
+        <f>_xll.QVol_CreateGridVolSurface("XAUSurface","XAU",B1,0.5,L29:L40,K29:K40,"ForwardDelta","Linear","LinearInVariance","Act365F",J29:J40,"USD")</f>
+        <v>XAUSurface¬2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2893,7 +2894,7 @@
       </c>
       <c r="C28" s="3">
         <f>_xll.BDP(A28&amp;" Comdty","PX_SETTLE")</f>
-        <v>5988.5</v>
+        <v>6175.5</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -2911,7 +2912,7 @@
       </c>
       <c r="C29" s="3">
         <f>_xll.BDP(A29&amp;" Comdty","PX_SETTLE")</f>
-        <v>5992</v>
+        <v>6178</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -2922,14 +2923,14 @@
       </c>
       <c r="G29" s="3">
         <f>_xll.BDP("XAU Curncy","PX_Last")</f>
-        <v>1193.3499999999999</v>
+        <v>1204.32</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J29&amp;" Curncy","PX_Last")/100</f>
-        <v>0.11845</v>
+        <v>9.8549999999999999E-2</v>
       </c>
       <c r="L29" s="2">
         <f>_xll.QDates_AddPeriod($B$2,"1b","F","NYC+LON")</f>
@@ -2947,7 +2948,7 @@
       </c>
       <c r="C30" s="3">
         <f>_xll.BDP(A30&amp;" Comdty","PX_SETTLE")</f>
-        <v>5995.5</v>
+        <v>6180.5</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -2958,7 +2959,7 @@
       </c>
       <c r="G30" s="7">
         <f>_xll.BDP("XAUSR"&amp;F30&amp;" Curncy","PX_Last")/100</f>
-        <v>2.1000000000000001E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="H30" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F30,"F","NYC+LON")</f>
@@ -2969,7 +2970,7 @@
       </c>
       <c r="K30" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J30&amp;" Curncy","PX_Last")/100</f>
-        <v>9.4450000000000006E-2</v>
+        <v>9.3350000000000002E-2</v>
       </c>
       <c r="L30" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J30,"F","NYC+LON")</f>
@@ -2987,7 +2988,7 @@
       </c>
       <c r="C31" s="3">
         <f>_xll.BDP(A31&amp;" Comdty","PX_SETTLE")</f>
-        <v>5999</v>
+        <v>6183</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -2998,7 +2999,7 @@
       </c>
       <c r="G31" s="7">
         <f>_xll.BDP("XAUSR"&amp;F31&amp;" Curncy","PX_Last")/100</f>
-        <v>2.1499999999999998E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="H31" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F31,"F","NYC+LON")</f>
@@ -3009,7 +3010,7 @@
       </c>
       <c r="K31" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J31&amp;" Curncy","PX_Last")/100</f>
-        <v>9.2600000000000002E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L31" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J31,"F","NYC+LON")</f>
@@ -3027,7 +3028,7 @@
       </c>
       <c r="C32" s="3">
         <f>_xll.BDP(A32&amp;" Comdty","PX_SETTLE")</f>
-        <v>6002.5</v>
+        <v>6185.5</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -3038,7 +3039,7 @@
       </c>
       <c r="G32" s="7">
         <f>_xll.BDP("XAUSR"&amp;F32&amp;" Curncy","PX_Last")/100</f>
-        <v>2.2200000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="H32" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F32,"F","NYC+LON")</f>
@@ -3049,7 +3050,7 @@
       </c>
       <c r="K32" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J32&amp;" Curncy","PX_Last")/100</f>
-        <v>9.547499999999999E-2</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="L32" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J32,"F","NYC+LON")</f>
@@ -3067,7 +3068,7 @@
       </c>
       <c r="C33" s="3">
         <f>_xll.BDP(A33&amp;" Comdty","PX_SETTLE")</f>
-        <v>6006</v>
+        <v>6188</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -3078,7 +3079,7 @@
       </c>
       <c r="G33" s="7">
         <f>_xll.BDP("XAUSR"&amp;F33&amp;" Curncy","PX_Last")/100</f>
-        <v>2.2400000000000003E-2</v>
+        <v>2.2799999999999997E-2</v>
       </c>
       <c r="H33" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F33,"F","NYC+LON")</f>
@@ -3089,7 +3090,7 @@
       </c>
       <c r="K33" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J33&amp;" Curncy","PX_Last")/100</f>
-        <v>9.6349999999999991E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="L33" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J33,"F","NYC+LON")</f>
@@ -3107,7 +3108,7 @@
       </c>
       <c r="C34" s="3">
         <f>_xll.BDP(A34&amp;" Comdty","PX_SETTLE")</f>
-        <v>6008.5</v>
+        <v>6190.5</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -3118,7 +3119,7 @@
       </c>
       <c r="G34" s="7">
         <f>_xll.BDP("XAUSR"&amp;F34&amp;" Curncy","PX_Last")/100</f>
-        <v>2.2700000000000001E-2</v>
+        <v>2.3399999999999997E-2</v>
       </c>
       <c r="H34" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F34,"F","NYC+LON")</f>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="K34" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J34&amp;" Curncy","PX_Last")/100</f>
-        <v>9.8650000000000002E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="L34" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J34,"F","NYC+LON")</f>
@@ -3147,7 +3148,7 @@
       </c>
       <c r="C35" s="3">
         <f>_xll.BDP(A35&amp;" Comdty","PX_SETTLE")</f>
-        <v>6011</v>
+        <v>6193</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -3158,7 +3159,7 @@
       </c>
       <c r="G35" s="7">
         <f>_xll.BDP("XAUSR"&amp;F35&amp;" Curncy","PX_Last")/100</f>
-        <v>2.4500000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="H35" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F35,"F","NYC+LON")</f>
@@ -3169,7 +3170,7 @@
       </c>
       <c r="K35" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J35&amp;" Curncy","PX_Last")/100</f>
-        <v>9.7899999999999987E-2</v>
+        <v>9.605000000000001E-2</v>
       </c>
       <c r="L35" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J35,"F","NYC+LON")</f>
@@ -3187,7 +3188,7 @@
       </c>
       <c r="C36" s="3">
         <f>_xll.BDP(A36&amp;" Comdty","PX_SETTLE")</f>
-        <v>6013.5</v>
+        <v>6195</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -3198,7 +3199,7 @@
       </c>
       <c r="G36" s="7">
         <f>_xll.BDP("XAUSR"&amp;F36&amp;" Curncy","PX_Last")/100</f>
-        <v>2.5499999999999998E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="H36" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F36,"F","NYC+LON")</f>
@@ -3209,7 +3210,7 @@
       </c>
       <c r="K36" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J36&amp;" Curncy","PX_Last")/100</f>
-        <v>9.9900000000000003E-2</v>
+        <v>9.9149999999999988E-2</v>
       </c>
       <c r="L36" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J36,"F","NYC+LON")</f>
@@ -3227,7 +3228,7 @@
       </c>
       <c r="C37" s="3">
         <f>_xll.BDP(A37&amp;" Comdty","PX_SETTLE")</f>
-        <v>6016</v>
+        <v>6197</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="G37" s="7">
         <f>_xll.BDP("XAUSR"&amp;F37&amp;" Curncy","PX_Last")/100</f>
-        <v>2.64E-2</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="H37" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F37,"F","NYC+LON")</f>
@@ -3249,7 +3250,7 @@
       </c>
       <c r="K37" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J37&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10314999999999999</v>
+        <v>0.10335000000000001</v>
       </c>
       <c r="L37" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J37,"F","NYC+LON")</f>
@@ -3267,7 +3268,7 @@
       </c>
       <c r="C38" s="3">
         <f>_xll.BDP(A38&amp;" Comdty","PX_SETTLE")</f>
-        <v>6018.5</v>
+        <v>6199</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
@@ -3278,7 +3279,7 @@
       </c>
       <c r="G38" s="7">
         <f>_xll.BDP("XAUSR"&amp;F38&amp;" Curncy","PX_Last")/100</f>
-        <v>2.7999999999999997E-2</v>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="H38" s="2">
         <f>_xll.QDates_AddPeriod($B$2,F38,"F","NYC+LON")</f>
@@ -3289,7 +3290,7 @@
       </c>
       <c r="K38" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J38&amp;" Curncy","PX_Last")/100</f>
-        <v>0.10595</v>
+        <v>0.1061</v>
       </c>
       <c r="L38" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J38,"F","NYC+LON")</f>
@@ -3307,7 +3308,7 @@
       </c>
       <c r="C39" s="3">
         <f>_xll.BDP(A39&amp;" Comdty","PX_SETTLE")</f>
-        <v>6021</v>
+        <v>6201</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
@@ -3318,7 +3319,7 @@
       </c>
       <c r="K39" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J39&amp;" Curncy","PX_Last")/100</f>
-        <v>0.1125</v>
+        <v>0.11289999999999999</v>
       </c>
       <c r="L39" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J39,"F","NYC+LON")</f>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="C40" s="3">
         <f>_xll.BDP(A40&amp;" Comdty","PX_SETTLE")</f>
-        <v>6023.5</v>
+        <v>6203</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
@@ -3347,7 +3348,7 @@
       </c>
       <c r="K40" s="7">
         <f>_xll.BDP("XAUUSDV"&amp;J40&amp;" Curncy","PX_Last")/100</f>
-        <v>0.1162</v>
+        <v>0.1166</v>
       </c>
       <c r="L40" s="2">
         <f>_xll.QDates_AddPeriod($B$2,J40,"F","NYC+LON")</f>
@@ -3365,7 +3366,7 @@
       </c>
       <c r="C41" s="3">
         <f>_xll.BDP(A41&amp;" Comdty","PX_SETTLE")</f>
-        <v>6026</v>
+        <v>6205</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -3383,7 +3384,7 @@
       </c>
       <c r="C42" s="3">
         <f>_xll.BDP(A42&amp;" Comdty","PX_SETTLE")</f>
-        <v>6028.5</v>
+        <v>6207</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
@@ -3401,7 +3402,7 @@
       </c>
       <c r="C43" s="3">
         <f>_xll.BDP(A43&amp;" Comdty","PX_SETTLE")</f>
-        <v>6031</v>
+        <v>6209</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
@@ -3419,7 +3420,7 @@
       </c>
       <c r="C44" s="3">
         <f>_xll.BDP(A44&amp;" Comdty","PX_SETTLE")</f>
-        <v>6033.5</v>
+        <v>6211</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
@@ -3437,7 +3438,7 @@
       </c>
       <c r="C45" s="3">
         <f>_xll.BDP(A45&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
@@ -3455,7 +3456,7 @@
       </c>
       <c r="C46" s="3">
         <f>_xll.BDP(A46&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
@@ -3473,7 +3474,7 @@
       </c>
       <c r="C47" s="3">
         <f>_xll.BDP(A47&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
@@ -3491,7 +3492,7 @@
       </c>
       <c r="C48" s="3">
         <f>_xll.BDP(A48&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
@@ -3509,7 +3510,7 @@
       </c>
       <c r="C49" s="3">
         <f>_xll.BDP(A49&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
@@ -3527,7 +3528,7 @@
       </c>
       <c r="C50" s="3">
         <f>_xll.BDP(A50&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
@@ -3545,7 +3546,7 @@
       </c>
       <c r="C51" s="3">
         <f>_xll.BDP(A51&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
@@ -3563,7 +3564,7 @@
       </c>
       <c r="C52" s="3">
         <f>_xll.BDP(A52&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
@@ -3581,7 +3582,7 @@
       </c>
       <c r="C53" s="3">
         <f>_xll.BDP(A53&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -3599,7 +3600,7 @@
       </c>
       <c r="C54" s="3">
         <f>_xll.BDP(A54&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -3617,7 +3618,7 @@
       </c>
       <c r="C55" s="3">
         <f>_xll.BDP(A55&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
@@ -3635,7 +3636,7 @@
       </c>
       <c r="C56" s="3">
         <f>_xll.BDP(A56&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
@@ -3653,7 +3654,7 @@
       </c>
       <c r="C57" s="3">
         <f>_xll.BDP(A57&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
@@ -3671,7 +3672,7 @@
       </c>
       <c r="C58" s="3">
         <f>_xll.BDP(A58&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
@@ -3689,7 +3690,7 @@
       </c>
       <c r="C59" s="3">
         <f>_xll.BDP(A59&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
@@ -3707,7 +3708,7 @@
       </c>
       <c r="C60" s="3">
         <f>_xll.BDP(A60&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
@@ -3725,7 +3726,7 @@
       </c>
       <c r="C61" s="3">
         <f>_xll.BDP(A61&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
@@ -3743,7 +3744,7 @@
       </c>
       <c r="C62" s="3">
         <f>_xll.BDP(A62&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
@@ -3761,7 +3762,7 @@
       </c>
       <c r="C63" s="3">
         <f>_xll.BDP(A63&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
@@ -3779,7 +3780,7 @@
       </c>
       <c r="C64" s="3">
         <f>_xll.BDP(A64&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
@@ -3797,7 +3798,7 @@
       </c>
       <c r="C65" s="3">
         <f>_xll.BDP(A65&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
@@ -3815,7 +3816,7 @@
       </c>
       <c r="C66" s="3">
         <f>_xll.BDP(A66&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
@@ -3833,7 +3834,7 @@
       </c>
       <c r="C67" s="3">
         <f>_xll.BDP(A67&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -3851,7 +3852,7 @@
       </c>
       <c r="C68" s="3">
         <f>_xll.BDP(A68&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -3869,7 +3870,7 @@
       </c>
       <c r="C69" s="3">
         <f>_xll.BDP(A69&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -3887,7 +3888,7 @@
       </c>
       <c r="C70" s="3">
         <f>_xll.BDP(A70&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ref="D70:D128" si="4">IF(B70=$F$1,"3m",TEXT(B70,"mmmyy"))</f>
@@ -3905,7 +3906,7 @@
       </c>
       <c r="C71" s="3">
         <f>_xll.BDP(A71&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="4"/>
@@ -3923,7 +3924,7 @@
       </c>
       <c r="C72" s="3">
         <f>_xll.BDP(A72&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="4"/>
@@ -3941,7 +3942,7 @@
       </c>
       <c r="C73" s="3">
         <f>_xll.BDP(A73&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="4"/>
@@ -3959,7 +3960,7 @@
       </c>
       <c r="C74" s="3">
         <f>_xll.BDP(A74&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="4"/>
@@ -3977,7 +3978,7 @@
       </c>
       <c r="C75" s="3">
         <f>_xll.BDP(A75&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="4"/>
@@ -3995,7 +3996,7 @@
       </c>
       <c r="C76" s="3">
         <f>_xll.BDP(A76&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="4"/>
@@ -4013,7 +4014,7 @@
       </c>
       <c r="C77" s="3">
         <f>_xll.BDP(A77&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="4"/>
@@ -4031,7 +4032,7 @@
       </c>
       <c r="C78" s="3">
         <f>_xll.BDP(A78&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="4"/>
@@ -4049,7 +4050,7 @@
       </c>
       <c r="C79" s="3">
         <f>_xll.BDP(A79&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="4"/>
@@ -4067,7 +4068,7 @@
       </c>
       <c r="C80" s="3">
         <f>_xll.BDP(A80&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="4"/>
@@ -4085,7 +4086,7 @@
       </c>
       <c r="C81" s="3">
         <f>_xll.BDP(A81&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="4"/>
@@ -4103,7 +4104,7 @@
       </c>
       <c r="C82" s="3">
         <f>_xll.BDP(A82&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="4"/>
@@ -4121,7 +4122,7 @@
       </c>
       <c r="C83" s="3">
         <f>_xll.BDP(A83&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="4"/>
@@ -4139,7 +4140,7 @@
       </c>
       <c r="C84" s="3">
         <f>_xll.BDP(A84&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="4"/>
@@ -4157,7 +4158,7 @@
       </c>
       <c r="C85" s="3">
         <f>_xll.BDP(A85&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="4"/>
@@ -4175,7 +4176,7 @@
       </c>
       <c r="C86" s="3">
         <f>_xll.BDP(A86&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="4"/>
@@ -4193,7 +4194,7 @@
       </c>
       <c r="C87" s="3">
         <f>_xll.BDP(A87&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="4"/>
@@ -4211,7 +4212,7 @@
       </c>
       <c r="C88" s="3">
         <f>_xll.BDP(A88&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="4"/>
@@ -4229,7 +4230,7 @@
       </c>
       <c r="C89" s="3">
         <f>_xll.BDP(A89&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="4"/>
@@ -4247,7 +4248,7 @@
       </c>
       <c r="C90" s="3">
         <f>_xll.BDP(A90&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="4"/>
@@ -4265,7 +4266,7 @@
       </c>
       <c r="C91" s="3">
         <f>_xll.BDP(A91&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="4"/>
@@ -4283,7 +4284,7 @@
       </c>
       <c r="C92" s="3">
         <f>_xll.BDP(A92&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="4"/>
@@ -4301,7 +4302,7 @@
       </c>
       <c r="C93" s="3">
         <f>_xll.BDP(A93&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="4"/>
@@ -4319,7 +4320,7 @@
       </c>
       <c r="C94" s="3">
         <f>_xll.BDP(A94&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="4"/>
@@ -4337,7 +4338,7 @@
       </c>
       <c r="C95" s="3">
         <f>_xll.BDP(A95&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="4"/>
@@ -4355,7 +4356,7 @@
       </c>
       <c r="C96" s="3">
         <f>_xll.BDP(A96&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="4"/>
@@ -4373,7 +4374,7 @@
       </c>
       <c r="C97" s="3">
         <f>_xll.BDP(A97&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="4"/>
@@ -4391,7 +4392,7 @@
       </c>
       <c r="C98" s="3">
         <f>_xll.BDP(A98&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
@@ -4409,7 +4410,7 @@
       </c>
       <c r="C99" s="3">
         <f>_xll.BDP(A99&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="4"/>
@@ -4427,7 +4428,7 @@
       </c>
       <c r="C100" s="3">
         <f>_xll.BDP(A100&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="4"/>
@@ -4445,7 +4446,7 @@
       </c>
       <c r="C101" s="3">
         <f>_xll.BDP(A101&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="4"/>
@@ -4463,7 +4464,7 @@
       </c>
       <c r="C102" s="3">
         <f>_xll.BDP(A102&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
@@ -4481,7 +4482,7 @@
       </c>
       <c r="C103" s="3">
         <f>_xll.BDP(A103&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="4"/>
@@ -4499,7 +4500,7 @@
       </c>
       <c r="C104" s="3">
         <f>_xll.BDP(A104&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="4"/>
@@ -4517,7 +4518,7 @@
       </c>
       <c r="C105" s="3">
         <f>_xll.BDP(A105&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="4"/>
@@ -4535,7 +4536,7 @@
       </c>
       <c r="C106" s="3">
         <f>_xll.BDP(A106&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="4"/>
@@ -4553,7 +4554,7 @@
       </c>
       <c r="C107" s="3">
         <f>_xll.BDP(A107&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="4"/>
@@ -4571,7 +4572,7 @@
       </c>
       <c r="C108" s="3">
         <f>_xll.BDP(A108&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="4"/>
@@ -4589,7 +4590,7 @@
       </c>
       <c r="C109" s="3">
         <f>_xll.BDP(A109&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="4"/>
@@ -4607,7 +4608,7 @@
       </c>
       <c r="C110" s="3">
         <f>_xll.BDP(A110&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="4"/>
@@ -4625,7 +4626,7 @@
       </c>
       <c r="C111" s="3">
         <f>_xll.BDP(A111&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="4"/>
@@ -4643,7 +4644,7 @@
       </c>
       <c r="C112" s="3">
         <f>_xll.BDP(A112&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="4"/>
@@ -4661,7 +4662,7 @@
       </c>
       <c r="C113" s="3">
         <f>_xll.BDP(A113&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="4"/>
@@ -4679,7 +4680,7 @@
       </c>
       <c r="C114" s="3">
         <f>_xll.BDP(A114&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="4"/>
@@ -4697,7 +4698,7 @@
       </c>
       <c r="C115" s="3">
         <f>_xll.BDP(A115&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="4"/>
@@ -4715,7 +4716,7 @@
       </c>
       <c r="C116" s="3">
         <f>_xll.BDP(A116&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="4"/>
@@ -4733,7 +4734,7 @@
       </c>
       <c r="C117" s="3">
         <f>_xll.BDP(A117&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
@@ -4751,7 +4752,7 @@
       </c>
       <c r="C118" s="3">
         <f>_xll.BDP(A118&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="4"/>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="C119" s="3">
         <f>_xll.BDP(A119&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="4"/>
@@ -4787,7 +4788,7 @@
       </c>
       <c r="C120" s="3">
         <f>_xll.BDP(A120&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="4"/>
@@ -4805,7 +4806,7 @@
       </c>
       <c r="C121" s="3">
         <f>_xll.BDP(A121&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="4"/>
@@ -4823,7 +4824,7 @@
       </c>
       <c r="C122" s="3">
         <f>_xll.BDP(A122&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="4"/>
@@ -4841,7 +4842,7 @@
       </c>
       <c r="C123" s="3">
         <f>_xll.BDP(A123&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="4"/>
@@ -4859,7 +4860,7 @@
       </c>
       <c r="C124" s="3">
         <f>_xll.BDP(A124&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="4"/>
@@ -4877,7 +4878,7 @@
       </c>
       <c r="C125" s="3">
         <f>_xll.BDP(A125&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="4"/>
@@ -4895,7 +4896,7 @@
       </c>
       <c r="C126" s="3">
         <f>_xll.BDP(A126&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="4"/>
@@ -4913,7 +4914,7 @@
       </c>
       <c r="C127" s="3">
         <f>_xll.BDP(A127&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="4"/>
@@ -4931,7 +4932,7 @@
       </c>
       <c r="C128" s="3">
         <f>_xll.BDP(A128&amp;" Comdty","PX_SETTLE")</f>
-        <v>6036</v>
+        <v>6213</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="4"/>
@@ -5113,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5176,7 +5177,7 @@
         <v>USD</v>
       </c>
       <c r="J2">
-        <v>-72606.148669632501</v>
+        <v>128456.288386617</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
@@ -5201,7 +5202,7 @@
         <v>USD</v>
       </c>
       <c r="J3">
-        <v>-67698.772339229326</v>
+        <v>130894.70999969823</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -5219,7 +5220,7 @@
       </c>
       <c r="Q3">
         <f>_xll.QCurves_GetAveragePrice(Curves!$I$1,O3:O24)</f>
-        <v>5926.1095779220777</v>
+        <v>6131.2796266233772</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -5241,7 +5242,7 @@
         <v>USD</v>
       </c>
       <c r="J4">
-        <v>-63549.837101878125</v>
+        <v>133473.23969754911</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
@@ -5279,7 +5280,7 @@
         <v>USD</v>
       </c>
       <c r="J5">
-        <v>-58853.071379158413</v>
+        <v>136840.39451617506</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
@@ -5320,7 +5321,7 @@
         <v>USD</v>
       </c>
       <c r="J6">
-        <v>-54601.418540102975</v>
+        <v>139813.4157621098</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
@@ -5337,7 +5338,7 @@
       </c>
       <c r="Q6">
         <f>(Q3-Q5)*Q4</f>
-        <v>-73890.422077922267</v>
+        <v>131279.62662337723</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -5362,7 +5363,7 @@
         <v>USD</v>
       </c>
       <c r="J7">
-        <v>-49623.548270752523</v>
+        <v>143102.09682512039</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
@@ -5401,7 +5402,7 @@
         <v>USD</v>
       </c>
       <c r="J8">
-        <v>-44702.523448696295</v>
+        <v>146168.7064253946</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
@@ -5418,7 +5419,7 @@
       </c>
       <c r="Q8">
         <f>_xll.QCurves_GetDF(Curves!$M$2,Curves!B1,Q7)</f>
-        <v>0.98261921677838815</v>
+        <v>0.97849370607322039</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -5440,7 +5441,7 @@
         <v>USD</v>
       </c>
       <c r="J9">
-        <v>-40407.912106306234</v>
+        <v>148679.97171602843</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
@@ -5457,7 +5458,7 @@
       </c>
       <c r="Q9">
         <f>Q8*Q6</f>
-        <v>-72606.148669632501</v>
+        <v>128456.288386617</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -5479,7 +5480,7 @@
         <v>USD</v>
       </c>
       <c r="J10">
-        <v>-35695.006794755202</v>
+        <v>151410.1761603122</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
@@ -5511,7 +5512,7 @@
         <v>USD</v>
       </c>
       <c r="J11">
-        <v>-31469.893906413152</v>
+        <v>153737.5300705836</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -5550,7 +5551,7 @@
         <v>USD</v>
       </c>
       <c r="J12">
-        <v>-28243.71031285033</v>
+        <v>155451.2966480446</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
@@ -5582,7 +5583,7 @@
         <v>USD</v>
       </c>
       <c r="J13">
-        <v>-24521.029094884794</v>
+        <v>157464.33786238471</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
@@ -5614,7 +5615,7 @@
         <v>USD</v>
       </c>
       <c r="J14">
-        <v>-20707.647570980429</v>
+        <v>159533.5612060354</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -5646,7 +5647,7 @@
         <v>USD</v>
       </c>
       <c r="J15">
-        <v>-17681.081368335639</v>
+        <v>161226.80519391876</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
@@ -5712,7 +5713,7 @@
         <v>Mar19</v>
       </c>
       <c r="J18">
-        <v>1.4760672684133169E-7</v>
+        <v>-9.3369138198795554E-6</v>
       </c>
       <c r="K18" t="e">
         <v>#N/A</v>
@@ -5734,7 +5735,7 @@
       </c>
       <c r="D19" t="str">
         <f>_xll.QIns_AssetPortfolioPV(C19,D18,Curves!M4)</f>
-        <v>PV¬1</v>
+        <v>PV¬2</v>
       </c>
       <c r="H19" t="str">
         <v>Gamma</v>
@@ -5743,7 +5744,7 @@
         <v>Apr19</v>
       </c>
       <c r="J19">
-        <v>7.2777174864313565E-5</v>
+        <v>-4.5750422827950388E-5</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
@@ -5765,7 +5766,7 @@
       </c>
       <c r="D20" t="str">
         <f>_xll.QIns_AssetPortfolioDeltaGamma(C20,D18,Curves!M4)</f>
-        <v>Delta¬1</v>
+        <v>Delta¬2</v>
       </c>
       <c r="H20" t="str">
         <v>Gamma</v>
@@ -5774,7 +5775,7 @@
         <v>May19</v>
       </c>
       <c r="J20">
-        <v>7.4121402349192067E-7</v>
+        <v>-1.9204200896183465E-5</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="D21" t="str">
         <f>_xll.QCube_AggregateCube(C21,D20,{"Metric","PointLabel"},"Sum")</f>
-        <v>Agg1¬1</v>
+        <v>Agg1¬2</v>
       </c>
       <c r="H21" t="str">
         <v>Gamma</v>
@@ -5805,7 +5806,7 @@
         <v>Jun19</v>
       </c>
       <c r="J21">
-        <v>2.7502090915731969E-5</v>
+        <v>2.6272047648490116E-5</v>
       </c>
       <c r="K21" t="e">
         <v>#N/A</v>
@@ -5833,7 +5834,7 @@
       </c>
       <c r="D22" t="str">
         <f>_xll.QCube_FilterCube(C22,D21,A22:B22)</f>
-        <v>FilteredA¬1</v>
+        <v>FilteredA¬2</v>
       </c>
       <c r="H22" t="str">
         <v>Gamma</v>
@@ -5842,7 +5843,7 @@
         <v>Jul19</v>
       </c>
       <c r="J22">
-        <v>-9.1630852239177329E-6</v>
+        <v>-9.8750348342946381E-6</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
@@ -5866,7 +5867,7 @@
         <v>Aug19</v>
       </c>
       <c r="J23">
-        <v>2.7269041424915486E-5</v>
+        <v>-3.0011904073035112E-7</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
@@ -5896,7 +5897,7 @@
         <v>Sep19</v>
       </c>
       <c r="J24">
-        <v>1.8271714452566812E-5</v>
+        <v>-1.8049054517632612E-5</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
@@ -5926,7 +5927,7 @@
         <v>Oct19</v>
       </c>
       <c r="J25">
-        <v>1.5012489029686549E-7</v>
+        <v>1.8393879486211517E-5</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
@@ -5947,7 +5948,7 @@
         <v>Nov19</v>
       </c>
       <c r="J26">
-        <v>3.6433914374356391E-5</v>
+        <v>9.3758217190043069E-6</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
@@ -5966,7 +5967,7 @@
       </c>
       <c r="D27" t="str">
         <f>_xll.QCube_FilterCube("fCube",D20,B29:C30)</f>
-        <v>fCube¬1</v>
+        <v>fCube¬2</v>
       </c>
       <c r="H27" t="str">
         <v>Gamma</v>
@@ -5975,7 +5976,7 @@
         <v>Dec19</v>
       </c>
       <c r="J27">
-        <v>-2.7277238245915214E-5</v>
+        <v>-7.2155610553181759E-5</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
@@ -5992,7 +5993,7 @@
         <v>Jan20</v>
       </c>
       <c r="J28">
-        <v>-9.1893781473117997E-6</v>
+        <v>2.8264227580621082E-5</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
@@ -6015,7 +6016,7 @@
         <v>Feb20</v>
       </c>
       <c r="J29">
-        <v>1.8091937192821206E-5</v>
+        <v>3.0484983426504186E-7</v>
       </c>
       <c r="K29" t="e">
         <v>#N/A</v>
@@ -6038,7 +6039,7 @@
         <v>Mar20</v>
       </c>
       <c r="J30">
-        <v>5.4444191732727631E-5</v>
+        <v>-8.556818897886842E-6</v>
       </c>
       <c r="K30" t="e">
         <v>#N/A</v>
@@ -6055,7 +6056,7 @@
         <v>Apr20</v>
       </c>
       <c r="J31">
-        <v>2.7210114694753429E-5</v>
+        <v>8.2715246207953896E-6</v>
       </c>
       <c r="K31" t="e">
         <v>#N/A</v>
@@ -6072,7 +6073,7 @@
         <v>May20</v>
       </c>
       <c r="J32">
-        <v>9.0970388555433601E-6</v>
+        <v>8.2970672110604937E-6</v>
       </c>
       <c r="K32" t="e">
         <v>#N/A</v>
@@ -6089,7 +6090,7 @@
         <v>Jun20</v>
       </c>
       <c r="J33">
-        <v>-3.8315306483127642E-8</v>
+        <v>1.7867508006474964E-5</v>
       </c>
       <c r="K33" t="e">
         <v>#N/A</v>
@@ -9296,7 +9297,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Delta,Gamma"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9306,11 +9307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9357,7 +9358,7 @@
         <v>XAU_NOV-18</v>
       </c>
       <c r="I2" s="3">
-        <v>441.12246246644531</v>
+        <v>520.07413726574919</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -9382,7 +9383,7 @@
         <v>XAU_DEC-18</v>
       </c>
       <c r="I3" s="3">
-        <v>467.6396703962688</v>
+        <v>534.88517004714549</v>
       </c>
       <c r="J3" t="e">
         <v>#N/A</v>
@@ -9409,7 +9410,7 @@
         <v>XAU_JAN-19</v>
       </c>
       <c r="I4" s="3">
-        <v>488.99781815441702</v>
+        <v>548.13389773282438</v>
       </c>
       <c r="J4" t="e">
         <v>#N/A</v>
@@ -9436,7 +9437,7 @@
         <v>XAU_FEB-19</v>
       </c>
       <c r="I5" s="3">
-        <v>505.36703359600301</v>
+        <v>559.04719445008391</v>
       </c>
       <c r="J5" t="e">
         <v>#N/A</v>
@@ -9463,7 +9464,7 @@
         <v>XAU_MAR-19</v>
       </c>
       <c r="I6" s="3">
-        <v>518.61222450924424</v>
+        <v>567.31633817556246</v>
       </c>
       <c r="J6" t="e">
         <v>#N/A</v>
@@ -9490,7 +9491,7 @@
         <v>XAU_APR-19</v>
       </c>
       <c r="I7" s="3">
-        <v>530.56615643703446</v>
+        <v>574.36377844581102</v>
       </c>
       <c r="J7" t="e">
         <v>#N/A</v>
@@ -9518,7 +9519,7 @@
         <v>XAU_MAY-19</v>
       </c>
       <c r="I8" s="3">
-        <v>541.56127578908797</v>
+        <v>581.2787843456249</v>
       </c>
       <c r="J8" t="e">
         <v>#N/A</v>
@@ -9545,7 +9546,7 @@
         <v>XAU_JUN-19</v>
       </c>
       <c r="I9" s="3">
-        <v>551.18342500414178</v>
+        <v>588.24154957054839</v>
       </c>
       <c r="J9" t="e">
         <v>#N/A</v>
@@ -9572,7 +9573,7 @@
         <v>XAU_JUL-19</v>
       </c>
       <c r="I10" s="3">
-        <v>560.00560616595214</v>
+        <v>595.33499722656416</v>
       </c>
       <c r="J10" t="e">
         <v>#N/A</v>
@@ -9598,7 +9599,7 @@
         <v>XAU_AUG-19</v>
       </c>
       <c r="I11" s="3">
-        <v>568.26689276985235</v>
+        <v>602.28024182341483</v>
       </c>
       <c r="J11" t="e">
         <v>#N/A</v>
@@ -9626,7 +9627,7 @@
         <v>XAU_SEP-19</v>
       </c>
       <c r="I12" s="3">
-        <v>575.34254610866901</v>
+        <v>607.77962531738194</v>
       </c>
       <c r="J12" t="e">
         <v>#N/A</v>
@@ -9652,7 +9653,7 @@
         <v>XAU_OCT-19</v>
       </c>
       <c r="I13" s="3">
-        <v>581.47119856947165</v>
+        <v>612.30558049839601</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -9678,7 +9679,7 @@
         <v>XAU_NOV-19</v>
       </c>
       <c r="I14" s="3">
-        <v>587.34434129309716</v>
+        <v>616.82771251361362</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -9704,7 +9705,7 @@
         <v>XAU_DEC-19</v>
       </c>
       <c r="I15" s="3">
-        <v>592.69460412840237</v>
+        <v>621.00347503668218</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -9745,7 +9746,7 @@
         <v>2M</v>
       </c>
       <c r="I18" s="3">
-        <v>786.02647752622215</v>
+        <v>785.57804452785422</v>
       </c>
       <c r="J18" t="e">
         <v>#N/A</v>
@@ -9767,7 +9768,7 @@
         <v>3M</v>
       </c>
       <c r="I19" s="3">
-        <v>4453.3865274238087</v>
+        <v>4489.2428125521692</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -9789,7 +9790,7 @@
         <v>6M</v>
       </c>
       <c r="I20" s="3">
-        <v>10488.293272448453</v>
+        <v>10444.019193590353</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -9811,7 +9812,7 @@
         <v>9M</v>
       </c>
       <c r="I21" s="3">
-        <v>12381.759180022782</v>
+        <v>12271.625854569458</v>
       </c>
       <c r="J21" t="e">
         <v>#N/A</v>
@@ -9833,7 +9834,7 @@
         <v>1Y</v>
       </c>
       <c r="I22" s="3">
-        <v>19323.544484610138</v>
+        <v>19050.178209265003</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -9848,7 +9849,7 @@
         <v>18M</v>
       </c>
       <c r="I23" s="3">
-        <v>9186.9083001461695</v>
+        <v>9059.2153327649576</v>
       </c>
       <c r="J23" t="e">
         <v>#N/A</v>
@@ -9913,7 +9914,7 @@
       </c>
       <c r="D27" t="str">
         <f>_xll.QIns_AssetPortfolioVega(C27,D18,Curves!$M$4,"USD")</f>
-        <v>XAU_Vega¬1</v>
+        <v>XAU_Vega¬3</v>
       </c>
       <c r="H27" t="e">
         <v>#N/A</v>
@@ -9934,7 +9935,7 @@
       </c>
       <c r="D28" t="str">
         <f>_xll.QCube_AggregateCube(C28,D27,"PointLabel","Sum")</f>
-        <v>Xau3¬1</v>
+        <v>Xau3¬3</v>
       </c>
       <c r="H28" t="e">
         <v>#N/A</v>
